--- a/Inventory CSVs/HydraulicInventorySheetJun2025.xlsx
+++ b/Inventory CSVs/HydraulicInventorySheetJun2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.0.1.6\Engineering\Rigs\HAZL\HAZL BOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420404FD-DCC5-4F0E-9316-346B33BF3B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD971A7-FDFC-4F73-BF01-A77A6DA9C81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2033" yWindow="3818" windowWidth="17279" windowHeight="10072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -5418,7 +5418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5471,6 +5471,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF27100"/>
         <bgColor rgb="FFF27100"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor rgb="FF88F94E"/>
       </patternFill>
     </fill>
   </fills>
@@ -5623,7 +5629,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5769,6 +5775,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5990,25 +6002,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1035"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B296" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K314" sqref="K314"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.59765625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="31.86328125" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.3984375" customWidth="1"/>
+    <col min="6" max="6" width="6.1328125" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="59.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="26" width="8.28515625" customWidth="1"/>
+    <col min="8" max="9" width="9.59765625" customWidth="1"/>
+    <col min="10" max="10" width="59.265625" customWidth="1"/>
+    <col min="11" max="11" width="17.3984375" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" customWidth="1"/>
+    <col min="13" max="13" width="15.3984375" customWidth="1"/>
+    <col min="14" max="26" width="8.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1">
@@ -8722,7 +8734,7 @@
         <v>12</v>
       </c>
       <c r="D60" s="22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E60" s="21" t="s">
         <v>84</v>
@@ -8731,7 +8743,7 @@
         <v>14</v>
       </c>
       <c r="G60" s="22"/>
-      <c r="H60" s="25" t="s">
+      <c r="H60" s="49" t="s">
         <v>56</v>
       </c>
       <c r="I60" s="18" t="s">
@@ -8931,7 +8943,9 @@
       <c r="C65" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="16"/>
+      <c r="D65" s="16">
+        <v>0</v>
+      </c>
       <c r="E65" s="15" t="s">
         <v>84</v>
       </c>
@@ -9658,7 +9672,7 @@
         <v>12</v>
       </c>
       <c r="D81" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>42</v>
@@ -9667,7 +9681,7 @@
         <v>14</v>
       </c>
       <c r="G81" s="16"/>
-      <c r="H81" s="17"/>
+      <c r="H81" s="50"/>
       <c r="I81" s="18" t="s">
         <v>15</v>
       </c>
@@ -14806,7 +14820,7 @@
         <v>12</v>
       </c>
       <c r="D194" s="22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E194" s="21" t="s">
         <v>86</v>
@@ -14852,7 +14866,7 @@
         <v>12</v>
       </c>
       <c r="D195" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E195" s="15" t="s">
         <v>13</v>
@@ -14990,7 +15004,7 @@
         <v>12</v>
       </c>
       <c r="D198" s="22">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E198" s="21" t="s">
         <v>86</v>
@@ -15452,7 +15466,7 @@
         <v>12</v>
       </c>
       <c r="D208" s="22">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E208" s="21" t="s">
         <v>42</v>
@@ -16265,7 +16279,7 @@
         <v>14</v>
       </c>
       <c r="G226" s="22"/>
-      <c r="H226" s="17"/>
+      <c r="H226" s="50"/>
       <c r="I226" s="25" t="s">
         <v>383</v>
       </c>
@@ -16480,7 +16494,7 @@
         <v>12</v>
       </c>
       <c r="D231" s="16">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E231" s="15" t="s">
         <v>42</v>
@@ -20317,7 +20331,9 @@
       <c r="C327" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D327" s="22"/>
+      <c r="D327" s="22">
+        <v>0</v>
+      </c>
       <c r="E327" s="22"/>
       <c r="F327" s="22"/>
       <c r="G327" s="22"/>

--- a/Inventory CSVs/HydraulicInventorySheetJun2025.xlsx
+++ b/Inventory CSVs/HydraulicInventorySheetJun2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exlterra CAD 02\Documents\GitHub\pjbrich.github.io\Inventory CSVs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD971A7-FDFC-4F73-BF01-A77A6DA9C81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A99A2-0ED3-44C8-A27A-5D8C079154E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2033" yWindow="3818" windowWidth="17279" windowHeight="10072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="1114">
   <si>
     <t>Part Name</t>
   </si>
@@ -5343,6 +5343,18 @@
   <si>
     <t>M6 X 16 HEX CAP 10.9 (A4020060016)</t>
   </si>
+  <si>
+    <t>PWTR950099</t>
+  </si>
+  <si>
+    <t>ProWinch.com</t>
+  </si>
+  <si>
+    <t>https://prowinch.com/shop/new-compact-roller-full-drum-width</t>
+  </si>
+  <si>
+    <t>Compact roller full drum width</t>
+  </si>
 </sst>
 </file>
 
@@ -5352,7 +5364,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-m\-d"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -5417,8 +5429,15 @@
       <name val="Helvetica Neue"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5477,6 +5496,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor rgb="FF88F94E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -5629,7 +5660,7 @@
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5771,17 +5802,32 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6002,43 +6048,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1035"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B196" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E210" sqref="E210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="43.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.59765625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="31.86328125" customWidth="1"/>
-    <col min="3" max="3" width="23.86328125" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="24.3984375" customWidth="1"/>
-    <col min="6" max="6" width="6.1328125" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="9" width="9.59765625" customWidth="1"/>
-    <col min="10" max="10" width="59.265625" customWidth="1"/>
-    <col min="11" max="11" width="17.3984375" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" customWidth="1"/>
-    <col min="13" max="13" width="15.3984375" customWidth="1"/>
-    <col min="14" max="26" width="8.265625" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="53" t="s">
         <v>689</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -8743,7 +8785,7 @@
         <v>14</v>
       </c>
       <c r="G60" s="22"/>
-      <c r="H60" s="49" t="s">
+      <c r="H60" s="47" t="s">
         <v>56</v>
       </c>
       <c r="I60" s="18" t="s">
@@ -9681,7 +9723,7 @@
         <v>14</v>
       </c>
       <c r="G81" s="16"/>
-      <c r="H81" s="50"/>
+      <c r="H81" s="48"/>
       <c r="I81" s="18" t="s">
         <v>15</v>
       </c>
@@ -16279,7 +16321,7 @@
         <v>14</v>
       </c>
       <c r="G226" s="22"/>
-      <c r="H226" s="50"/>
+      <c r="H226" s="48"/>
       <c r="I226" s="25" t="s">
         <v>383</v>
       </c>
@@ -20736,7 +20778,7 @@
       <c r="H338" s="16"/>
       <c r="I338" s="16"/>
       <c r="J338" s="16"/>
-      <c r="K338" s="43">
+      <c r="K338" s="39">
         <v>27.88</v>
       </c>
       <c r="L338" s="43"/>
@@ -20772,7 +20814,7 @@
       <c r="H339" s="22"/>
       <c r="I339" s="22"/>
       <c r="J339" s="22"/>
-      <c r="K339" s="44">
+      <c r="K339" s="40">
         <v>1.35</v>
       </c>
       <c r="L339" s="44"/>
@@ -20808,7 +20850,7 @@
       <c r="H340" s="16"/>
       <c r="I340" s="16"/>
       <c r="J340" s="16"/>
-      <c r="K340" s="43">
+      <c r="K340" s="39">
         <v>1.43</v>
       </c>
       <c r="L340" s="43"/>
@@ -20844,7 +20886,7 @@
       <c r="H341" s="22"/>
       <c r="I341" s="22"/>
       <c r="J341" s="22"/>
-      <c r="K341" s="44">
+      <c r="K341" s="40">
         <v>248.4</v>
       </c>
       <c r="L341" s="44"/>
@@ -20880,7 +20922,7 @@
       <c r="H342" s="16"/>
       <c r="I342" s="16"/>
       <c r="J342" s="16"/>
-      <c r="K342" s="43">
+      <c r="K342" s="39">
         <v>12.15</v>
       </c>
       <c r="L342" s="43"/>
@@ -20916,7 +20958,7 @@
       <c r="H343" s="22"/>
       <c r="I343" s="22"/>
       <c r="J343" s="22"/>
-      <c r="K343" s="44">
+      <c r="K343" s="40">
         <v>64.180000000000007</v>
       </c>
       <c r="L343" s="44"/>
@@ -20952,7 +20994,7 @@
       <c r="H344" s="16"/>
       <c r="I344" s="16"/>
       <c r="J344" s="16"/>
-      <c r="K344" s="43">
+      <c r="K344" s="39">
         <v>163.46</v>
       </c>
       <c r="L344" s="43"/>
@@ -20990,7 +21032,7 @@
       <c r="H345" s="22"/>
       <c r="I345" s="22"/>
       <c r="J345" s="22"/>
-      <c r="K345" s="44">
+      <c r="K345" s="40">
         <v>392.86</v>
       </c>
       <c r="L345" s="44"/>
@@ -21028,7 +21070,7 @@
       <c r="H346" s="16"/>
       <c r="I346" s="16"/>
       <c r="J346" s="16"/>
-      <c r="K346" s="43">
+      <c r="K346" s="39">
         <v>458.68</v>
       </c>
       <c r="L346" s="43"/>
@@ -21064,7 +21106,7 @@
       <c r="H347" s="22"/>
       <c r="I347" s="22"/>
       <c r="J347" s="22"/>
-      <c r="K347" s="44">
+      <c r="K347" s="40">
         <v>815.95</v>
       </c>
       <c r="L347" s="44"/>
@@ -21100,7 +21142,7 @@
       <c r="H348" s="16"/>
       <c r="I348" s="16"/>
       <c r="J348" s="16"/>
-      <c r="K348" s="43">
+      <c r="K348" s="39">
         <v>529.79</v>
       </c>
       <c r="L348" s="43"/>
@@ -21136,7 +21178,7 @@
       <c r="H349" s="22"/>
       <c r="I349" s="22"/>
       <c r="J349" s="22"/>
-      <c r="K349" s="44">
+      <c r="K349" s="40">
         <v>529.79</v>
       </c>
       <c r="L349" s="44"/>
@@ -21172,7 +21214,7 @@
       <c r="H350" s="22"/>
       <c r="I350" s="22"/>
       <c r="J350" s="22"/>
-      <c r="K350" s="44">
+      <c r="K350" s="40">
         <v>6.43</v>
       </c>
       <c r="L350" s="44"/>
@@ -21208,7 +21250,7 @@
       <c r="H351" s="16"/>
       <c r="I351" s="16"/>
       <c r="J351" s="16"/>
-      <c r="K351" s="43">
+      <c r="K351" s="39">
         <v>14.83</v>
       </c>
       <c r="L351" s="43"/>
@@ -21244,7 +21286,7 @@
       <c r="H352" s="22"/>
       <c r="I352" s="22"/>
       <c r="J352" s="22"/>
-      <c r="K352" s="44">
+      <c r="K352" s="40">
         <v>14.44</v>
       </c>
       <c r="L352" s="44"/>
@@ -21280,7 +21322,7 @@
       <c r="H353" s="16"/>
       <c r="I353" s="16"/>
       <c r="J353" s="16"/>
-      <c r="K353" s="43">
+      <c r="K353" s="39">
         <v>7.98</v>
       </c>
       <c r="L353" s="43"/>
@@ -21316,7 +21358,7 @@
       <c r="H354" s="22"/>
       <c r="I354" s="22"/>
       <c r="J354" s="22"/>
-      <c r="K354" s="44">
+      <c r="K354" s="40">
         <v>60.7</v>
       </c>
       <c r="L354" s="44"/>
@@ -21352,7 +21394,7 @@
       <c r="H355" s="16"/>
       <c r="I355" s="16"/>
       <c r="J355" s="16"/>
-      <c r="K355" s="43">
+      <c r="K355" s="39">
         <v>151.91999999999999</v>
       </c>
       <c r="L355" s="43"/>
@@ -21388,7 +21430,7 @@
       <c r="H356" s="22"/>
       <c r="I356" s="22"/>
       <c r="J356" s="22"/>
-      <c r="K356" s="44">
+      <c r="K356" s="40">
         <v>103.5</v>
       </c>
       <c r="L356" s="44"/>
@@ -21424,7 +21466,7 @@
       <c r="H357" s="16"/>
       <c r="I357" s="16"/>
       <c r="J357" s="16"/>
-      <c r="K357" s="43">
+      <c r="K357" s="39">
         <v>146.49</v>
       </c>
       <c r="L357" s="43"/>
@@ -21460,7 +21502,7 @@
       <c r="H358" s="22"/>
       <c r="I358" s="22"/>
       <c r="J358" s="22"/>
-      <c r="K358" s="44">
+      <c r="K358" s="40">
         <v>2.4700000000000002</v>
       </c>
       <c r="L358" s="44"/>
@@ -21496,7 +21538,7 @@
       <c r="H359" s="16"/>
       <c r="I359" s="16"/>
       <c r="J359" s="16"/>
-      <c r="K359" s="43">
+      <c r="K359" s="39">
         <v>124.35</v>
       </c>
       <c r="L359" s="43"/>
@@ -21532,7 +21574,7 @@
       <c r="H360" s="22"/>
       <c r="I360" s="22"/>
       <c r="J360" s="22"/>
-      <c r="K360" s="44">
+      <c r="K360" s="40">
         <v>37.14</v>
       </c>
       <c r="L360" s="44"/>
@@ -21568,7 +21610,7 @@
       <c r="H361" s="16"/>
       <c r="I361" s="16"/>
       <c r="J361" s="16"/>
-      <c r="K361" s="43">
+      <c r="K361" s="39">
         <v>121.76</v>
       </c>
       <c r="L361" s="43"/>
@@ -21604,7 +21646,7 @@
       <c r="H362" s="22"/>
       <c r="I362" s="22"/>
       <c r="J362" s="22"/>
-      <c r="K362" s="44">
+      <c r="K362" s="40">
         <v>15</v>
       </c>
       <c r="L362" s="44"/>
@@ -21640,7 +21682,7 @@
       <c r="H363" s="16"/>
       <c r="I363" s="16"/>
       <c r="J363" s="16"/>
-      <c r="K363" s="43">
+      <c r="K363" s="39">
         <v>24.05</v>
       </c>
       <c r="L363" s="43"/>
@@ -21676,7 +21718,7 @@
       <c r="H364" s="16"/>
       <c r="I364" s="16"/>
       <c r="J364" s="16"/>
-      <c r="K364" s="43">
+      <c r="K364" s="39">
         <v>222.6</v>
       </c>
       <c r="L364" s="43"/>
@@ -21712,7 +21754,7 @@
       <c r="H365" s="22"/>
       <c r="I365" s="22"/>
       <c r="J365" s="22"/>
-      <c r="K365" s="44">
+      <c r="K365" s="40">
         <v>163.46</v>
       </c>
       <c r="L365" s="44"/>
@@ -21748,7 +21790,7 @@
       <c r="H366" s="16"/>
       <c r="I366" s="16"/>
       <c r="J366" s="16"/>
-      <c r="K366" s="43">
+      <c r="K366" s="39">
         <v>46.76</v>
       </c>
       <c r="L366" s="43"/>
@@ -21784,7 +21826,7 @@
       <c r="H367" s="22"/>
       <c r="I367" s="22"/>
       <c r="J367" s="22"/>
-      <c r="K367" s="44">
+      <c r="K367" s="40">
         <v>25.29</v>
       </c>
       <c r="L367" s="44"/>
@@ -21820,7 +21862,7 @@
       <c r="H368" s="16"/>
       <c r="I368" s="16"/>
       <c r="J368" s="16"/>
-      <c r="K368" s="43">
+      <c r="K368" s="39">
         <v>414</v>
       </c>
       <c r="L368" s="43"/>
@@ -21856,7 +21898,7 @@
       <c r="H369" s="22"/>
       <c r="I369" s="22"/>
       <c r="J369" s="22"/>
-      <c r="K369" s="44">
+      <c r="K369" s="40">
         <v>497.5</v>
       </c>
       <c r="L369" s="44"/>
@@ -21892,7 +21934,7 @@
       <c r="H370" s="16"/>
       <c r="I370" s="16"/>
       <c r="J370" s="16"/>
-      <c r="K370" s="43">
+      <c r="K370" s="39">
         <v>47.75</v>
       </c>
       <c r="L370" s="43"/>
@@ -21928,7 +21970,7 @@
       <c r="H371" s="22"/>
       <c r="I371" s="22"/>
       <c r="J371" s="22"/>
-      <c r="K371" s="44">
+      <c r="K371" s="40">
         <v>33.119999999999997</v>
       </c>
       <c r="L371" s="44"/>
@@ -21964,7 +22006,7 @@
       <c r="H372" s="16"/>
       <c r="I372" s="16"/>
       <c r="J372" s="16"/>
-      <c r="K372" s="43">
+      <c r="K372" s="39">
         <v>674.51</v>
       </c>
       <c r="L372" s="43"/>
@@ -22000,7 +22042,7 @@
       <c r="H373" s="22"/>
       <c r="I373" s="22"/>
       <c r="J373" s="22"/>
-      <c r="K373" s="44">
+      <c r="K373" s="40">
         <v>121.28</v>
       </c>
       <c r="L373" s="44"/>
@@ -22036,7 +22078,7 @@
       <c r="H374" s="16"/>
       <c r="I374" s="16"/>
       <c r="J374" s="16"/>
-      <c r="K374" s="43">
+      <c r="K374" s="39">
         <v>166.93</v>
       </c>
       <c r="L374" s="43"/>
@@ -22072,7 +22114,7 @@
       <c r="H375" s="22"/>
       <c r="I375" s="22"/>
       <c r="J375" s="22"/>
-      <c r="K375" s="44">
+      <c r="K375" s="40">
         <v>166.93</v>
       </c>
       <c r="L375" s="44"/>
@@ -22108,7 +22150,7 @@
       <c r="H376" s="16"/>
       <c r="I376" s="16"/>
       <c r="J376" s="16"/>
-      <c r="K376" s="43">
+      <c r="K376" s="39">
         <v>23.38</v>
       </c>
       <c r="L376" s="43"/>
@@ -22144,7 +22186,7 @@
       <c r="H377" s="22"/>
       <c r="I377" s="22"/>
       <c r="J377" s="22"/>
-      <c r="K377" s="44">
+      <c r="K377" s="40">
         <v>0.14000000000000001</v>
       </c>
       <c r="L377" s="44"/>
@@ -22180,7 +22222,7 @@
       <c r="H378" s="16"/>
       <c r="I378" s="16"/>
       <c r="J378" s="16"/>
-      <c r="K378" s="43">
+      <c r="K378" s="39">
         <v>2.06</v>
       </c>
       <c r="L378" s="43"/>
@@ -22216,7 +22258,7 @@
       <c r="H379" s="22"/>
       <c r="I379" s="22"/>
       <c r="J379" s="22"/>
-      <c r="K379" s="44">
+      <c r="K379" s="40">
         <v>126</v>
       </c>
       <c r="L379" s="44"/>
@@ -22252,7 +22294,7 @@
       <c r="H380" s="16"/>
       <c r="I380" s="16"/>
       <c r="J380" s="16"/>
-      <c r="K380" s="43">
+      <c r="K380" s="39">
         <v>14.73</v>
       </c>
       <c r="L380" s="43"/>
@@ -22288,7 +22330,7 @@
       <c r="H381" s="22"/>
       <c r="I381" s="22"/>
       <c r="J381" s="22"/>
-      <c r="K381" s="44">
+      <c r="K381" s="40">
         <v>36.9</v>
       </c>
       <c r="L381" s="44"/>
@@ -22324,7 +22366,7 @@
       <c r="H382" s="16"/>
       <c r="I382" s="16"/>
       <c r="J382" s="16"/>
-      <c r="K382" s="43">
+      <c r="K382" s="39">
         <v>21.61</v>
       </c>
       <c r="L382" s="43"/>
@@ -22360,7 +22402,7 @@
       <c r="H383" s="22"/>
       <c r="I383" s="22"/>
       <c r="J383" s="22"/>
-      <c r="K383" s="44">
+      <c r="K383" s="40">
         <v>402.75</v>
       </c>
       <c r="L383" s="44"/>
@@ -22396,7 +22438,7 @@
       <c r="H384" s="16"/>
       <c r="I384" s="16"/>
       <c r="J384" s="16"/>
-      <c r="K384" s="43">
+      <c r="K384" s="39">
         <v>154.62</v>
       </c>
       <c r="L384" s="43"/>
@@ -22432,7 +22474,7 @@
       <c r="H385" s="22"/>
       <c r="I385" s="22"/>
       <c r="J385" s="22"/>
-      <c r="K385" s="44">
+      <c r="K385" s="40">
         <v>93.89</v>
       </c>
       <c r="L385" s="44"/>
@@ -22468,7 +22510,7 @@
       <c r="H386" s="16"/>
       <c r="I386" s="16"/>
       <c r="J386" s="16"/>
-      <c r="K386" s="43">
+      <c r="K386" s="39">
         <v>47.6</v>
       </c>
       <c r="L386" s="43"/>
@@ -22504,7 +22546,7 @@
       <c r="H387" s="22"/>
       <c r="I387" s="22"/>
       <c r="J387" s="22"/>
-      <c r="K387" s="44">
+      <c r="K387" s="40">
         <v>1601.41</v>
       </c>
       <c r="L387" s="44"/>
@@ -22542,7 +22584,7 @@
       <c r="H388" s="16"/>
       <c r="I388" s="16"/>
       <c r="J388" s="16"/>
-      <c r="K388" s="43">
+      <c r="K388" s="39">
         <v>595</v>
       </c>
       <c r="L388" s="16">
@@ -22582,7 +22624,7 @@
       <c r="H389" s="22"/>
       <c r="I389" s="22"/>
       <c r="J389" s="22"/>
-      <c r="K389" s="44">
+      <c r="K389" s="40">
         <v>412</v>
       </c>
       <c r="L389" s="22">
@@ -22624,7 +22666,7 @@
       <c r="J390" s="45" t="s">
         <v>1051</v>
       </c>
-      <c r="K390" s="43">
+      <c r="K390" s="39">
         <v>489.28</v>
       </c>
       <c r="L390" s="43"/>
@@ -22660,7 +22702,7 @@
       <c r="H391" s="22"/>
       <c r="I391" s="22"/>
       <c r="J391" s="22"/>
-      <c r="K391" s="44">
+      <c r="K391" s="40">
         <v>88.87</v>
       </c>
       <c r="L391" s="44"/>
@@ -22696,7 +22738,7 @@
       <c r="H392" s="16"/>
       <c r="I392" s="16"/>
       <c r="J392" s="16"/>
-      <c r="K392" s="43">
+      <c r="K392" s="39">
         <v>2814.39</v>
       </c>
       <c r="L392" s="16"/>
@@ -22732,7 +22774,7 @@
       <c r="H393" s="16"/>
       <c r="I393" s="16"/>
       <c r="J393" s="46"/>
-      <c r="K393" s="43">
+      <c r="K393" s="39">
         <v>2917</v>
       </c>
       <c r="L393" s="16"/>
@@ -22772,7 +22814,7 @@
       <c r="J394" s="45" t="s">
         <v>1039</v>
       </c>
-      <c r="K394" s="44">
+      <c r="K394" s="40">
         <v>53.4</v>
       </c>
       <c r="L394" s="22">
@@ -22812,7 +22854,7 @@
       <c r="H395" s="16"/>
       <c r="I395" s="16"/>
       <c r="J395" s="16"/>
-      <c r="K395" s="43">
+      <c r="K395" s="39">
         <v>1539</v>
       </c>
       <c r="L395" s="16">
@@ -22852,7 +22894,7 @@
       <c r="H396" s="22"/>
       <c r="I396" s="22"/>
       <c r="J396" s="22"/>
-      <c r="K396" s="44">
+      <c r="K396" s="40">
         <v>1687</v>
       </c>
       <c r="L396" s="22">
@@ -22892,7 +22934,7 @@
       <c r="H397" s="16"/>
       <c r="I397" s="16"/>
       <c r="J397" s="16"/>
-      <c r="K397" s="43">
+      <c r="K397" s="39">
         <v>557.38</v>
       </c>
       <c r="L397" s="16"/>
@@ -22930,7 +22972,7 @@
       <c r="H398" s="22"/>
       <c r="I398" s="22"/>
       <c r="J398" s="22"/>
-      <c r="K398" s="44">
+      <c r="K398" s="40">
         <v>604.94000000000005</v>
       </c>
       <c r="L398" s="22"/>
@@ -22970,7 +23012,7 @@
       <c r="J399" s="16" t="s">
         <v>1059</v>
       </c>
-      <c r="K399" s="43">
+      <c r="K399" s="39">
         <v>170.7</v>
       </c>
       <c r="L399" s="16"/>
@@ -23010,7 +23052,7 @@
       <c r="J400" s="22" t="s">
         <v>1059</v>
       </c>
-      <c r="K400" s="44">
+      <c r="K400" s="40">
         <v>227.6</v>
       </c>
       <c r="L400" s="22"/>
@@ -23030,7 +23072,7 @@
       <c r="Z400" s="1"/>
     </row>
     <row r="401" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A401" s="37"/>
+      <c r="A401" s="55"/>
       <c r="B401" s="31" t="s">
         <v>1067</v>
       </c>
@@ -23048,7 +23090,7 @@
       <c r="J401" s="45" t="s">
         <v>1069</v>
       </c>
-      <c r="K401" s="43">
+      <c r="K401" s="39">
         <v>523</v>
       </c>
       <c r="L401" s="16">
@@ -23086,7 +23128,7 @@
       <c r="H402" s="22"/>
       <c r="I402" s="22"/>
       <c r="J402" s="22"/>
-      <c r="K402" s="44">
+      <c r="K402" s="40">
         <v>26</v>
       </c>
       <c r="L402" s="22"/>
@@ -23122,7 +23164,7 @@
       <c r="H403" s="16"/>
       <c r="I403" s="16"/>
       <c r="J403" s="16"/>
-      <c r="K403" s="43">
+      <c r="K403" s="39">
         <v>0.22</v>
       </c>
       <c r="L403" s="16"/>
@@ -23158,7 +23200,7 @@
       <c r="H404" s="22"/>
       <c r="I404" s="22"/>
       <c r="J404" s="22"/>
-      <c r="K404" s="44">
+      <c r="K404" s="40">
         <v>0.3</v>
       </c>
       <c r="L404" s="22"/>
@@ -23194,7 +23236,7 @@
       <c r="H405" s="22"/>
       <c r="I405" s="22"/>
       <c r="J405" s="22"/>
-      <c r="K405" s="44">
+      <c r="K405" s="40">
         <v>2.17</v>
       </c>
       <c r="L405" s="22"/>
@@ -23230,7 +23272,7 @@
       <c r="H406" s="22"/>
       <c r="I406" s="22"/>
       <c r="J406" s="22"/>
-      <c r="K406" s="44">
+      <c r="K406" s="40">
         <v>0.46</v>
       </c>
       <c r="L406" s="22"/>
@@ -23266,7 +23308,7 @@
       <c r="H407" s="22"/>
       <c r="I407" s="22"/>
       <c r="J407" s="22"/>
-      <c r="K407" s="44">
+      <c r="K407" s="40">
         <v>0.25</v>
       </c>
       <c r="L407" s="22"/>
@@ -23302,7 +23344,7 @@
       <c r="H408" s="22"/>
       <c r="I408" s="22"/>
       <c r="J408" s="22"/>
-      <c r="K408" s="44">
+      <c r="K408" s="40">
         <v>0.22</v>
       </c>
       <c r="L408" s="22"/>
@@ -23338,7 +23380,7 @@
       <c r="H409" s="22"/>
       <c r="I409" s="22"/>
       <c r="J409" s="22"/>
-      <c r="K409" s="44">
+      <c r="K409" s="40">
         <v>0.24</v>
       </c>
       <c r="L409" s="22"/>
@@ -23374,7 +23416,7 @@
       <c r="H410" s="22"/>
       <c r="I410" s="22"/>
       <c r="J410" s="22"/>
-      <c r="K410" s="44">
+      <c r="K410" s="40">
         <v>0.6</v>
       </c>
       <c r="L410" s="22"/>
@@ -23410,7 +23452,7 @@
       <c r="H411" s="22"/>
       <c r="I411" s="22"/>
       <c r="J411" s="22"/>
-      <c r="K411" s="44">
+      <c r="K411" s="40">
         <v>0.3</v>
       </c>
       <c r="L411" s="22"/>
@@ -23446,7 +23488,7 @@
       <c r="H412" s="22"/>
       <c r="I412" s="22"/>
       <c r="J412" s="22"/>
-      <c r="K412" s="44">
+      <c r="K412" s="40">
         <v>0.42</v>
       </c>
       <c r="L412" s="22"/>
@@ -23482,7 +23524,7 @@
       <c r="H413" s="22"/>
       <c r="I413" s="22"/>
       <c r="J413" s="22"/>
-      <c r="K413" s="44">
+      <c r="K413" s="40">
         <v>0.35</v>
       </c>
       <c r="L413" s="22"/>
@@ -23518,7 +23560,7 @@
       <c r="H414" s="22"/>
       <c r="I414" s="22"/>
       <c r="J414" s="22"/>
-      <c r="K414" s="44">
+      <c r="K414" s="40">
         <v>11.06</v>
       </c>
       <c r="L414" s="22"/>
@@ -23554,7 +23596,7 @@
       <c r="H415" s="22"/>
       <c r="I415" s="22"/>
       <c r="J415" s="22"/>
-      <c r="K415" s="44">
+      <c r="K415" s="40">
         <v>2.2599999999999998</v>
       </c>
       <c r="L415" s="22"/>
@@ -23590,7 +23632,7 @@
       <c r="H416" s="22"/>
       <c r="I416" s="22"/>
       <c r="J416" s="22"/>
-      <c r="K416" s="44">
+      <c r="K416" s="40">
         <v>1.03</v>
       </c>
       <c r="L416" s="22"/>
@@ -23626,7 +23668,7 @@
       <c r="H417" s="22"/>
       <c r="I417" s="22"/>
       <c r="J417" s="22"/>
-      <c r="K417" s="44">
+      <c r="K417" s="40">
         <v>0.2</v>
       </c>
       <c r="L417" s="22"/>
@@ -23662,7 +23704,7 @@
       <c r="H418" s="22"/>
       <c r="I418" s="22"/>
       <c r="J418" s="22"/>
-      <c r="K418" s="44">
+      <c r="K418" s="40">
         <v>0.32</v>
       </c>
       <c r="L418" s="22"/>
@@ -23698,7 +23740,7 @@
       <c r="H419" s="22"/>
       <c r="I419" s="22"/>
       <c r="J419" s="22"/>
-      <c r="K419" s="44">
+      <c r="K419" s="40">
         <v>0.33</v>
       </c>
       <c r="L419" s="22"/>
@@ -23734,7 +23776,7 @@
       <c r="H420" s="22"/>
       <c r="I420" s="22"/>
       <c r="J420" s="22"/>
-      <c r="K420" s="44">
+      <c r="K420" s="40">
         <v>0.41</v>
       </c>
       <c r="L420" s="22"/>
@@ -23770,7 +23812,7 @@
       <c r="H421" s="22"/>
       <c r="I421" s="22"/>
       <c r="J421" s="22"/>
-      <c r="K421" s="44">
+      <c r="K421" s="40">
         <v>0.44</v>
       </c>
       <c r="L421" s="22"/>
@@ -23806,7 +23848,7 @@
       <c r="H422" s="22"/>
       <c r="I422" s="22"/>
       <c r="J422" s="22"/>
-      <c r="K422" s="44">
+      <c r="K422" s="40">
         <v>0.3</v>
       </c>
       <c r="L422" s="22"/>
@@ -23842,7 +23884,7 @@
       <c r="H423" s="22"/>
       <c r="I423" s="22"/>
       <c r="J423" s="22"/>
-      <c r="K423" s="44">
+      <c r="K423" s="40">
         <v>0.28999999999999998</v>
       </c>
       <c r="L423" s="22"/>
@@ -23878,7 +23920,7 @@
       <c r="H424" s="22"/>
       <c r="I424" s="22"/>
       <c r="J424" s="22"/>
-      <c r="K424" s="44">
+      <c r="K424" s="40">
         <v>0.1</v>
       </c>
       <c r="L424" s="22"/>
@@ -23914,7 +23956,7 @@
       <c r="H425" s="16"/>
       <c r="I425" s="16"/>
       <c r="J425" s="16"/>
-      <c r="K425" s="43">
+      <c r="K425" s="39">
         <v>89</v>
       </c>
       <c r="L425" s="16">
@@ -23952,7 +23994,7 @@
       <c r="H426" s="22"/>
       <c r="I426" s="22"/>
       <c r="J426" s="22"/>
-      <c r="K426" s="44">
+      <c r="K426" s="40">
         <v>19.8</v>
       </c>
       <c r="L426" s="22">
@@ -23990,7 +24032,7 @@
       <c r="H427" s="16"/>
       <c r="I427" s="16"/>
       <c r="J427" s="16"/>
-      <c r="K427" s="43">
+      <c r="K427" s="39">
         <v>71.33</v>
       </c>
       <c r="L427" s="16">
@@ -24028,7 +24070,7 @@
       <c r="H428" s="22"/>
       <c r="I428" s="22"/>
       <c r="J428" s="22"/>
-      <c r="K428" s="44">
+      <c r="K428" s="40">
         <v>81.400000000000006</v>
       </c>
       <c r="L428" s="22">
@@ -24066,7 +24108,7 @@
       <c r="H429" s="16"/>
       <c r="I429" s="16"/>
       <c r="J429" s="16"/>
-      <c r="K429" s="43">
+      <c r="K429" s="39">
         <v>3.5</v>
       </c>
       <c r="L429" s="16">
@@ -24104,7 +24146,7 @@
       <c r="H430" s="22"/>
       <c r="I430" s="22"/>
       <c r="J430" s="22"/>
-      <c r="K430" s="44">
+      <c r="K430" s="40">
         <v>2.95</v>
       </c>
       <c r="L430" s="22">
@@ -24292,7 +24334,7 @@
       <c r="H435" s="16"/>
       <c r="I435" s="16"/>
       <c r="J435" s="16"/>
-      <c r="K435" s="16">
+      <c r="K435" s="39">
         <v>15.29</v>
       </c>
       <c r="L435" s="16">
@@ -24313,19 +24355,41 @@
       <c r="Y435" s="1"/>
       <c r="Z435" s="1"/>
     </row>
-    <row r="436" spans="1:26" ht="19.5" customHeight="1">
-      <c r="A436" s="37"/>
-      <c r="B436" s="29"/>
-      <c r="C436" s="22"/>
-      <c r="D436" s="22"/>
-      <c r="E436" s="22"/>
-      <c r="F436" s="22"/>
-      <c r="G436" s="22"/>
-      <c r="H436" s="22"/>
-      <c r="I436" s="22"/>
-      <c r="J436" s="22"/>
-      <c r="K436" s="22"/>
-      <c r="L436" s="22"/>
+    <row r="436" spans="1:26" ht="35.25" customHeight="1">
+      <c r="A436" s="37" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B436" s="29" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C436" s="22" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D436" s="22">
+        <v>1</v>
+      </c>
+      <c r="E436" s="22" t="s">
+        <v>760</v>
+      </c>
+      <c r="F436" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G436" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H436" s="50"/>
+      <c r="I436" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="J436" s="51" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K436" s="40">
+        <v>93.26</v>
+      </c>
+      <c r="L436" s="22">
+        <v>1</v>
+      </c>
       <c r="M436" s="22"/>
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
@@ -24352,7 +24416,7 @@
       <c r="H437" s="16"/>
       <c r="I437" s="16"/>
       <c r="J437" s="16"/>
-      <c r="K437" s="16"/>
+      <c r="K437" s="39"/>
       <c r="L437" s="16"/>
       <c r="M437" s="16"/>
       <c r="N437" s="1"/>
@@ -24380,7 +24444,7 @@
       <c r="H438" s="22"/>
       <c r="I438" s="22"/>
       <c r="J438" s="22"/>
-      <c r="K438" s="22"/>
+      <c r="K438" s="40"/>
       <c r="L438" s="22"/>
       <c r="M438" s="22"/>
       <c r="N438" s="1"/>
@@ -24408,7 +24472,7 @@
       <c r="H439" s="16"/>
       <c r="I439" s="16"/>
       <c r="J439" s="16"/>
-      <c r="K439" s="16"/>
+      <c r="K439" s="39"/>
       <c r="L439" s="16"/>
       <c r="M439" s="16"/>
       <c r="N439" s="1"/>
@@ -24436,7 +24500,7 @@
       <c r="H440" s="22"/>
       <c r="I440" s="22"/>
       <c r="J440" s="22"/>
-      <c r="K440" s="22"/>
+      <c r="K440" s="40"/>
       <c r="L440" s="22"/>
       <c r="M440" s="22"/>
       <c r="N440" s="1"/>
@@ -24464,7 +24528,7 @@
       <c r="H441" s="16"/>
       <c r="I441" s="16"/>
       <c r="J441" s="16"/>
-      <c r="K441" s="16"/>
+      <c r="K441" s="39"/>
       <c r="L441" s="16"/>
       <c r="M441" s="16"/>
       <c r="N441" s="1"/>
@@ -24492,7 +24556,7 @@
       <c r="H442" s="22"/>
       <c r="I442" s="22"/>
       <c r="J442" s="22"/>
-      <c r="K442" s="22"/>
+      <c r="K442" s="40"/>
       <c r="L442" s="22"/>
       <c r="M442" s="22"/>
       <c r="N442" s="1"/>
@@ -24520,7 +24584,7 @@
       <c r="H443" s="16"/>
       <c r="I443" s="16"/>
       <c r="J443" s="16"/>
-      <c r="K443" s="16"/>
+      <c r="K443" s="39"/>
       <c r="L443" s="16"/>
       <c r="M443" s="16"/>
       <c r="N443" s="1"/>
@@ -24548,7 +24612,7 @@
       <c r="H444" s="22"/>
       <c r="I444" s="22"/>
       <c r="J444" s="22"/>
-      <c r="K444" s="22"/>
+      <c r="K444" s="40"/>
       <c r="L444" s="22"/>
       <c r="M444" s="22"/>
       <c r="N444" s="1"/>
@@ -24576,7 +24640,7 @@
       <c r="H445" s="16"/>
       <c r="I445" s="16"/>
       <c r="J445" s="16"/>
-      <c r="K445" s="16"/>
+      <c r="K445" s="39"/>
       <c r="L445" s="16"/>
       <c r="M445" s="16"/>
       <c r="N445" s="1"/>
@@ -24604,7 +24668,7 @@
       <c r="H446" s="22"/>
       <c r="I446" s="22"/>
       <c r="J446" s="22"/>
-      <c r="K446" s="22"/>
+      <c r="K446" s="40"/>
       <c r="L446" s="22"/>
       <c r="M446" s="22"/>
       <c r="N446" s="1"/>
@@ -24632,7 +24696,7 @@
       <c r="H447" s="16"/>
       <c r="I447" s="16"/>
       <c r="J447" s="16"/>
-      <c r="K447" s="16"/>
+      <c r="K447" s="39"/>
       <c r="L447" s="16"/>
       <c r="M447" s="16"/>
       <c r="N447" s="1"/>
@@ -24660,7 +24724,7 @@
       <c r="H448" s="22"/>
       <c r="I448" s="22"/>
       <c r="J448" s="22"/>
-      <c r="K448" s="22"/>
+      <c r="K448" s="40"/>
       <c r="L448" s="22"/>
       <c r="M448" s="22"/>
       <c r="N448" s="1"/>
@@ -24688,7 +24752,7 @@
       <c r="H449" s="16"/>
       <c r="I449" s="16"/>
       <c r="J449" s="16"/>
-      <c r="K449" s="16"/>
+      <c r="K449" s="39"/>
       <c r="L449" s="16"/>
       <c r="M449" s="16"/>
       <c r="N449" s="1"/>
@@ -24716,7 +24780,7 @@
       <c r="H450" s="22"/>
       <c r="I450" s="22"/>
       <c r="J450" s="22"/>
-      <c r="K450" s="22"/>
+      <c r="K450" s="40"/>
       <c r="L450" s="22"/>
       <c r="M450" s="22"/>
       <c r="N450" s="1"/>
@@ -24744,7 +24808,7 @@
       <c r="H451" s="16"/>
       <c r="I451" s="16"/>
       <c r="J451" s="16"/>
-      <c r="K451" s="16"/>
+      <c r="K451" s="39"/>
       <c r="L451" s="16"/>
       <c r="M451" s="16"/>
       <c r="N451" s="1"/>
@@ -24772,7 +24836,7 @@
       <c r="H452" s="22"/>
       <c r="I452" s="22"/>
       <c r="J452" s="22"/>
-      <c r="K452" s="22"/>
+      <c r="K452" s="40"/>
       <c r="L452" s="22"/>
       <c r="M452" s="22"/>
       <c r="N452" s="1"/>
@@ -24800,7 +24864,7 @@
       <c r="H453" s="16"/>
       <c r="I453" s="16"/>
       <c r="J453" s="16"/>
-      <c r="K453" s="16"/>
+      <c r="K453" s="39"/>
       <c r="L453" s="16"/>
       <c r="M453" s="16"/>
       <c r="N453" s="1"/>
@@ -24828,7 +24892,7 @@
       <c r="H454" s="22"/>
       <c r="I454" s="22"/>
       <c r="J454" s="22"/>
-      <c r="K454" s="22"/>
+      <c r="K454" s="40"/>
       <c r="L454" s="22"/>
       <c r="M454" s="22"/>
       <c r="N454" s="1"/>
@@ -24856,7 +24920,7 @@
       <c r="H455" s="16"/>
       <c r="I455" s="16"/>
       <c r="J455" s="16"/>
-      <c r="K455" s="16"/>
+      <c r="K455" s="39"/>
       <c r="L455" s="16"/>
       <c r="M455" s="16"/>
       <c r="N455" s="1"/>
@@ -24884,7 +24948,7 @@
       <c r="H456" s="22"/>
       <c r="I456" s="22"/>
       <c r="J456" s="22"/>
-      <c r="K456" s="22"/>
+      <c r="K456" s="40"/>
       <c r="L456" s="22"/>
       <c r="M456" s="22"/>
       <c r="N456" s="1"/>
@@ -24912,7 +24976,7 @@
       <c r="H457" s="16"/>
       <c r="I457" s="16"/>
       <c r="J457" s="16"/>
-      <c r="K457" s="16"/>
+      <c r="K457" s="39"/>
       <c r="L457" s="16"/>
       <c r="M457" s="16"/>
       <c r="N457" s="1"/>
@@ -24940,7 +25004,7 @@
       <c r="H458" s="22"/>
       <c r="I458" s="22"/>
       <c r="J458" s="22"/>
-      <c r="K458" s="22"/>
+      <c r="K458" s="40"/>
       <c r="L458" s="22"/>
       <c r="M458" s="22"/>
       <c r="N458" s="1"/>
@@ -24968,7 +25032,7 @@
       <c r="H459" s="16"/>
       <c r="I459" s="16"/>
       <c r="J459" s="16"/>
-      <c r="K459" s="16"/>
+      <c r="K459" s="39"/>
       <c r="L459" s="16"/>
       <c r="M459" s="16"/>
       <c r="N459" s="1"/>
@@ -24996,7 +25060,7 @@
       <c r="H460" s="22"/>
       <c r="I460" s="22"/>
       <c r="J460" s="22"/>
-      <c r="K460" s="22"/>
+      <c r="K460" s="40"/>
       <c r="L460" s="22"/>
       <c r="M460" s="22"/>
       <c r="N460" s="1"/>
@@ -25024,7 +25088,7 @@
       <c r="H461" s="16"/>
       <c r="I461" s="16"/>
       <c r="J461" s="16"/>
-      <c r="K461" s="16"/>
+      <c r="K461" s="39"/>
       <c r="L461" s="16"/>
       <c r="M461" s="16"/>
       <c r="N461" s="1"/>
@@ -25052,7 +25116,7 @@
       <c r="H462" s="22"/>
       <c r="I462" s="22"/>
       <c r="J462" s="22"/>
-      <c r="K462" s="22"/>
+      <c r="K462" s="40"/>
       <c r="L462" s="22"/>
       <c r="M462" s="22"/>
       <c r="N462" s="1"/>
@@ -25080,7 +25144,7 @@
       <c r="H463" s="16"/>
       <c r="I463" s="16"/>
       <c r="J463" s="16"/>
-      <c r="K463" s="16"/>
+      <c r="K463" s="39"/>
       <c r="L463" s="16"/>
       <c r="M463" s="16"/>
       <c r="N463" s="1"/>
@@ -25108,7 +25172,7 @@
       <c r="H464" s="22"/>
       <c r="I464" s="22"/>
       <c r="J464" s="22"/>
-      <c r="K464" s="22"/>
+      <c r="K464" s="40"/>
       <c r="L464" s="22"/>
       <c r="M464" s="22"/>
       <c r="N464" s="1"/>
@@ -25136,7 +25200,7 @@
       <c r="H465" s="16"/>
       <c r="I465" s="16"/>
       <c r="J465" s="16"/>
-      <c r="K465" s="16"/>
+      <c r="K465" s="39"/>
       <c r="L465" s="16"/>
       <c r="M465" s="16"/>
       <c r="N465" s="1"/>
@@ -25164,7 +25228,7 @@
       <c r="H466" s="22"/>
       <c r="I466" s="22"/>
       <c r="J466" s="22"/>
-      <c r="K466" s="22"/>
+      <c r="K466" s="40"/>
       <c r="L466" s="22"/>
       <c r="M466" s="22"/>
       <c r="N466" s="1"/>
@@ -25192,7 +25256,7 @@
       <c r="H467" s="16"/>
       <c r="I467" s="16"/>
       <c r="J467" s="16"/>
-      <c r="K467" s="16"/>
+      <c r="K467" s="39"/>
       <c r="L467" s="16"/>
       <c r="M467" s="16"/>
       <c r="N467" s="1"/>
@@ -25220,7 +25284,7 @@
       <c r="H468" s="22"/>
       <c r="I468" s="22"/>
       <c r="J468" s="22"/>
-      <c r="K468" s="22"/>
+      <c r="K468" s="40"/>
       <c r="L468" s="22"/>
       <c r="M468" s="22"/>
       <c r="N468" s="1"/>
@@ -25248,7 +25312,7 @@
       <c r="H469" s="16"/>
       <c r="I469" s="16"/>
       <c r="J469" s="16"/>
-      <c r="K469" s="16"/>
+      <c r="K469" s="39"/>
       <c r="L469" s="16"/>
       <c r="M469" s="16"/>
       <c r="N469" s="1"/>
@@ -25276,7 +25340,7 @@
       <c r="H470" s="22"/>
       <c r="I470" s="22"/>
       <c r="J470" s="22"/>
-      <c r="K470" s="22"/>
+      <c r="K470" s="40"/>
       <c r="L470" s="22"/>
       <c r="M470" s="22"/>
       <c r="N470" s="1"/>
@@ -25304,7 +25368,7 @@
       <c r="H471" s="16"/>
       <c r="I471" s="16"/>
       <c r="J471" s="16"/>
-      <c r="K471" s="16"/>
+      <c r="K471" s="39"/>
       <c r="L471" s="16"/>
       <c r="M471" s="16"/>
       <c r="N471" s="1"/>
@@ -25332,7 +25396,7 @@
       <c r="H472" s="22"/>
       <c r="I472" s="22"/>
       <c r="J472" s="22"/>
-      <c r="K472" s="22"/>
+      <c r="K472" s="40"/>
       <c r="L472" s="22"/>
       <c r="M472" s="22"/>
       <c r="N472" s="1"/>
@@ -25360,7 +25424,7 @@
       <c r="H473" s="16"/>
       <c r="I473" s="16"/>
       <c r="J473" s="16"/>
-      <c r="K473" s="16"/>
+      <c r="K473" s="39"/>
       <c r="L473" s="16"/>
       <c r="M473" s="16"/>
       <c r="N473" s="1"/>
@@ -25388,7 +25452,7 @@
       <c r="H474" s="22"/>
       <c r="I474" s="22"/>
       <c r="J474" s="22"/>
-      <c r="K474" s="22"/>
+      <c r="K474" s="40"/>
       <c r="L474" s="22"/>
       <c r="M474" s="22"/>
       <c r="N474" s="1"/>
@@ -25416,7 +25480,7 @@
       <c r="H475" s="16"/>
       <c r="I475" s="16"/>
       <c r="J475" s="16"/>
-      <c r="K475" s="16"/>
+      <c r="K475" s="39"/>
       <c r="L475" s="16"/>
       <c r="M475" s="16"/>
       <c r="N475" s="1"/>
@@ -25444,7 +25508,7 @@
       <c r="H476" s="22"/>
       <c r="I476" s="22"/>
       <c r="J476" s="22"/>
-      <c r="K476" s="22"/>
+      <c r="K476" s="40"/>
       <c r="L476" s="22"/>
       <c r="M476" s="22"/>
       <c r="N476" s="1"/>
@@ -25472,7 +25536,7 @@
       <c r="H477" s="16"/>
       <c r="I477" s="16"/>
       <c r="J477" s="16"/>
-      <c r="K477" s="16"/>
+      <c r="K477" s="39"/>
       <c r="L477" s="16"/>
       <c r="M477" s="16"/>
       <c r="N477" s="1"/>
@@ -25500,7 +25564,7 @@
       <c r="H478" s="22"/>
       <c r="I478" s="22"/>
       <c r="J478" s="22"/>
-      <c r="K478" s="22"/>
+      <c r="K478" s="40"/>
       <c r="L478" s="22"/>
       <c r="M478" s="22"/>
       <c r="N478" s="1"/>
@@ -25528,7 +25592,7 @@
       <c r="H479" s="16"/>
       <c r="I479" s="16"/>
       <c r="J479" s="16"/>
-      <c r="K479" s="16"/>
+      <c r="K479" s="39"/>
       <c r="L479" s="16"/>
       <c r="M479" s="16"/>
       <c r="N479" s="1"/>
@@ -25556,7 +25620,7 @@
       <c r="H480" s="22"/>
       <c r="I480" s="22"/>
       <c r="J480" s="22"/>
-      <c r="K480" s="22"/>
+      <c r="K480" s="40"/>
       <c r="L480" s="22"/>
       <c r="M480" s="22"/>
       <c r="N480" s="1"/>
@@ -25584,7 +25648,7 @@
       <c r="H481" s="16"/>
       <c r="I481" s="16"/>
       <c r="J481" s="16"/>
-      <c r="K481" s="16"/>
+      <c r="K481" s="39"/>
       <c r="L481" s="16"/>
       <c r="M481" s="16"/>
       <c r="N481" s="1"/>
@@ -25612,7 +25676,7 @@
       <c r="H482" s="22"/>
       <c r="I482" s="22"/>
       <c r="J482" s="22"/>
-      <c r="K482" s="22"/>
+      <c r="K482" s="40"/>
       <c r="L482" s="22"/>
       <c r="M482" s="22"/>
       <c r="N482" s="1"/>
@@ -25640,7 +25704,7 @@
       <c r="H483" s="16"/>
       <c r="I483" s="16"/>
       <c r="J483" s="16"/>
-      <c r="K483" s="16"/>
+      <c r="K483" s="39"/>
       <c r="L483" s="16"/>
       <c r="M483" s="16"/>
       <c r="N483" s="1"/>
@@ -25668,7 +25732,7 @@
       <c r="H484" s="22"/>
       <c r="I484" s="22"/>
       <c r="J484" s="22"/>
-      <c r="K484" s="22"/>
+      <c r="K484" s="40"/>
       <c r="L484" s="22"/>
       <c r="M484" s="22"/>
       <c r="N484" s="1"/>
@@ -25696,7 +25760,7 @@
       <c r="H485" s="16"/>
       <c r="I485" s="16"/>
       <c r="J485" s="16"/>
-      <c r="K485" s="16"/>
+      <c r="K485" s="39"/>
       <c r="L485" s="16"/>
       <c r="M485" s="16"/>
       <c r="N485" s="1"/>
@@ -25724,7 +25788,7 @@
       <c r="H486" s="22"/>
       <c r="I486" s="22"/>
       <c r="J486" s="22"/>
-      <c r="K486" s="22"/>
+      <c r="K486" s="40"/>
       <c r="L486" s="22"/>
       <c r="M486" s="22"/>
       <c r="N486" s="1"/>
@@ -25752,7 +25816,7 @@
       <c r="H487" s="16"/>
       <c r="I487" s="16"/>
       <c r="J487" s="16"/>
-      <c r="K487" s="16"/>
+      <c r="K487" s="39"/>
       <c r="L487" s="16"/>
       <c r="M487" s="16"/>
       <c r="N487" s="1"/>
@@ -25780,7 +25844,7 @@
       <c r="H488" s="22"/>
       <c r="I488" s="22"/>
       <c r="J488" s="22"/>
-      <c r="K488" s="22"/>
+      <c r="K488" s="40"/>
       <c r="L488" s="22"/>
       <c r="M488" s="22"/>
       <c r="N488" s="1"/>
@@ -25808,7 +25872,7 @@
       <c r="H489" s="16"/>
       <c r="I489" s="16"/>
       <c r="J489" s="16"/>
-      <c r="K489" s="16"/>
+      <c r="K489" s="39"/>
       <c r="L489" s="16"/>
       <c r="M489" s="16"/>
       <c r="N489" s="1"/>
@@ -25836,7 +25900,7 @@
       <c r="H490" s="22"/>
       <c r="I490" s="22"/>
       <c r="J490" s="22"/>
-      <c r="K490" s="22"/>
+      <c r="K490" s="40"/>
       <c r="L490" s="22"/>
       <c r="M490" s="22"/>
       <c r="N490" s="1"/>
@@ -25864,7 +25928,7 @@
       <c r="H491" s="16"/>
       <c r="I491" s="16"/>
       <c r="J491" s="16"/>
-      <c r="K491" s="16"/>
+      <c r="K491" s="39"/>
       <c r="L491" s="16"/>
       <c r="M491" s="16"/>
       <c r="N491" s="1"/>
@@ -25892,7 +25956,7 @@
       <c r="H492" s="22"/>
       <c r="I492" s="22"/>
       <c r="J492" s="22"/>
-      <c r="K492" s="22"/>
+      <c r="K492" s="40"/>
       <c r="L492" s="22"/>
       <c r="M492" s="22"/>
       <c r="N492" s="1"/>
@@ -25920,7 +25984,7 @@
       <c r="H493" s="16"/>
       <c r="I493" s="16"/>
       <c r="J493" s="16"/>
-      <c r="K493" s="16"/>
+      <c r="K493" s="39"/>
       <c r="L493" s="16"/>
       <c r="M493" s="16"/>
       <c r="N493" s="1"/>
@@ -25948,7 +26012,7 @@
       <c r="H494" s="22"/>
       <c r="I494" s="22"/>
       <c r="J494" s="22"/>
-      <c r="K494" s="22"/>
+      <c r="K494" s="40"/>
       <c r="L494" s="22"/>
       <c r="M494" s="22"/>
       <c r="N494" s="1"/>
@@ -25976,7 +26040,7 @@
       <c r="H495" s="16"/>
       <c r="I495" s="16"/>
       <c r="J495" s="16"/>
-      <c r="K495" s="16"/>
+      <c r="K495" s="39"/>
       <c r="L495" s="16"/>
       <c r="M495" s="16"/>
       <c r="N495" s="1"/>
@@ -26004,7 +26068,7 @@
       <c r="H496" s="22"/>
       <c r="I496" s="22"/>
       <c r="J496" s="22"/>
-      <c r="K496" s="22"/>
+      <c r="K496" s="40"/>
       <c r="L496" s="22"/>
       <c r="M496" s="22"/>
       <c r="N496" s="1"/>
@@ -26032,7 +26096,7 @@
       <c r="H497" s="16"/>
       <c r="I497" s="16"/>
       <c r="J497" s="16"/>
-      <c r="K497" s="16"/>
+      <c r="K497" s="39"/>
       <c r="L497" s="16"/>
       <c r="M497" s="16"/>
       <c r="N497" s="1"/>
@@ -26060,7 +26124,7 @@
       <c r="H498" s="22"/>
       <c r="I498" s="22"/>
       <c r="J498" s="22"/>
-      <c r="K498" s="22"/>
+      <c r="K498" s="40"/>
       <c r="L498" s="22"/>
       <c r="M498" s="22"/>
       <c r="N498" s="1"/>
@@ -26088,7 +26152,7 @@
       <c r="H499" s="16"/>
       <c r="I499" s="16"/>
       <c r="J499" s="16"/>
-      <c r="K499" s="16"/>
+      <c r="K499" s="39"/>
       <c r="L499" s="16"/>
       <c r="M499" s="16"/>
       <c r="N499" s="1"/>
@@ -26116,7 +26180,7 @@
       <c r="H500" s="22"/>
       <c r="I500" s="22"/>
       <c r="J500" s="22"/>
-      <c r="K500" s="22"/>
+      <c r="K500" s="40"/>
       <c r="L500" s="22"/>
       <c r="M500" s="22"/>
       <c r="N500" s="1"/>
@@ -26144,7 +26208,7 @@
       <c r="H501" s="16"/>
       <c r="I501" s="16"/>
       <c r="J501" s="16"/>
-      <c r="K501" s="16"/>
+      <c r="K501" s="39"/>
       <c r="L501" s="16"/>
       <c r="M501" s="16"/>
       <c r="N501" s="1"/>
@@ -26172,7 +26236,7 @@
       <c r="H502" s="22"/>
       <c r="I502" s="22"/>
       <c r="J502" s="22"/>
-      <c r="K502" s="22"/>
+      <c r="K502" s="40"/>
       <c r="L502" s="22"/>
       <c r="M502" s="22"/>
       <c r="N502" s="1"/>
@@ -26200,7 +26264,7 @@
       <c r="H503" s="16"/>
       <c r="I503" s="16"/>
       <c r="J503" s="16"/>
-      <c r="K503" s="16"/>
+      <c r="K503" s="39"/>
       <c r="L503" s="16"/>
       <c r="M503" s="16"/>
       <c r="N503" s="1"/>
@@ -26228,7 +26292,7 @@
       <c r="H504" s="22"/>
       <c r="I504" s="22"/>
       <c r="J504" s="22"/>
-      <c r="K504" s="22"/>
+      <c r="K504" s="40"/>
       <c r="L504" s="22"/>
       <c r="M504" s="22"/>
       <c r="N504" s="1"/>
@@ -26256,7 +26320,7 @@
       <c r="H505" s="16"/>
       <c r="I505" s="16"/>
       <c r="J505" s="16"/>
-      <c r="K505" s="16"/>
+      <c r="K505" s="39"/>
       <c r="L505" s="16"/>
       <c r="M505" s="16"/>
       <c r="N505" s="1"/>
@@ -26284,7 +26348,7 @@
       <c r="H506" s="22"/>
       <c r="I506" s="22"/>
       <c r="J506" s="22"/>
-      <c r="K506" s="22"/>
+      <c r="K506" s="40"/>
       <c r="L506" s="22"/>
       <c r="M506" s="22"/>
       <c r="N506" s="1"/>
@@ -26312,7 +26376,7 @@
       <c r="H507" s="16"/>
       <c r="I507" s="16"/>
       <c r="J507" s="16"/>
-      <c r="K507" s="16"/>
+      <c r="K507" s="39"/>
       <c r="L507" s="16"/>
       <c r="M507" s="16"/>
       <c r="N507" s="1"/>
@@ -26340,7 +26404,7 @@
       <c r="H508" s="22"/>
       <c r="I508" s="22"/>
       <c r="J508" s="22"/>
-      <c r="K508" s="22"/>
+      <c r="K508" s="40"/>
       <c r="L508" s="22"/>
       <c r="M508" s="22"/>
       <c r="N508" s="1"/>
@@ -26368,7 +26432,7 @@
       <c r="H509" s="16"/>
       <c r="I509" s="16"/>
       <c r="J509" s="16"/>
-      <c r="K509" s="16"/>
+      <c r="K509" s="39"/>
       <c r="L509" s="16"/>
       <c r="M509" s="16"/>
       <c r="N509" s="1"/>
@@ -26396,7 +26460,7 @@
       <c r="H510" s="22"/>
       <c r="I510" s="22"/>
       <c r="J510" s="22"/>
-      <c r="K510" s="22"/>
+      <c r="K510" s="40"/>
       <c r="L510" s="22"/>
       <c r="M510" s="22"/>
       <c r="N510" s="1"/>
@@ -26424,7 +26488,7 @@
       <c r="H511" s="16"/>
       <c r="I511" s="16"/>
       <c r="J511" s="16"/>
-      <c r="K511" s="16"/>
+      <c r="K511" s="39"/>
       <c r="L511" s="16"/>
       <c r="M511" s="16"/>
       <c r="N511" s="1"/>
@@ -26452,7 +26516,7 @@
       <c r="H512" s="22"/>
       <c r="I512" s="22"/>
       <c r="J512" s="22"/>
-      <c r="K512" s="22"/>
+      <c r="K512" s="40"/>
       <c r="L512" s="22"/>
       <c r="M512" s="22"/>
       <c r="N512" s="1"/>
@@ -26480,7 +26544,7 @@
       <c r="H513" s="16"/>
       <c r="I513" s="16"/>
       <c r="J513" s="16"/>
-      <c r="K513" s="16"/>
+      <c r="K513" s="39"/>
       <c r="L513" s="16"/>
       <c r="M513" s="16"/>
       <c r="N513" s="1"/>
@@ -26508,7 +26572,7 @@
       <c r="H514" s="22"/>
       <c r="I514" s="22"/>
       <c r="J514" s="22"/>
-      <c r="K514" s="22"/>
+      <c r="K514" s="40"/>
       <c r="L514" s="22"/>
       <c r="M514" s="22"/>
       <c r="N514" s="1"/>
@@ -26536,7 +26600,7 @@
       <c r="H515" s="16"/>
       <c r="I515" s="16"/>
       <c r="J515" s="16"/>
-      <c r="K515" s="16"/>
+      <c r="K515" s="39"/>
       <c r="L515" s="16"/>
       <c r="M515" s="16"/>
       <c r="N515" s="1"/>
@@ -26564,7 +26628,7 @@
       <c r="H516" s="22"/>
       <c r="I516" s="22"/>
       <c r="J516" s="22"/>
-      <c r="K516" s="22"/>
+      <c r="K516" s="40"/>
       <c r="L516" s="22"/>
       <c r="M516" s="22"/>
       <c r="N516" s="1"/>
@@ -26592,7 +26656,7 @@
       <c r="H517" s="16"/>
       <c r="I517" s="16"/>
       <c r="J517" s="16"/>
-      <c r="K517" s="16"/>
+      <c r="K517" s="39"/>
       <c r="L517" s="16"/>
       <c r="M517" s="16"/>
       <c r="N517" s="1"/>
@@ -26620,7 +26684,7 @@
       <c r="H518" s="22"/>
       <c r="I518" s="22"/>
       <c r="J518" s="22"/>
-      <c r="K518" s="22"/>
+      <c r="K518" s="40"/>
       <c r="L518" s="22"/>
       <c r="M518" s="22"/>
       <c r="N518" s="1"/>
@@ -26648,7 +26712,7 @@
       <c r="H519" s="16"/>
       <c r="I519" s="16"/>
       <c r="J519" s="16"/>
-      <c r="K519" s="16"/>
+      <c r="K519" s="39"/>
       <c r="L519" s="16"/>
       <c r="M519" s="16"/>
       <c r="N519" s="1"/>
@@ -26676,7 +26740,7 @@
       <c r="H520" s="22"/>
       <c r="I520" s="22"/>
       <c r="J520" s="22"/>
-      <c r="K520" s="22"/>
+      <c r="K520" s="40"/>
       <c r="L520" s="22"/>
       <c r="M520" s="22"/>
       <c r="N520" s="1"/>
@@ -26704,7 +26768,7 @@
       <c r="H521" s="16"/>
       <c r="I521" s="16"/>
       <c r="J521" s="16"/>
-      <c r="K521" s="16"/>
+      <c r="K521" s="39"/>
       <c r="L521" s="16"/>
       <c r="M521" s="16"/>
       <c r="N521" s="1"/>
@@ -26732,7 +26796,7 @@
       <c r="H522" s="22"/>
       <c r="I522" s="22"/>
       <c r="J522" s="22"/>
-      <c r="K522" s="22"/>
+      <c r="K522" s="40"/>
       <c r="L522" s="22"/>
       <c r="M522" s="22"/>
       <c r="N522" s="1"/>
@@ -26760,7 +26824,7 @@
       <c r="H523" s="16"/>
       <c r="I523" s="16"/>
       <c r="J523" s="16"/>
-      <c r="K523" s="16"/>
+      <c r="K523" s="39"/>
       <c r="L523" s="16"/>
       <c r="M523" s="16"/>
       <c r="N523" s="1"/>
@@ -26788,7 +26852,7 @@
       <c r="H524" s="22"/>
       <c r="I524" s="22"/>
       <c r="J524" s="22"/>
-      <c r="K524" s="22"/>
+      <c r="K524" s="40"/>
       <c r="L524" s="22"/>
       <c r="M524" s="22"/>
       <c r="N524" s="1"/>
@@ -26816,7 +26880,7 @@
       <c r="H525" s="16"/>
       <c r="I525" s="16"/>
       <c r="J525" s="16"/>
-      <c r="K525" s="16"/>
+      <c r="K525" s="39"/>
       <c r="L525" s="16"/>
       <c r="M525" s="16"/>
       <c r="N525" s="1"/>
@@ -26844,7 +26908,7 @@
       <c r="H526" s="22"/>
       <c r="I526" s="22"/>
       <c r="J526" s="22"/>
-      <c r="K526" s="22"/>
+      <c r="K526" s="40"/>
       <c r="L526" s="22"/>
       <c r="M526" s="22"/>
       <c r="N526" s="1"/>
@@ -26872,7 +26936,7 @@
       <c r="H527" s="16"/>
       <c r="I527" s="16"/>
       <c r="J527" s="16"/>
-      <c r="K527" s="16"/>
+      <c r="K527" s="39"/>
       <c r="L527" s="16"/>
       <c r="M527" s="16"/>
       <c r="N527" s="1"/>
@@ -26900,7 +26964,7 @@
       <c r="H528" s="22"/>
       <c r="I528" s="22"/>
       <c r="J528" s="22"/>
-      <c r="K528" s="22"/>
+      <c r="K528" s="40"/>
       <c r="L528" s="22"/>
       <c r="M528" s="22"/>
       <c r="N528" s="1"/>
@@ -26928,7 +26992,7 @@
       <c r="H529" s="16"/>
       <c r="I529" s="16"/>
       <c r="J529" s="16"/>
-      <c r="K529" s="16"/>
+      <c r="K529" s="39"/>
       <c r="L529" s="16"/>
       <c r="M529" s="16"/>
       <c r="N529" s="1"/>
@@ -26956,7 +27020,7 @@
       <c r="H530" s="22"/>
       <c r="I530" s="22"/>
       <c r="J530" s="22"/>
-      <c r="K530" s="22"/>
+      <c r="K530" s="40"/>
       <c r="L530" s="22"/>
       <c r="M530" s="22"/>
       <c r="N530" s="1"/>
@@ -26984,7 +27048,7 @@
       <c r="H531" s="16"/>
       <c r="I531" s="16"/>
       <c r="J531" s="16"/>
-      <c r="K531" s="16"/>
+      <c r="K531" s="39"/>
       <c r="L531" s="16"/>
       <c r="M531" s="16"/>
       <c r="N531" s="1"/>
@@ -27012,7 +27076,7 @@
       <c r="H532" s="22"/>
       <c r="I532" s="22"/>
       <c r="J532" s="22"/>
-      <c r="K532" s="22"/>
+      <c r="K532" s="40"/>
       <c r="L532" s="22"/>
       <c r="M532" s="22"/>
       <c r="N532" s="1"/>
@@ -27040,7 +27104,7 @@
       <c r="H533" s="16"/>
       <c r="I533" s="16"/>
       <c r="J533" s="16"/>
-      <c r="K533" s="16"/>
+      <c r="K533" s="39"/>
       <c r="L533" s="16"/>
       <c r="M533" s="16"/>
       <c r="N533" s="1"/>
@@ -27068,7 +27132,7 @@
       <c r="H534" s="22"/>
       <c r="I534" s="22"/>
       <c r="J534" s="22"/>
-      <c r="K534" s="22"/>
+      <c r="K534" s="40"/>
       <c r="L534" s="22"/>
       <c r="M534" s="22"/>
       <c r="N534" s="1"/>
@@ -27096,7 +27160,7 @@
       <c r="H535" s="16"/>
       <c r="I535" s="16"/>
       <c r="J535" s="16"/>
-      <c r="K535" s="16"/>
+      <c r="K535" s="39"/>
       <c r="L535" s="16"/>
       <c r="M535" s="16"/>
       <c r="N535" s="1"/>
@@ -27124,7 +27188,7 @@
       <c r="H536" s="22"/>
       <c r="I536" s="22"/>
       <c r="J536" s="22"/>
-      <c r="K536" s="22"/>
+      <c r="K536" s="40"/>
       <c r="L536" s="22"/>
       <c r="M536" s="22"/>
       <c r="N536" s="1"/>
@@ -27152,7 +27216,7 @@
       <c r="H537" s="16"/>
       <c r="I537" s="16"/>
       <c r="J537" s="16"/>
-      <c r="K537" s="16"/>
+      <c r="K537" s="39"/>
       <c r="L537" s="16"/>
       <c r="M537" s="16"/>
       <c r="N537" s="1"/>
@@ -27180,7 +27244,7 @@
       <c r="H538" s="22"/>
       <c r="I538" s="22"/>
       <c r="J538" s="22"/>
-      <c r="K538" s="22"/>
+      <c r="K538" s="40"/>
       <c r="L538" s="22"/>
       <c r="M538" s="22"/>
       <c r="N538" s="1"/>
@@ -27208,7 +27272,7 @@
       <c r="H539" s="16"/>
       <c r="I539" s="16"/>
       <c r="J539" s="16"/>
-      <c r="K539" s="16"/>
+      <c r="K539" s="39"/>
       <c r="L539" s="16"/>
       <c r="M539" s="16"/>
       <c r="N539" s="1"/>
@@ -27236,7 +27300,7 @@
       <c r="H540" s="22"/>
       <c r="I540" s="22"/>
       <c r="J540" s="22"/>
-      <c r="K540" s="22"/>
+      <c r="K540" s="40"/>
       <c r="L540" s="22"/>
       <c r="M540" s="22"/>
       <c r="N540" s="1"/>
@@ -27264,7 +27328,7 @@
       <c r="H541" s="16"/>
       <c r="I541" s="16"/>
       <c r="J541" s="16"/>
-      <c r="K541" s="16"/>
+      <c r="K541" s="39"/>
       <c r="L541" s="16"/>
       <c r="M541" s="16"/>
       <c r="N541" s="1"/>
@@ -27292,7 +27356,7 @@
       <c r="H542" s="22"/>
       <c r="I542" s="22"/>
       <c r="J542" s="22"/>
-      <c r="K542" s="22"/>
+      <c r="K542" s="40"/>
       <c r="L542" s="22"/>
       <c r="M542" s="22"/>
       <c r="N542" s="1"/>
@@ -27320,7 +27384,7 @@
       <c r="H543" s="16"/>
       <c r="I543" s="16"/>
       <c r="J543" s="16"/>
-      <c r="K543" s="16"/>
+      <c r="K543" s="39"/>
       <c r="L543" s="16"/>
       <c r="M543" s="16"/>
       <c r="N543" s="1"/>
@@ -27348,7 +27412,7 @@
       <c r="H544" s="22"/>
       <c r="I544" s="22"/>
       <c r="J544" s="22"/>
-      <c r="K544" s="22"/>
+      <c r="K544" s="40"/>
       <c r="L544" s="22"/>
       <c r="M544" s="22"/>
       <c r="N544" s="1"/>
@@ -27376,7 +27440,7 @@
       <c r="H545" s="16"/>
       <c r="I545" s="16"/>
       <c r="J545" s="16"/>
-      <c r="K545" s="16"/>
+      <c r="K545" s="39"/>
       <c r="L545" s="16"/>
       <c r="M545" s="16"/>
       <c r="N545" s="1"/>
@@ -27404,7 +27468,7 @@
       <c r="H546" s="22"/>
       <c r="I546" s="22"/>
       <c r="J546" s="22"/>
-      <c r="K546" s="22"/>
+      <c r="K546" s="40"/>
       <c r="L546" s="22"/>
       <c r="M546" s="22"/>
       <c r="N546" s="1"/>
@@ -27432,7 +27496,7 @@
       <c r="H547" s="16"/>
       <c r="I547" s="16"/>
       <c r="J547" s="16"/>
-      <c r="K547" s="16"/>
+      <c r="K547" s="39"/>
       <c r="L547" s="16"/>
       <c r="M547" s="16"/>
       <c r="N547" s="1"/>
@@ -27460,7 +27524,7 @@
       <c r="H548" s="22"/>
       <c r="I548" s="22"/>
       <c r="J548" s="22"/>
-      <c r="K548" s="22"/>
+      <c r="K548" s="40"/>
       <c r="L548" s="22"/>
       <c r="M548" s="22"/>
       <c r="N548" s="1"/>
@@ -27488,7 +27552,7 @@
       <c r="H549" s="16"/>
       <c r="I549" s="16"/>
       <c r="J549" s="16"/>
-      <c r="K549" s="16"/>
+      <c r="K549" s="39"/>
       <c r="L549" s="16"/>
       <c r="M549" s="16"/>
       <c r="N549" s="1"/>
@@ -27516,7 +27580,7 @@
       <c r="H550" s="22"/>
       <c r="I550" s="22"/>
       <c r="J550" s="22"/>
-      <c r="K550" s="22"/>
+      <c r="K550" s="40"/>
       <c r="L550" s="22"/>
       <c r="M550" s="22"/>
       <c r="N550" s="1"/>
@@ -27544,7 +27608,7 @@
       <c r="H551" s="16"/>
       <c r="I551" s="16"/>
       <c r="J551" s="16"/>
-      <c r="K551" s="16"/>
+      <c r="K551" s="39"/>
       <c r="L551" s="16"/>
       <c r="M551" s="16"/>
       <c r="N551" s="1"/>
@@ -27572,7 +27636,7 @@
       <c r="H552" s="22"/>
       <c r="I552" s="22"/>
       <c r="J552" s="22"/>
-      <c r="K552" s="22"/>
+      <c r="K552" s="40"/>
       <c r="L552" s="22"/>
       <c r="M552" s="22"/>
       <c r="N552" s="1"/>
@@ -27600,7 +27664,7 @@
       <c r="H553" s="16"/>
       <c r="I553" s="16"/>
       <c r="J553" s="16"/>
-      <c r="K553" s="16"/>
+      <c r="K553" s="39"/>
       <c r="L553" s="16"/>
       <c r="M553" s="16"/>
       <c r="N553" s="1"/>
@@ -27628,7 +27692,7 @@
       <c r="H554" s="22"/>
       <c r="I554" s="22"/>
       <c r="J554" s="22"/>
-      <c r="K554" s="22"/>
+      <c r="K554" s="40"/>
       <c r="L554" s="22"/>
       <c r="M554" s="22"/>
       <c r="N554" s="1"/>
@@ -27656,7 +27720,7 @@
       <c r="H555" s="16"/>
       <c r="I555" s="16"/>
       <c r="J555" s="16"/>
-      <c r="K555" s="16"/>
+      <c r="K555" s="39"/>
       <c r="L555" s="16"/>
       <c r="M555" s="16"/>
       <c r="N555" s="1"/>
@@ -27684,7 +27748,7 @@
       <c r="H556" s="22"/>
       <c r="I556" s="22"/>
       <c r="J556" s="22"/>
-      <c r="K556" s="22"/>
+      <c r="K556" s="40"/>
       <c r="L556" s="22"/>
       <c r="M556" s="22"/>
       <c r="N556" s="1"/>
@@ -27712,7 +27776,7 @@
       <c r="H557" s="16"/>
       <c r="I557" s="16"/>
       <c r="J557" s="16"/>
-      <c r="K557" s="16"/>
+      <c r="K557" s="39"/>
       <c r="L557" s="16"/>
       <c r="M557" s="16"/>
       <c r="N557" s="1"/>
@@ -27740,7 +27804,7 @@
       <c r="H558" s="22"/>
       <c r="I558" s="22"/>
       <c r="J558" s="22"/>
-      <c r="K558" s="22"/>
+      <c r="K558" s="40"/>
       <c r="L558" s="22"/>
       <c r="M558" s="22"/>
       <c r="N558" s="1"/>
@@ -27768,7 +27832,7 @@
       <c r="H559" s="16"/>
       <c r="I559" s="16"/>
       <c r="J559" s="16"/>
-      <c r="K559" s="16"/>
+      <c r="K559" s="39"/>
       <c r="L559" s="16"/>
       <c r="M559" s="16"/>
       <c r="N559" s="1"/>
@@ -27796,7 +27860,7 @@
       <c r="H560" s="22"/>
       <c r="I560" s="22"/>
       <c r="J560" s="22"/>
-      <c r="K560" s="22"/>
+      <c r="K560" s="40"/>
       <c r="L560" s="22"/>
       <c r="M560" s="22"/>
       <c r="N560" s="1"/>
@@ -27824,7 +27888,7 @@
       <c r="H561" s="16"/>
       <c r="I561" s="16"/>
       <c r="J561" s="16"/>
-      <c r="K561" s="16"/>
+      <c r="K561" s="39"/>
       <c r="L561" s="16"/>
       <c r="M561" s="16"/>
       <c r="N561" s="1"/>
@@ -27852,7 +27916,7 @@
       <c r="H562" s="22"/>
       <c r="I562" s="22"/>
       <c r="J562" s="22"/>
-      <c r="K562" s="22"/>
+      <c r="K562" s="40"/>
       <c r="L562" s="22"/>
       <c r="M562" s="22"/>
       <c r="N562" s="1"/>
@@ -27880,7 +27944,7 @@
       <c r="H563" s="16"/>
       <c r="I563" s="16"/>
       <c r="J563" s="16"/>
-      <c r="K563" s="16"/>
+      <c r="K563" s="39"/>
       <c r="L563" s="16"/>
       <c r="M563" s="16"/>
       <c r="N563" s="1"/>
@@ -27908,7 +27972,7 @@
       <c r="H564" s="22"/>
       <c r="I564" s="22"/>
       <c r="J564" s="22"/>
-      <c r="K564" s="22"/>
+      <c r="K564" s="40"/>
       <c r="L564" s="22"/>
       <c r="M564" s="22"/>
       <c r="N564" s="1"/>
@@ -27936,7 +28000,7 @@
       <c r="H565" s="16"/>
       <c r="I565" s="16"/>
       <c r="J565" s="16"/>
-      <c r="K565" s="16"/>
+      <c r="K565" s="39"/>
       <c r="L565" s="16"/>
       <c r="M565" s="16"/>
       <c r="N565" s="1"/>
@@ -27964,7 +28028,7 @@
       <c r="H566" s="22"/>
       <c r="I566" s="22"/>
       <c r="J566" s="22"/>
-      <c r="K566" s="22"/>
+      <c r="K566" s="40"/>
       <c r="L566" s="22"/>
       <c r="M566" s="22"/>
       <c r="N566" s="1"/>
@@ -27992,7 +28056,7 @@
       <c r="H567" s="16"/>
       <c r="I567" s="16"/>
       <c r="J567" s="16"/>
-      <c r="K567" s="16"/>
+      <c r="K567" s="39"/>
       <c r="L567" s="16"/>
       <c r="M567" s="16"/>
       <c r="N567" s="1"/>
@@ -28020,7 +28084,7 @@
       <c r="H568" s="22"/>
       <c r="I568" s="22"/>
       <c r="J568" s="22"/>
-      <c r="K568" s="22"/>
+      <c r="K568" s="40"/>
       <c r="L568" s="22"/>
       <c r="M568" s="22"/>
       <c r="N568" s="1"/>
@@ -28048,7 +28112,7 @@
       <c r="H569" s="16"/>
       <c r="I569" s="16"/>
       <c r="J569" s="16"/>
-      <c r="K569" s="16"/>
+      <c r="K569" s="39"/>
       <c r="L569" s="16"/>
       <c r="M569" s="16"/>
       <c r="N569" s="1"/>
@@ -28076,7 +28140,7 @@
       <c r="H570" s="22"/>
       <c r="I570" s="22"/>
       <c r="J570" s="22"/>
-      <c r="K570" s="22"/>
+      <c r="K570" s="40"/>
       <c r="L570" s="22"/>
       <c r="M570" s="22"/>
       <c r="N570" s="1"/>
@@ -28104,7 +28168,7 @@
       <c r="H571" s="16"/>
       <c r="I571" s="16"/>
       <c r="J571" s="16"/>
-      <c r="K571" s="16"/>
+      <c r="K571" s="39"/>
       <c r="L571" s="16"/>
       <c r="M571" s="16"/>
       <c r="N571" s="1"/>
@@ -28132,7 +28196,7 @@
       <c r="H572" s="22"/>
       <c r="I572" s="22"/>
       <c r="J572" s="22"/>
-      <c r="K572" s="22"/>
+      <c r="K572" s="40"/>
       <c r="L572" s="22"/>
       <c r="M572" s="22"/>
       <c r="N572" s="1"/>
@@ -28160,7 +28224,7 @@
       <c r="H573" s="16"/>
       <c r="I573" s="16"/>
       <c r="J573" s="16"/>
-      <c r="K573" s="16"/>
+      <c r="K573" s="39"/>
       <c r="L573" s="16"/>
       <c r="M573" s="16"/>
       <c r="N573" s="1"/>
@@ -28188,7 +28252,7 @@
       <c r="H574" s="22"/>
       <c r="I574" s="22"/>
       <c r="J574" s="22"/>
-      <c r="K574" s="22"/>
+      <c r="K574" s="40"/>
       <c r="L574" s="22"/>
       <c r="M574" s="22"/>
       <c r="N574" s="1"/>
@@ -28216,7 +28280,7 @@
       <c r="H575" s="16"/>
       <c r="I575" s="16"/>
       <c r="J575" s="16"/>
-      <c r="K575" s="16"/>
+      <c r="K575" s="39"/>
       <c r="L575" s="16"/>
       <c r="M575" s="16"/>
       <c r="N575" s="1"/>
@@ -28244,7 +28308,7 @@
       <c r="H576" s="22"/>
       <c r="I576" s="22"/>
       <c r="J576" s="22"/>
-      <c r="K576" s="22"/>
+      <c r="K576" s="40"/>
       <c r="L576" s="22"/>
       <c r="M576" s="22"/>
       <c r="N576" s="1"/>
@@ -28272,7 +28336,7 @@
       <c r="H577" s="16"/>
       <c r="I577" s="16"/>
       <c r="J577" s="16"/>
-      <c r="K577" s="16"/>
+      <c r="K577" s="39"/>
       <c r="L577" s="16"/>
       <c r="M577" s="16"/>
       <c r="N577" s="1"/>
@@ -28300,7 +28364,7 @@
       <c r="H578" s="22"/>
       <c r="I578" s="22"/>
       <c r="J578" s="22"/>
-      <c r="K578" s="22"/>
+      <c r="K578" s="40"/>
       <c r="L578" s="22"/>
       <c r="M578" s="22"/>
       <c r="N578" s="1"/>
@@ -28328,7 +28392,7 @@
       <c r="H579" s="16"/>
       <c r="I579" s="16"/>
       <c r="J579" s="16"/>
-      <c r="K579" s="16"/>
+      <c r="K579" s="39"/>
       <c r="L579" s="16"/>
       <c r="M579" s="16"/>
       <c r="N579" s="1"/>
@@ -28356,7 +28420,7 @@
       <c r="H580" s="22"/>
       <c r="I580" s="22"/>
       <c r="J580" s="22"/>
-      <c r="K580" s="22"/>
+      <c r="K580" s="40"/>
       <c r="L580" s="22"/>
       <c r="M580" s="22"/>
       <c r="N580" s="1"/>
@@ -28384,7 +28448,7 @@
       <c r="H581" s="16"/>
       <c r="I581" s="16"/>
       <c r="J581" s="16"/>
-      <c r="K581" s="16"/>
+      <c r="K581" s="39"/>
       <c r="L581" s="16"/>
       <c r="M581" s="16"/>
       <c r="N581" s="1"/>
@@ -28412,7 +28476,7 @@
       <c r="H582" s="22"/>
       <c r="I582" s="22"/>
       <c r="J582" s="22"/>
-      <c r="K582" s="22"/>
+      <c r="K582" s="40"/>
       <c r="L582" s="22"/>
       <c r="M582" s="22"/>
       <c r="N582" s="1"/>
@@ -28440,7 +28504,7 @@
       <c r="H583" s="16"/>
       <c r="I583" s="16"/>
       <c r="J583" s="16"/>
-      <c r="K583" s="16"/>
+      <c r="K583" s="39"/>
       <c r="L583" s="16"/>
       <c r="M583" s="16"/>
       <c r="N583" s="1"/>
@@ -28468,7 +28532,7 @@
       <c r="H584" s="22"/>
       <c r="I584" s="22"/>
       <c r="J584" s="22"/>
-      <c r="K584" s="22"/>
+      <c r="K584" s="40"/>
       <c r="L584" s="22"/>
       <c r="M584" s="22"/>
       <c r="N584" s="1"/>
@@ -28496,7 +28560,7 @@
       <c r="H585" s="16"/>
       <c r="I585" s="16"/>
       <c r="J585" s="16"/>
-      <c r="K585" s="16"/>
+      <c r="K585" s="39"/>
       <c r="L585" s="16"/>
       <c r="M585" s="16"/>
       <c r="N585" s="1"/>
@@ -28524,7 +28588,7 @@
       <c r="H586" s="22"/>
       <c r="I586" s="22"/>
       <c r="J586" s="22"/>
-      <c r="K586" s="22"/>
+      <c r="K586" s="40"/>
       <c r="L586" s="22"/>
       <c r="M586" s="22"/>
       <c r="N586" s="1"/>
@@ -28552,7 +28616,7 @@
       <c r="H587" s="16"/>
       <c r="I587" s="16"/>
       <c r="J587" s="16"/>
-      <c r="K587" s="16"/>
+      <c r="K587" s="39"/>
       <c r="L587" s="16"/>
       <c r="M587" s="16"/>
       <c r="N587" s="1"/>
@@ -28580,7 +28644,7 @@
       <c r="H588" s="22"/>
       <c r="I588" s="22"/>
       <c r="J588" s="22"/>
-      <c r="K588" s="22"/>
+      <c r="K588" s="40"/>
       <c r="L588" s="22"/>
       <c r="M588" s="22"/>
       <c r="N588" s="1"/>
@@ -28608,7 +28672,7 @@
       <c r="H589" s="16"/>
       <c r="I589" s="16"/>
       <c r="J589" s="16"/>
-      <c r="K589" s="16"/>
+      <c r="K589" s="39"/>
       <c r="L589" s="16"/>
       <c r="M589" s="16"/>
       <c r="N589" s="1"/>
@@ -28636,7 +28700,7 @@
       <c r="H590" s="22"/>
       <c r="I590" s="22"/>
       <c r="J590" s="22"/>
-      <c r="K590" s="22"/>
+      <c r="K590" s="40"/>
       <c r="L590" s="22"/>
       <c r="M590" s="22"/>
       <c r="N590" s="1"/>
@@ -28664,7 +28728,7 @@
       <c r="H591" s="16"/>
       <c r="I591" s="16"/>
       <c r="J591" s="16"/>
-      <c r="K591" s="16"/>
+      <c r="K591" s="39"/>
       <c r="L591" s="16"/>
       <c r="M591" s="16"/>
       <c r="N591" s="1"/>
@@ -28692,7 +28756,7 @@
       <c r="H592" s="22"/>
       <c r="I592" s="22"/>
       <c r="J592" s="22"/>
-      <c r="K592" s="22"/>
+      <c r="K592" s="40"/>
       <c r="L592" s="22"/>
       <c r="M592" s="22"/>
       <c r="N592" s="1"/>
@@ -28720,7 +28784,7 @@
       <c r="H593" s="16"/>
       <c r="I593" s="16"/>
       <c r="J593" s="16"/>
-      <c r="K593" s="16"/>
+      <c r="K593" s="39"/>
       <c r="L593" s="16"/>
       <c r="M593" s="16"/>
       <c r="N593" s="1"/>
@@ -28748,7 +28812,7 @@
       <c r="H594" s="22"/>
       <c r="I594" s="22"/>
       <c r="J594" s="22"/>
-      <c r="K594" s="22"/>
+      <c r="K594" s="40"/>
       <c r="L594" s="22"/>
       <c r="M594" s="22"/>
       <c r="N594" s="1"/>
@@ -28776,7 +28840,7 @@
       <c r="H595" s="16"/>
       <c r="I595" s="16"/>
       <c r="J595" s="16"/>
-      <c r="K595" s="16"/>
+      <c r="K595" s="39"/>
       <c r="L595" s="16"/>
       <c r="M595" s="16"/>
       <c r="N595" s="1"/>
@@ -28804,7 +28868,7 @@
       <c r="H596" s="22"/>
       <c r="I596" s="22"/>
       <c r="J596" s="22"/>
-      <c r="K596" s="22"/>
+      <c r="K596" s="40"/>
       <c r="L596" s="22"/>
       <c r="M596" s="22"/>
       <c r="N596" s="1"/>
@@ -28832,7 +28896,7 @@
       <c r="H597" s="16"/>
       <c r="I597" s="16"/>
       <c r="J597" s="16"/>
-      <c r="K597" s="16"/>
+      <c r="K597" s="39"/>
       <c r="L597" s="16"/>
       <c r="M597" s="16"/>
       <c r="N597" s="1"/>
@@ -28860,7 +28924,7 @@
       <c r="H598" s="22"/>
       <c r="I598" s="22"/>
       <c r="J598" s="22"/>
-      <c r="K598" s="22"/>
+      <c r="K598" s="40"/>
       <c r="L598" s="22"/>
       <c r="M598" s="22"/>
       <c r="N598" s="1"/>
@@ -28888,7 +28952,7 @@
       <c r="H599" s="16"/>
       <c r="I599" s="16"/>
       <c r="J599" s="16"/>
-      <c r="K599" s="16"/>
+      <c r="K599" s="39"/>
       <c r="L599" s="16"/>
       <c r="M599" s="16"/>
       <c r="N599" s="1"/>
@@ -28916,7 +28980,7 @@
       <c r="H600" s="22"/>
       <c r="I600" s="22"/>
       <c r="J600" s="22"/>
-      <c r="K600" s="22"/>
+      <c r="K600" s="40"/>
       <c r="L600" s="22"/>
       <c r="M600" s="22"/>
       <c r="N600" s="1"/>
@@ -28944,7 +29008,7 @@
       <c r="H601" s="16"/>
       <c r="I601" s="16"/>
       <c r="J601" s="16"/>
-      <c r="K601" s="16"/>
+      <c r="K601" s="39"/>
       <c r="L601" s="16"/>
       <c r="M601" s="16"/>
       <c r="N601" s="1"/>
@@ -28972,7 +29036,7 @@
       <c r="H602" s="22"/>
       <c r="I602" s="22"/>
       <c r="J602" s="22"/>
-      <c r="K602" s="22"/>
+      <c r="K602" s="40"/>
       <c r="L602" s="22"/>
       <c r="M602" s="22"/>
       <c r="N602" s="1"/>
@@ -29000,7 +29064,7 @@
       <c r="H603" s="16"/>
       <c r="I603" s="16"/>
       <c r="J603" s="16"/>
-      <c r="K603" s="16"/>
+      <c r="K603" s="39"/>
       <c r="L603" s="16"/>
       <c r="M603" s="16"/>
       <c r="N603" s="1"/>
@@ -29028,7 +29092,7 @@
       <c r="H604" s="22"/>
       <c r="I604" s="22"/>
       <c r="J604" s="22"/>
-      <c r="K604" s="22"/>
+      <c r="K604" s="40"/>
       <c r="L604" s="22"/>
       <c r="M604" s="22"/>
       <c r="N604" s="1"/>
@@ -29056,7 +29120,7 @@
       <c r="H605" s="16"/>
       <c r="I605" s="16"/>
       <c r="J605" s="16"/>
-      <c r="K605" s="16"/>
+      <c r="K605" s="39"/>
       <c r="L605" s="16"/>
       <c r="M605" s="16"/>
       <c r="N605" s="1"/>
@@ -29084,7 +29148,7 @@
       <c r="H606" s="22"/>
       <c r="I606" s="22"/>
       <c r="J606" s="22"/>
-      <c r="K606" s="22"/>
+      <c r="K606" s="40"/>
       <c r="L606" s="22"/>
       <c r="M606" s="22"/>
       <c r="N606" s="1"/>
@@ -29112,7 +29176,7 @@
       <c r="H607" s="16"/>
       <c r="I607" s="16"/>
       <c r="J607" s="16"/>
-      <c r="K607" s="16"/>
+      <c r="K607" s="39"/>
       <c r="L607" s="16"/>
       <c r="M607" s="16"/>
       <c r="N607" s="1"/>
@@ -29140,7 +29204,7 @@
       <c r="H608" s="22"/>
       <c r="I608" s="22"/>
       <c r="J608" s="22"/>
-      <c r="K608" s="22"/>
+      <c r="K608" s="40"/>
       <c r="L608" s="22"/>
       <c r="M608" s="22"/>
       <c r="N608" s="1"/>
@@ -29168,7 +29232,7 @@
       <c r="H609" s="16"/>
       <c r="I609" s="16"/>
       <c r="J609" s="16"/>
-      <c r="K609" s="16"/>
+      <c r="K609" s="39"/>
       <c r="L609" s="16"/>
       <c r="M609" s="16"/>
       <c r="N609" s="1"/>
@@ -29196,7 +29260,7 @@
       <c r="H610" s="22"/>
       <c r="I610" s="22"/>
       <c r="J610" s="22"/>
-      <c r="K610" s="22"/>
+      <c r="K610" s="40"/>
       <c r="L610" s="22"/>
       <c r="M610" s="22"/>
       <c r="N610" s="1"/>
@@ -29224,7 +29288,7 @@
       <c r="H611" s="16"/>
       <c r="I611" s="16"/>
       <c r="J611" s="16"/>
-      <c r="K611" s="16"/>
+      <c r="K611" s="39"/>
       <c r="L611" s="16"/>
       <c r="M611" s="16"/>
       <c r="N611" s="1"/>
@@ -29252,7 +29316,7 @@
       <c r="H612" s="22"/>
       <c r="I612" s="22"/>
       <c r="J612" s="22"/>
-      <c r="K612" s="22"/>
+      <c r="K612" s="40"/>
       <c r="L612" s="22"/>
       <c r="M612" s="22"/>
       <c r="N612" s="1"/>
@@ -29280,7 +29344,7 @@
       <c r="H613" s="16"/>
       <c r="I613" s="16"/>
       <c r="J613" s="16"/>
-      <c r="K613" s="16"/>
+      <c r="K613" s="39"/>
       <c r="L613" s="16"/>
       <c r="M613" s="16"/>
       <c r="N613" s="1"/>
@@ -29308,7 +29372,7 @@
       <c r="H614" s="22"/>
       <c r="I614" s="22"/>
       <c r="J614" s="22"/>
-      <c r="K614" s="22"/>
+      <c r="K614" s="40"/>
       <c r="L614" s="22"/>
       <c r="M614" s="22"/>
       <c r="N614" s="1"/>
@@ -29336,7 +29400,7 @@
       <c r="H615" s="16"/>
       <c r="I615" s="16"/>
       <c r="J615" s="16"/>
-      <c r="K615" s="16"/>
+      <c r="K615" s="39"/>
       <c r="L615" s="16"/>
       <c r="M615" s="16"/>
       <c r="N615" s="1"/>
@@ -29364,7 +29428,7 @@
       <c r="H616" s="22"/>
       <c r="I616" s="22"/>
       <c r="J616" s="22"/>
-      <c r="K616" s="22"/>
+      <c r="K616" s="40"/>
       <c r="L616" s="22"/>
       <c r="M616" s="22"/>
       <c r="N616" s="1"/>
@@ -29392,7 +29456,7 @@
       <c r="H617" s="16"/>
       <c r="I617" s="16"/>
       <c r="J617" s="16"/>
-      <c r="K617" s="16"/>
+      <c r="K617" s="39"/>
       <c r="L617" s="16"/>
       <c r="M617" s="16"/>
       <c r="N617" s="1"/>
@@ -29420,7 +29484,7 @@
       <c r="H618" s="22"/>
       <c r="I618" s="22"/>
       <c r="J618" s="22"/>
-      <c r="K618" s="22"/>
+      <c r="K618" s="40"/>
       <c r="L618" s="22"/>
       <c r="M618" s="22"/>
       <c r="N618" s="1"/>
@@ -29448,7 +29512,7 @@
       <c r="H619" s="16"/>
       <c r="I619" s="16"/>
       <c r="J619" s="16"/>
-      <c r="K619" s="16"/>
+      <c r="K619" s="39"/>
       <c r="L619" s="16"/>
       <c r="M619" s="16"/>
       <c r="N619" s="1"/>
@@ -29476,7 +29540,7 @@
       <c r="H620" s="22"/>
       <c r="I620" s="22"/>
       <c r="J620" s="22"/>
-      <c r="K620" s="22"/>
+      <c r="K620" s="40"/>
       <c r="L620" s="22"/>
       <c r="M620" s="22"/>
       <c r="N620" s="1"/>
@@ -29504,7 +29568,7 @@
       <c r="H621" s="16"/>
       <c r="I621" s="16"/>
       <c r="J621" s="16"/>
-      <c r="K621" s="16"/>
+      <c r="K621" s="39"/>
       <c r="L621" s="16"/>
       <c r="M621" s="16"/>
       <c r="N621" s="1"/>
@@ -29532,7 +29596,7 @@
       <c r="H622" s="22"/>
       <c r="I622" s="22"/>
       <c r="J622" s="22"/>
-      <c r="K622" s="22"/>
+      <c r="K622" s="40"/>
       <c r="L622" s="22"/>
       <c r="M622" s="22"/>
       <c r="N622" s="1"/>
@@ -29560,7 +29624,7 @@
       <c r="H623" s="16"/>
       <c r="I623" s="16"/>
       <c r="J623" s="16"/>
-      <c r="K623" s="16"/>
+      <c r="K623" s="39"/>
       <c r="L623" s="16"/>
       <c r="M623" s="16"/>
       <c r="N623" s="1"/>
@@ -29588,7 +29652,7 @@
       <c r="H624" s="22"/>
       <c r="I624" s="22"/>
       <c r="J624" s="22"/>
-      <c r="K624" s="22"/>
+      <c r="K624" s="40"/>
       <c r="L624" s="22"/>
       <c r="M624" s="22"/>
       <c r="N624" s="1"/>
@@ -29616,7 +29680,7 @@
       <c r="H625" s="16"/>
       <c r="I625" s="16"/>
       <c r="J625" s="16"/>
-      <c r="K625" s="16"/>
+      <c r="K625" s="39"/>
       <c r="L625" s="16"/>
       <c r="M625" s="16"/>
       <c r="N625" s="1"/>
@@ -29644,7 +29708,7 @@
       <c r="H626" s="22"/>
       <c r="I626" s="22"/>
       <c r="J626" s="22"/>
-      <c r="K626" s="22"/>
+      <c r="K626" s="40"/>
       <c r="L626" s="22"/>
       <c r="M626" s="22"/>
       <c r="N626" s="1"/>
@@ -29672,7 +29736,7 @@
       <c r="H627" s="16"/>
       <c r="I627" s="16"/>
       <c r="J627" s="16"/>
-      <c r="K627" s="16"/>
+      <c r="K627" s="39"/>
       <c r="L627" s="16"/>
       <c r="M627" s="16"/>
       <c r="N627" s="1"/>
@@ -29700,7 +29764,7 @@
       <c r="H628" s="22"/>
       <c r="I628" s="22"/>
       <c r="J628" s="22"/>
-      <c r="K628" s="22"/>
+      <c r="K628" s="40"/>
       <c r="L628" s="22"/>
       <c r="M628" s="22"/>
       <c r="N628" s="1"/>
@@ -29728,7 +29792,7 @@
       <c r="H629" s="16"/>
       <c r="I629" s="16"/>
       <c r="J629" s="16"/>
-      <c r="K629" s="16"/>
+      <c r="K629" s="39"/>
       <c r="L629" s="16"/>
       <c r="M629" s="16"/>
       <c r="N629" s="1"/>
@@ -29756,7 +29820,7 @@
       <c r="H630" s="22"/>
       <c r="I630" s="22"/>
       <c r="J630" s="22"/>
-      <c r="K630" s="22"/>
+      <c r="K630" s="40"/>
       <c r="L630" s="22"/>
       <c r="M630" s="22"/>
       <c r="N630" s="1"/>
@@ -29784,7 +29848,7 @@
       <c r="H631" s="16"/>
       <c r="I631" s="16"/>
       <c r="J631" s="16"/>
-      <c r="K631" s="16"/>
+      <c r="K631" s="39"/>
       <c r="L631" s="16"/>
       <c r="M631" s="16"/>
       <c r="N631" s="1"/>
@@ -29812,7 +29876,7 @@
       <c r="H632" s="22"/>
       <c r="I632" s="22"/>
       <c r="J632" s="22"/>
-      <c r="K632" s="22"/>
+      <c r="K632" s="40"/>
       <c r="L632" s="22"/>
       <c r="M632" s="22"/>
       <c r="N632" s="1"/>
@@ -29840,7 +29904,7 @@
       <c r="H633" s="16"/>
       <c r="I633" s="16"/>
       <c r="J633" s="16"/>
-      <c r="K633" s="16"/>
+      <c r="K633" s="39"/>
       <c r="L633" s="16"/>
       <c r="M633" s="16"/>
       <c r="N633" s="1"/>
@@ -29868,7 +29932,7 @@
       <c r="H634" s="22"/>
       <c r="I634" s="22"/>
       <c r="J634" s="22"/>
-      <c r="K634" s="22"/>
+      <c r="K634" s="40"/>
       <c r="L634" s="22"/>
       <c r="M634" s="22"/>
       <c r="N634" s="1"/>
@@ -29896,7 +29960,7 @@
       <c r="H635" s="16"/>
       <c r="I635" s="16"/>
       <c r="J635" s="16"/>
-      <c r="K635" s="16"/>
+      <c r="K635" s="39"/>
       <c r="L635" s="16"/>
       <c r="M635" s="16"/>
       <c r="N635" s="1"/>
@@ -29924,7 +29988,7 @@
       <c r="H636" s="22"/>
       <c r="I636" s="22"/>
       <c r="J636" s="22"/>
-      <c r="K636" s="22"/>
+      <c r="K636" s="40"/>
       <c r="L636" s="22"/>
       <c r="M636" s="22"/>
       <c r="N636" s="1"/>
@@ -29952,7 +30016,7 @@
       <c r="H637" s="16"/>
       <c r="I637" s="16"/>
       <c r="J637" s="16"/>
-      <c r="K637" s="16"/>
+      <c r="K637" s="39"/>
       <c r="L637" s="16"/>
       <c r="M637" s="16"/>
       <c r="N637" s="1"/>
@@ -29980,7 +30044,7 @@
       <c r="H638" s="22"/>
       <c r="I638" s="22"/>
       <c r="J638" s="22"/>
-      <c r="K638" s="22"/>
+      <c r="K638" s="40"/>
       <c r="L638" s="22"/>
       <c r="M638" s="22"/>
       <c r="N638" s="1"/>
@@ -30008,7 +30072,7 @@
       <c r="H639" s="16"/>
       <c r="I639" s="16"/>
       <c r="J639" s="16"/>
-      <c r="K639" s="16"/>
+      <c r="K639" s="39"/>
       <c r="L639" s="16"/>
       <c r="M639" s="16"/>
       <c r="N639" s="1"/>
@@ -30036,7 +30100,7 @@
       <c r="H640" s="22"/>
       <c r="I640" s="22"/>
       <c r="J640" s="22"/>
-      <c r="K640" s="22"/>
+      <c r="K640" s="40"/>
       <c r="L640" s="22"/>
       <c r="M640" s="22"/>
       <c r="N640" s="1"/>
@@ -30064,7 +30128,7 @@
       <c r="H641" s="16"/>
       <c r="I641" s="16"/>
       <c r="J641" s="16"/>
-      <c r="K641" s="16"/>
+      <c r="K641" s="39"/>
       <c r="L641" s="16"/>
       <c r="M641" s="16"/>
       <c r="N641" s="1"/>
@@ -30092,7 +30156,7 @@
       <c r="H642" s="22"/>
       <c r="I642" s="22"/>
       <c r="J642" s="22"/>
-      <c r="K642" s="22"/>
+      <c r="K642" s="40"/>
       <c r="L642" s="22"/>
       <c r="M642" s="22"/>
       <c r="N642" s="1"/>
@@ -30120,7 +30184,7 @@
       <c r="H643" s="16"/>
       <c r="I643" s="16"/>
       <c r="J643" s="16"/>
-      <c r="K643" s="16"/>
+      <c r="K643" s="39"/>
       <c r="L643" s="16"/>
       <c r="M643" s="16"/>
       <c r="N643" s="1"/>
@@ -30148,7 +30212,7 @@
       <c r="H644" s="22"/>
       <c r="I644" s="22"/>
       <c r="J644" s="22"/>
-      <c r="K644" s="22"/>
+      <c r="K644" s="40"/>
       <c r="L644" s="22"/>
       <c r="M644" s="22"/>
       <c r="N644" s="1"/>
@@ -30176,7 +30240,7 @@
       <c r="H645" s="16"/>
       <c r="I645" s="16"/>
       <c r="J645" s="16"/>
-      <c r="K645" s="16"/>
+      <c r="K645" s="39"/>
       <c r="L645" s="16"/>
       <c r="M645" s="16"/>
       <c r="N645" s="1"/>
@@ -30204,7 +30268,7 @@
       <c r="H646" s="22"/>
       <c r="I646" s="22"/>
       <c r="J646" s="22"/>
-      <c r="K646" s="22"/>
+      <c r="K646" s="40"/>
       <c r="L646" s="22"/>
       <c r="M646" s="22"/>
       <c r="N646" s="1"/>
@@ -30232,7 +30296,7 @@
       <c r="H647" s="16"/>
       <c r="I647" s="16"/>
       <c r="J647" s="16"/>
-      <c r="K647" s="16"/>
+      <c r="K647" s="39"/>
       <c r="L647" s="16"/>
       <c r="M647" s="16"/>
       <c r="N647" s="1"/>
@@ -30260,7 +30324,7 @@
       <c r="H648" s="22"/>
       <c r="I648" s="22"/>
       <c r="J648" s="22"/>
-      <c r="K648" s="22"/>
+      <c r="K648" s="40"/>
       <c r="L648" s="22"/>
       <c r="M648" s="22"/>
       <c r="N648" s="1"/>
@@ -30288,7 +30352,7 @@
       <c r="H649" s="16"/>
       <c r="I649" s="16"/>
       <c r="J649" s="16"/>
-      <c r="K649" s="16"/>
+      <c r="K649" s="39"/>
       <c r="L649" s="16"/>
       <c r="M649" s="16"/>
       <c r="N649" s="1"/>
@@ -30316,7 +30380,7 @@
       <c r="H650" s="22"/>
       <c r="I650" s="22"/>
       <c r="J650" s="22"/>
-      <c r="K650" s="22"/>
+      <c r="K650" s="40"/>
       <c r="L650" s="22"/>
       <c r="M650" s="22"/>
       <c r="N650" s="1"/>
@@ -30344,7 +30408,7 @@
       <c r="H651" s="16"/>
       <c r="I651" s="16"/>
       <c r="J651" s="16"/>
-      <c r="K651" s="16"/>
+      <c r="K651" s="39"/>
       <c r="L651" s="16"/>
       <c r="M651" s="16"/>
       <c r="N651" s="1"/>
@@ -30372,7 +30436,7 @@
       <c r="H652" s="22"/>
       <c r="I652" s="22"/>
       <c r="J652" s="22"/>
-      <c r="K652" s="22"/>
+      <c r="K652" s="40"/>
       <c r="L652" s="22"/>
       <c r="M652" s="22"/>
       <c r="N652" s="1"/>
@@ -30400,7 +30464,7 @@
       <c r="H653" s="16"/>
       <c r="I653" s="16"/>
       <c r="J653" s="16"/>
-      <c r="K653" s="16"/>
+      <c r="K653" s="39"/>
       <c r="L653" s="16"/>
       <c r="M653" s="16"/>
       <c r="N653" s="1"/>
@@ -30428,7 +30492,7 @@
       <c r="H654" s="22"/>
       <c r="I654" s="22"/>
       <c r="J654" s="22"/>
-      <c r="K654" s="22"/>
+      <c r="K654" s="40"/>
       <c r="L654" s="22"/>
       <c r="M654" s="22"/>
       <c r="N654" s="1"/>
@@ -30456,7 +30520,7 @@
       <c r="H655" s="16"/>
       <c r="I655" s="16"/>
       <c r="J655" s="16"/>
-      <c r="K655" s="16"/>
+      <c r="K655" s="39"/>
       <c r="L655" s="16"/>
       <c r="M655" s="16"/>
       <c r="N655" s="1"/>
@@ -30484,7 +30548,7 @@
       <c r="H656" s="22"/>
       <c r="I656" s="22"/>
       <c r="J656" s="22"/>
-      <c r="K656" s="22"/>
+      <c r="K656" s="40"/>
       <c r="L656" s="22"/>
       <c r="M656" s="22"/>
       <c r="N656" s="1"/>
@@ -30512,7 +30576,7 @@
       <c r="H657" s="16"/>
       <c r="I657" s="16"/>
       <c r="J657" s="16"/>
-      <c r="K657" s="16"/>
+      <c r="K657" s="39"/>
       <c r="L657" s="16"/>
       <c r="M657" s="16"/>
       <c r="N657" s="1"/>
@@ -30540,7 +30604,7 @@
       <c r="H658" s="22"/>
       <c r="I658" s="22"/>
       <c r="J658" s="22"/>
-      <c r="K658" s="22"/>
+      <c r="K658" s="40"/>
       <c r="L658" s="22"/>
       <c r="M658" s="22"/>
       <c r="N658" s="1"/>
@@ -30568,7 +30632,7 @@
       <c r="H659" s="16"/>
       <c r="I659" s="16"/>
       <c r="J659" s="16"/>
-      <c r="K659" s="16"/>
+      <c r="K659" s="39"/>
       <c r="L659" s="16"/>
       <c r="M659" s="16"/>
       <c r="N659" s="1"/>
@@ -30596,7 +30660,7 @@
       <c r="H660" s="22"/>
       <c r="I660" s="22"/>
       <c r="J660" s="22"/>
-      <c r="K660" s="22"/>
+      <c r="K660" s="40"/>
       <c r="L660" s="22"/>
       <c r="M660" s="22"/>
       <c r="N660" s="1"/>
@@ -30624,7 +30688,7 @@
       <c r="H661" s="16"/>
       <c r="I661" s="16"/>
       <c r="J661" s="16"/>
-      <c r="K661" s="16"/>
+      <c r="K661" s="39"/>
       <c r="L661" s="16"/>
       <c r="M661" s="16"/>
       <c r="N661" s="1"/>
@@ -30652,7 +30716,7 @@
       <c r="H662" s="22"/>
       <c r="I662" s="22"/>
       <c r="J662" s="22"/>
-      <c r="K662" s="22"/>
+      <c r="K662" s="40"/>
       <c r="L662" s="22"/>
       <c r="M662" s="22"/>
       <c r="N662" s="1"/>
@@ -30680,7 +30744,7 @@
       <c r="H663" s="16"/>
       <c r="I663" s="16"/>
       <c r="J663" s="16"/>
-      <c r="K663" s="16"/>
+      <c r="K663" s="39"/>
       <c r="L663" s="16"/>
       <c r="M663" s="16"/>
       <c r="N663" s="1"/>
@@ -30708,7 +30772,7 @@
       <c r="H664" s="22"/>
       <c r="I664" s="22"/>
       <c r="J664" s="22"/>
-      <c r="K664" s="22"/>
+      <c r="K664" s="40"/>
       <c r="L664" s="22"/>
       <c r="M664" s="22"/>
       <c r="N664" s="1"/>
@@ -30736,7 +30800,7 @@
       <c r="H665" s="16"/>
       <c r="I665" s="16"/>
       <c r="J665" s="16"/>
-      <c r="K665" s="16"/>
+      <c r="K665" s="39"/>
       <c r="L665" s="16"/>
       <c r="M665" s="16"/>
       <c r="N665" s="1"/>
@@ -30764,7 +30828,7 @@
       <c r="H666" s="22"/>
       <c r="I666" s="22"/>
       <c r="J666" s="22"/>
-      <c r="K666" s="22"/>
+      <c r="K666" s="40"/>
       <c r="L666" s="22"/>
       <c r="M666" s="22"/>
       <c r="N666" s="1"/>
@@ -30792,7 +30856,7 @@
       <c r="H667" s="16"/>
       <c r="I667" s="16"/>
       <c r="J667" s="16"/>
-      <c r="K667" s="16"/>
+      <c r="K667" s="39"/>
       <c r="L667" s="16"/>
       <c r="M667" s="16"/>
       <c r="N667" s="1"/>
@@ -30820,7 +30884,7 @@
       <c r="H668" s="22"/>
       <c r="I668" s="22"/>
       <c r="J668" s="22"/>
-      <c r="K668" s="22"/>
+      <c r="K668" s="40"/>
       <c r="L668" s="22"/>
       <c r="M668" s="22"/>
       <c r="N668" s="1"/>
@@ -30848,7 +30912,7 @@
       <c r="H669" s="16"/>
       <c r="I669" s="16"/>
       <c r="J669" s="16"/>
-      <c r="K669" s="16"/>
+      <c r="K669" s="39"/>
       <c r="L669" s="16"/>
       <c r="M669" s="16"/>
       <c r="N669" s="1"/>
@@ -30876,7 +30940,7 @@
       <c r="H670" s="22"/>
       <c r="I670" s="22"/>
       <c r="J670" s="22"/>
-      <c r="K670" s="22"/>
+      <c r="K670" s="40"/>
       <c r="L670" s="22"/>
       <c r="M670" s="22"/>
       <c r="N670" s="1"/>
@@ -30904,7 +30968,7 @@
       <c r="H671" s="16"/>
       <c r="I671" s="16"/>
       <c r="J671" s="16"/>
-      <c r="K671" s="16"/>
+      <c r="K671" s="39"/>
       <c r="L671" s="16"/>
       <c r="M671" s="16"/>
       <c r="N671" s="1"/>
@@ -30932,7 +30996,7 @@
       <c r="H672" s="22"/>
       <c r="I672" s="22"/>
       <c r="J672" s="22"/>
-      <c r="K672" s="22"/>
+      <c r="K672" s="40"/>
       <c r="L672" s="22"/>
       <c r="M672" s="22"/>
       <c r="N672" s="1"/>
@@ -30960,7 +31024,7 @@
       <c r="H673" s="16"/>
       <c r="I673" s="16"/>
       <c r="J673" s="16"/>
-      <c r="K673" s="16"/>
+      <c r="K673" s="39"/>
       <c r="L673" s="16"/>
       <c r="M673" s="16"/>
       <c r="N673" s="1"/>
@@ -30988,7 +31052,7 @@
       <c r="H674" s="22"/>
       <c r="I674" s="22"/>
       <c r="J674" s="22"/>
-      <c r="K674" s="22"/>
+      <c r="K674" s="40"/>
       <c r="L674" s="22"/>
       <c r="M674" s="22"/>
       <c r="N674" s="1"/>
@@ -31016,7 +31080,7 @@
       <c r="H675" s="16"/>
       <c r="I675" s="16"/>
       <c r="J675" s="16"/>
-      <c r="K675" s="16"/>
+      <c r="K675" s="39"/>
       <c r="L675" s="16"/>
       <c r="M675" s="16"/>
       <c r="N675" s="1"/>
@@ -31044,7 +31108,7 @@
       <c r="H676" s="22"/>
       <c r="I676" s="22"/>
       <c r="J676" s="22"/>
-      <c r="K676" s="22"/>
+      <c r="K676" s="40"/>
       <c r="L676" s="22"/>
       <c r="M676" s="22"/>
       <c r="N676" s="1"/>
@@ -31072,7 +31136,7 @@
       <c r="H677" s="16"/>
       <c r="I677" s="16"/>
       <c r="J677" s="16"/>
-      <c r="K677" s="16"/>
+      <c r="K677" s="39"/>
       <c r="L677" s="16"/>
       <c r="M677" s="16"/>
       <c r="N677" s="1"/>
@@ -31100,7 +31164,7 @@
       <c r="H678" s="22"/>
       <c r="I678" s="22"/>
       <c r="J678" s="22"/>
-      <c r="K678" s="22"/>
+      <c r="K678" s="40"/>
       <c r="L678" s="22"/>
       <c r="M678" s="22"/>
       <c r="N678" s="1"/>
@@ -31128,7 +31192,7 @@
       <c r="H679" s="16"/>
       <c r="I679" s="16"/>
       <c r="J679" s="16"/>
-      <c r="K679" s="16"/>
+      <c r="K679" s="39"/>
       <c r="L679" s="16"/>
       <c r="M679" s="16"/>
       <c r="N679" s="1"/>
@@ -31156,7 +31220,7 @@
       <c r="H680" s="22"/>
       <c r="I680" s="22"/>
       <c r="J680" s="22"/>
-      <c r="K680" s="22"/>
+      <c r="K680" s="40"/>
       <c r="L680" s="22"/>
       <c r="M680" s="22"/>
       <c r="N680" s="1"/>
@@ -31184,7 +31248,7 @@
       <c r="H681" s="16"/>
       <c r="I681" s="16"/>
       <c r="J681" s="16"/>
-      <c r="K681" s="16"/>
+      <c r="K681" s="39"/>
       <c r="L681" s="16"/>
       <c r="M681" s="16"/>
       <c r="N681" s="1"/>
@@ -31212,7 +31276,7 @@
       <c r="H682" s="22"/>
       <c r="I682" s="22"/>
       <c r="J682" s="22"/>
-      <c r="K682" s="22"/>
+      <c r="K682" s="40"/>
       <c r="L682" s="22"/>
       <c r="M682" s="22"/>
       <c r="N682" s="1"/>
@@ -31240,7 +31304,7 @@
       <c r="H683" s="16"/>
       <c r="I683" s="16"/>
       <c r="J683" s="16"/>
-      <c r="K683" s="16"/>
+      <c r="K683" s="39"/>
       <c r="L683" s="16"/>
       <c r="M683" s="16"/>
       <c r="N683" s="1"/>
@@ -31268,7 +31332,7 @@
       <c r="H684" s="22"/>
       <c r="I684" s="22"/>
       <c r="J684" s="22"/>
-      <c r="K684" s="22"/>
+      <c r="K684" s="40"/>
       <c r="L684" s="22"/>
       <c r="M684" s="22"/>
       <c r="N684" s="1"/>
@@ -31296,7 +31360,7 @@
       <c r="H685" s="16"/>
       <c r="I685" s="16"/>
       <c r="J685" s="16"/>
-      <c r="K685" s="16"/>
+      <c r="K685" s="39"/>
       <c r="L685" s="16"/>
       <c r="M685" s="16"/>
       <c r="N685" s="1"/>
@@ -31324,7 +31388,7 @@
       <c r="H686" s="22"/>
       <c r="I686" s="22"/>
       <c r="J686" s="22"/>
-      <c r="K686" s="22"/>
+      <c r="K686" s="40"/>
       <c r="L686" s="22"/>
       <c r="M686" s="22"/>
       <c r="N686" s="1"/>
@@ -31352,7 +31416,7 @@
       <c r="H687" s="16"/>
       <c r="I687" s="16"/>
       <c r="J687" s="16"/>
-      <c r="K687" s="16"/>
+      <c r="K687" s="39"/>
       <c r="L687" s="16"/>
       <c r="M687" s="16"/>
       <c r="N687" s="1"/>
@@ -31380,7 +31444,7 @@
       <c r="H688" s="22"/>
       <c r="I688" s="22"/>
       <c r="J688" s="22"/>
-      <c r="K688" s="22"/>
+      <c r="K688" s="40"/>
       <c r="L688" s="22"/>
       <c r="M688" s="22"/>
       <c r="N688" s="1"/>
@@ -31408,7 +31472,7 @@
       <c r="H689" s="16"/>
       <c r="I689" s="16"/>
       <c r="J689" s="16"/>
-      <c r="K689" s="16"/>
+      <c r="K689" s="39"/>
       <c r="L689" s="16"/>
       <c r="M689" s="16"/>
       <c r="N689" s="1"/>
@@ -31436,7 +31500,7 @@
       <c r="H690" s="22"/>
       <c r="I690" s="22"/>
       <c r="J690" s="22"/>
-      <c r="K690" s="22"/>
+      <c r="K690" s="40"/>
       <c r="L690" s="22"/>
       <c r="M690" s="22"/>
       <c r="N690" s="1"/>
@@ -31464,7 +31528,7 @@
       <c r="H691" s="16"/>
       <c r="I691" s="16"/>
       <c r="J691" s="16"/>
-      <c r="K691" s="16"/>
+      <c r="K691" s="39"/>
       <c r="L691" s="16"/>
       <c r="M691" s="16"/>
       <c r="N691" s="1"/>
@@ -31492,7 +31556,7 @@
       <c r="H692" s="22"/>
       <c r="I692" s="22"/>
       <c r="J692" s="22"/>
-      <c r="K692" s="22"/>
+      <c r="K692" s="40"/>
       <c r="L692" s="22"/>
       <c r="M692" s="22"/>
       <c r="N692" s="1"/>
@@ -31520,7 +31584,7 @@
       <c r="H693" s="16"/>
       <c r="I693" s="16"/>
       <c r="J693" s="16"/>
-      <c r="K693" s="16"/>
+      <c r="K693" s="39"/>
       <c r="L693" s="16"/>
       <c r="M693" s="16"/>
       <c r="N693" s="1"/>
@@ -31548,7 +31612,7 @@
       <c r="H694" s="22"/>
       <c r="I694" s="22"/>
       <c r="J694" s="22"/>
-      <c r="K694" s="22"/>
+      <c r="K694" s="40"/>
       <c r="L694" s="22"/>
       <c r="M694" s="22"/>
       <c r="N694" s="1"/>
@@ -31576,7 +31640,7 @@
       <c r="H695" s="16"/>
       <c r="I695" s="16"/>
       <c r="J695" s="16"/>
-      <c r="K695" s="16"/>
+      <c r="K695" s="39"/>
       <c r="L695" s="16"/>
       <c r="M695" s="16"/>
       <c r="N695" s="1"/>
@@ -31604,7 +31668,7 @@
       <c r="H696" s="22"/>
       <c r="I696" s="22"/>
       <c r="J696" s="22"/>
-      <c r="K696" s="22"/>
+      <c r="K696" s="40"/>
       <c r="L696" s="22"/>
       <c r="M696" s="22"/>
       <c r="N696" s="1"/>
@@ -31632,7 +31696,7 @@
       <c r="H697" s="16"/>
       <c r="I697" s="16"/>
       <c r="J697" s="16"/>
-      <c r="K697" s="16"/>
+      <c r="K697" s="39"/>
       <c r="L697" s="16"/>
       <c r="M697" s="16"/>
       <c r="N697" s="1"/>
@@ -31660,7 +31724,7 @@
       <c r="H698" s="22"/>
       <c r="I698" s="22"/>
       <c r="J698" s="22"/>
-      <c r="K698" s="22"/>
+      <c r="K698" s="40"/>
       <c r="L698" s="22"/>
       <c r="M698" s="22"/>
       <c r="N698" s="1"/>
@@ -31688,7 +31752,7 @@
       <c r="H699" s="16"/>
       <c r="I699" s="16"/>
       <c r="J699" s="16"/>
-      <c r="K699" s="16"/>
+      <c r="K699" s="39"/>
       <c r="L699" s="16"/>
       <c r="M699" s="16"/>
       <c r="N699" s="1"/>
@@ -31716,7 +31780,7 @@
       <c r="H700" s="22"/>
       <c r="I700" s="22"/>
       <c r="J700" s="22"/>
-      <c r="K700" s="22"/>
+      <c r="K700" s="40"/>
       <c r="L700" s="22"/>
       <c r="M700" s="22"/>
       <c r="N700" s="1"/>
@@ -31744,7 +31808,7 @@
       <c r="H701" s="16"/>
       <c r="I701" s="16"/>
       <c r="J701" s="16"/>
-      <c r="K701" s="16"/>
+      <c r="K701" s="39"/>
       <c r="L701" s="16"/>
       <c r="M701" s="16"/>
       <c r="N701" s="1"/>
@@ -31772,7 +31836,7 @@
       <c r="H702" s="22"/>
       <c r="I702" s="22"/>
       <c r="J702" s="22"/>
-      <c r="K702" s="22"/>
+      <c r="K702" s="40"/>
       <c r="L702" s="22"/>
       <c r="M702" s="22"/>
       <c r="N702" s="1"/>
@@ -31800,7 +31864,7 @@
       <c r="H703" s="16"/>
       <c r="I703" s="16"/>
       <c r="J703" s="16"/>
-      <c r="K703" s="16"/>
+      <c r="K703" s="39"/>
       <c r="L703" s="16"/>
       <c r="M703" s="16"/>
       <c r="N703" s="1"/>
@@ -31828,7 +31892,7 @@
       <c r="H704" s="22"/>
       <c r="I704" s="22"/>
       <c r="J704" s="22"/>
-      <c r="K704" s="22"/>
+      <c r="K704" s="40"/>
       <c r="L704" s="22"/>
       <c r="M704" s="22"/>
       <c r="N704" s="1"/>
@@ -31856,7 +31920,7 @@
       <c r="H705" s="16"/>
       <c r="I705" s="16"/>
       <c r="J705" s="16"/>
-      <c r="K705" s="16"/>
+      <c r="K705" s="39"/>
       <c r="L705" s="16"/>
       <c r="M705" s="16"/>
       <c r="N705" s="1"/>
@@ -31884,7 +31948,7 @@
       <c r="H706" s="22"/>
       <c r="I706" s="22"/>
       <c r="J706" s="22"/>
-      <c r="K706" s="22"/>
+      <c r="K706" s="40"/>
       <c r="L706" s="22"/>
       <c r="M706" s="22"/>
       <c r="N706" s="1"/>
@@ -31912,7 +31976,7 @@
       <c r="H707" s="16"/>
       <c r="I707" s="16"/>
       <c r="J707" s="16"/>
-      <c r="K707" s="16"/>
+      <c r="K707" s="39"/>
       <c r="L707" s="16"/>
       <c r="M707" s="16"/>
       <c r="N707" s="1"/>
@@ -31940,7 +32004,7 @@
       <c r="H708" s="22"/>
       <c r="I708" s="22"/>
       <c r="J708" s="22"/>
-      <c r="K708" s="22"/>
+      <c r="K708" s="40"/>
       <c r="L708" s="22"/>
       <c r="M708" s="22"/>
       <c r="N708" s="1"/>
@@ -31968,7 +32032,7 @@
       <c r="H709" s="16"/>
       <c r="I709" s="16"/>
       <c r="J709" s="16"/>
-      <c r="K709" s="16"/>
+      <c r="K709" s="39"/>
       <c r="L709" s="16"/>
       <c r="M709" s="16"/>
       <c r="N709" s="1"/>
@@ -31996,7 +32060,7 @@
       <c r="H710" s="22"/>
       <c r="I710" s="22"/>
       <c r="J710" s="22"/>
-      <c r="K710" s="22"/>
+      <c r="K710" s="40"/>
       <c r="L710" s="22"/>
       <c r="M710" s="22"/>
       <c r="N710" s="1"/>
@@ -32024,7 +32088,7 @@
       <c r="H711" s="16"/>
       <c r="I711" s="16"/>
       <c r="J711" s="16"/>
-      <c r="K711" s="16"/>
+      <c r="K711" s="39"/>
       <c r="L711" s="16"/>
       <c r="M711" s="16"/>
       <c r="N711" s="1"/>
@@ -32052,7 +32116,7 @@
       <c r="H712" s="22"/>
       <c r="I712" s="22"/>
       <c r="J712" s="22"/>
-      <c r="K712" s="22"/>
+      <c r="K712" s="40"/>
       <c r="L712" s="22"/>
       <c r="M712" s="22"/>
       <c r="N712" s="1"/>
@@ -32080,7 +32144,7 @@
       <c r="H713" s="16"/>
       <c r="I713" s="16"/>
       <c r="J713" s="16"/>
-      <c r="K713" s="16"/>
+      <c r="K713" s="39"/>
       <c r="L713" s="16"/>
       <c r="M713" s="16"/>
       <c r="N713" s="1"/>
@@ -32108,7 +32172,7 @@
       <c r="H714" s="22"/>
       <c r="I714" s="22"/>
       <c r="J714" s="22"/>
-      <c r="K714" s="22"/>
+      <c r="K714" s="40"/>
       <c r="L714" s="22"/>
       <c r="M714" s="22"/>
       <c r="N714" s="1"/>
@@ -32136,7 +32200,7 @@
       <c r="H715" s="16"/>
       <c r="I715" s="16"/>
       <c r="J715" s="16"/>
-      <c r="K715" s="16"/>
+      <c r="K715" s="39"/>
       <c r="L715" s="16"/>
       <c r="M715" s="16"/>
       <c r="N715" s="1"/>
@@ -32164,7 +32228,7 @@
       <c r="H716" s="22"/>
       <c r="I716" s="22"/>
       <c r="J716" s="22"/>
-      <c r="K716" s="22"/>
+      <c r="K716" s="40"/>
       <c r="L716" s="22"/>
       <c r="M716" s="22"/>
       <c r="N716" s="1"/>
@@ -32192,7 +32256,7 @@
       <c r="H717" s="16"/>
       <c r="I717" s="16"/>
       <c r="J717" s="16"/>
-      <c r="K717" s="16"/>
+      <c r="K717" s="39"/>
       <c r="L717" s="16"/>
       <c r="M717" s="16"/>
       <c r="N717" s="1"/>
@@ -32220,7 +32284,7 @@
       <c r="H718" s="22"/>
       <c r="I718" s="22"/>
       <c r="J718" s="22"/>
-      <c r="K718" s="22"/>
+      <c r="K718" s="40"/>
       <c r="L718" s="22"/>
       <c r="M718" s="22"/>
       <c r="N718" s="1"/>
@@ -32248,7 +32312,7 @@
       <c r="H719" s="16"/>
       <c r="I719" s="16"/>
       <c r="J719" s="16"/>
-      <c r="K719" s="16"/>
+      <c r="K719" s="39"/>
       <c r="L719" s="16"/>
       <c r="M719" s="16"/>
       <c r="N719" s="1"/>
@@ -32276,7 +32340,7 @@
       <c r="H720" s="22"/>
       <c r="I720" s="22"/>
       <c r="J720" s="22"/>
-      <c r="K720" s="22"/>
+      <c r="K720" s="40"/>
       <c r="L720" s="22"/>
       <c r="M720" s="22"/>
       <c r="N720" s="1"/>
@@ -32304,7 +32368,7 @@
       <c r="H721" s="16"/>
       <c r="I721" s="16"/>
       <c r="J721" s="16"/>
-      <c r="K721" s="16"/>
+      <c r="K721" s="39"/>
       <c r="L721" s="16"/>
       <c r="M721" s="16"/>
       <c r="N721" s="1"/>
@@ -32332,7 +32396,7 @@
       <c r="H722" s="22"/>
       <c r="I722" s="22"/>
       <c r="J722" s="22"/>
-      <c r="K722" s="22"/>
+      <c r="K722" s="40"/>
       <c r="L722" s="22"/>
       <c r="M722" s="22"/>
       <c r="N722" s="1"/>
@@ -32360,7 +32424,7 @@
       <c r="H723" s="16"/>
       <c r="I723" s="16"/>
       <c r="J723" s="16"/>
-      <c r="K723" s="16"/>
+      <c r="K723" s="39"/>
       <c r="L723" s="16"/>
       <c r="M723" s="16"/>
       <c r="N723" s="1"/>
@@ -32388,7 +32452,7 @@
       <c r="H724" s="22"/>
       <c r="I724" s="22"/>
       <c r="J724" s="22"/>
-      <c r="K724" s="22"/>
+      <c r="K724" s="40"/>
       <c r="L724" s="22"/>
       <c r="M724" s="22"/>
       <c r="N724" s="1"/>
@@ -32416,7 +32480,7 @@
       <c r="H725" s="16"/>
       <c r="I725" s="16"/>
       <c r="J725" s="16"/>
-      <c r="K725" s="16"/>
+      <c r="K725" s="39"/>
       <c r="L725" s="16"/>
       <c r="M725" s="16"/>
       <c r="N725" s="1"/>
@@ -32444,7 +32508,7 @@
       <c r="H726" s="22"/>
       <c r="I726" s="22"/>
       <c r="J726" s="22"/>
-      <c r="K726" s="22"/>
+      <c r="K726" s="40"/>
       <c r="L726" s="22"/>
       <c r="M726" s="22"/>
       <c r="N726" s="1"/>
@@ -32472,7 +32536,7 @@
       <c r="H727" s="16"/>
       <c r="I727" s="16"/>
       <c r="J727" s="16"/>
-      <c r="K727" s="16"/>
+      <c r="K727" s="39"/>
       <c r="L727" s="16"/>
       <c r="M727" s="16"/>
       <c r="N727" s="1"/>
@@ -32500,7 +32564,7 @@
       <c r="H728" s="22"/>
       <c r="I728" s="22"/>
       <c r="J728" s="22"/>
-      <c r="K728" s="22"/>
+      <c r="K728" s="40"/>
       <c r="L728" s="22"/>
       <c r="M728" s="22"/>
       <c r="N728" s="1"/>
@@ -32528,7 +32592,7 @@
       <c r="H729" s="16"/>
       <c r="I729" s="16"/>
       <c r="J729" s="16"/>
-      <c r="K729" s="16"/>
+      <c r="K729" s="39"/>
       <c r="L729" s="16"/>
       <c r="M729" s="16"/>
       <c r="N729" s="1"/>
@@ -32556,7 +32620,7 @@
       <c r="H730" s="22"/>
       <c r="I730" s="22"/>
       <c r="J730" s="22"/>
-      <c r="K730" s="22"/>
+      <c r="K730" s="40"/>
       <c r="L730" s="22"/>
       <c r="M730" s="22"/>
       <c r="N730" s="1"/>
@@ -32584,7 +32648,7 @@
       <c r="H731" s="16"/>
       <c r="I731" s="16"/>
       <c r="J731" s="16"/>
-      <c r="K731" s="16"/>
+      <c r="K731" s="39"/>
       <c r="L731" s="16"/>
       <c r="M731" s="16"/>
       <c r="N731" s="1"/>
@@ -32612,7 +32676,7 @@
       <c r="H732" s="22"/>
       <c r="I732" s="22"/>
       <c r="J732" s="22"/>
-      <c r="K732" s="22"/>
+      <c r="K732" s="40"/>
       <c r="L732" s="22"/>
       <c r="M732" s="22"/>
       <c r="N732" s="1"/>
@@ -32640,7 +32704,7 @@
       <c r="H733" s="16"/>
       <c r="I733" s="16"/>
       <c r="J733" s="16"/>
-      <c r="K733" s="16"/>
+      <c r="K733" s="39"/>
       <c r="L733" s="16"/>
       <c r="M733" s="16"/>
       <c r="N733" s="1"/>
@@ -32668,7 +32732,7 @@
       <c r="H734" s="22"/>
       <c r="I734" s="22"/>
       <c r="J734" s="22"/>
-      <c r="K734" s="22"/>
+      <c r="K734" s="40"/>
       <c r="L734" s="22"/>
       <c r="M734" s="22"/>
       <c r="N734" s="1"/>
@@ -32696,7 +32760,7 @@
       <c r="H735" s="16"/>
       <c r="I735" s="16"/>
       <c r="J735" s="16"/>
-      <c r="K735" s="16"/>
+      <c r="K735" s="39"/>
       <c r="L735" s="16"/>
       <c r="M735" s="16"/>
       <c r="N735" s="1"/>
@@ -32724,7 +32788,7 @@
       <c r="H736" s="22"/>
       <c r="I736" s="22"/>
       <c r="J736" s="22"/>
-      <c r="K736" s="22"/>
+      <c r="K736" s="40"/>
       <c r="L736" s="22"/>
       <c r="M736" s="22"/>
       <c r="N736" s="1"/>
@@ -32752,7 +32816,7 @@
       <c r="H737" s="16"/>
       <c r="I737" s="16"/>
       <c r="J737" s="16"/>
-      <c r="K737" s="16"/>
+      <c r="K737" s="39"/>
       <c r="L737" s="16"/>
       <c r="M737" s="16"/>
       <c r="N737" s="1"/>
@@ -32780,7 +32844,7 @@
       <c r="H738" s="22"/>
       <c r="I738" s="22"/>
       <c r="J738" s="22"/>
-      <c r="K738" s="22"/>
+      <c r="K738" s="40"/>
       <c r="L738" s="22"/>
       <c r="M738" s="22"/>
       <c r="N738" s="1"/>
@@ -32808,7 +32872,7 @@
       <c r="H739" s="16"/>
       <c r="I739" s="16"/>
       <c r="J739" s="16"/>
-      <c r="K739" s="16"/>
+      <c r="K739" s="39"/>
       <c r="L739" s="16"/>
       <c r="M739" s="16"/>
       <c r="N739" s="1"/>
@@ -32836,7 +32900,7 @@
       <c r="H740" s="22"/>
       <c r="I740" s="22"/>
       <c r="J740" s="22"/>
-      <c r="K740" s="22"/>
+      <c r="K740" s="40"/>
       <c r="L740" s="22"/>
       <c r="M740" s="22"/>
       <c r="N740" s="1"/>
@@ -32864,7 +32928,7 @@
       <c r="H741" s="16"/>
       <c r="I741" s="16"/>
       <c r="J741" s="16"/>
-      <c r="K741" s="16"/>
+      <c r="K741" s="39"/>
       <c r="L741" s="16"/>
       <c r="M741" s="16"/>
       <c r="N741" s="1"/>
@@ -32892,7 +32956,7 @@
       <c r="H742" s="22"/>
       <c r="I742" s="22"/>
       <c r="J742" s="22"/>
-      <c r="K742" s="22"/>
+      <c r="K742" s="40"/>
       <c r="L742" s="22"/>
       <c r="M742" s="22"/>
       <c r="N742" s="1"/>
@@ -32920,7 +32984,7 @@
       <c r="H743" s="16"/>
       <c r="I743" s="16"/>
       <c r="J743" s="16"/>
-      <c r="K743" s="16"/>
+      <c r="K743" s="39"/>
       <c r="L743" s="16"/>
       <c r="M743" s="16"/>
       <c r="N743" s="1"/>
@@ -32948,7 +33012,7 @@
       <c r="H744" s="22"/>
       <c r="I744" s="22"/>
       <c r="J744" s="22"/>
-      <c r="K744" s="22"/>
+      <c r="K744" s="40"/>
       <c r="L744" s="22"/>
       <c r="M744" s="22"/>
       <c r="N744" s="1"/>
@@ -32976,7 +33040,7 @@
       <c r="H745" s="16"/>
       <c r="I745" s="16"/>
       <c r="J745" s="16"/>
-      <c r="K745" s="16"/>
+      <c r="K745" s="39"/>
       <c r="L745" s="16"/>
       <c r="M745" s="16"/>
       <c r="N745" s="1"/>
@@ -33004,7 +33068,7 @@
       <c r="H746" s="22"/>
       <c r="I746" s="22"/>
       <c r="J746" s="22"/>
-      <c r="K746" s="22"/>
+      <c r="K746" s="40"/>
       <c r="L746" s="22"/>
       <c r="M746" s="22"/>
       <c r="N746" s="1"/>
@@ -33032,7 +33096,7 @@
       <c r="H747" s="16"/>
       <c r="I747" s="16"/>
       <c r="J747" s="16"/>
-      <c r="K747" s="16"/>
+      <c r="K747" s="39"/>
       <c r="L747" s="16"/>
       <c r="M747" s="16"/>
       <c r="N747" s="1"/>
@@ -33060,7 +33124,7 @@
       <c r="H748" s="22"/>
       <c r="I748" s="22"/>
       <c r="J748" s="22"/>
-      <c r="K748" s="22"/>
+      <c r="K748" s="40"/>
       <c r="L748" s="22"/>
       <c r="M748" s="22"/>
       <c r="N748" s="1"/>
@@ -33088,7 +33152,7 @@
       <c r="H749" s="16"/>
       <c r="I749" s="16"/>
       <c r="J749" s="16"/>
-      <c r="K749" s="16"/>
+      <c r="K749" s="39"/>
       <c r="L749" s="16"/>
       <c r="M749" s="16"/>
       <c r="N749" s="1"/>
@@ -33116,7 +33180,7 @@
       <c r="H750" s="22"/>
       <c r="I750" s="22"/>
       <c r="J750" s="22"/>
-      <c r="K750" s="22"/>
+      <c r="K750" s="40"/>
       <c r="L750" s="22"/>
       <c r="M750" s="22"/>
       <c r="N750" s="1"/>
@@ -33144,7 +33208,7 @@
       <c r="H751" s="16"/>
       <c r="I751" s="16"/>
       <c r="J751" s="16"/>
-      <c r="K751" s="16"/>
+      <c r="K751" s="39"/>
       <c r="L751" s="16"/>
       <c r="M751" s="16"/>
       <c r="N751" s="1"/>
@@ -33172,7 +33236,7 @@
       <c r="H752" s="22"/>
       <c r="I752" s="22"/>
       <c r="J752" s="22"/>
-      <c r="K752" s="22"/>
+      <c r="K752" s="40"/>
       <c r="L752" s="22"/>
       <c r="M752" s="22"/>
       <c r="N752" s="1"/>
@@ -33200,7 +33264,7 @@
       <c r="H753" s="16"/>
       <c r="I753" s="16"/>
       <c r="J753" s="16"/>
-      <c r="K753" s="16"/>
+      <c r="K753" s="39"/>
       <c r="L753" s="16"/>
       <c r="M753" s="16"/>
       <c r="N753" s="1"/>
@@ -33228,7 +33292,7 @@
       <c r="H754" s="22"/>
       <c r="I754" s="22"/>
       <c r="J754" s="22"/>
-      <c r="K754" s="22"/>
+      <c r="K754" s="40"/>
       <c r="L754" s="22"/>
       <c r="M754" s="22"/>
       <c r="N754" s="1"/>
@@ -33256,7 +33320,7 @@
       <c r="H755" s="16"/>
       <c r="I755" s="16"/>
       <c r="J755" s="16"/>
-      <c r="K755" s="16"/>
+      <c r="K755" s="39"/>
       <c r="L755" s="16"/>
       <c r="M755" s="16"/>
       <c r="N755" s="1"/>
@@ -33284,7 +33348,7 @@
       <c r="H756" s="22"/>
       <c r="I756" s="22"/>
       <c r="J756" s="22"/>
-      <c r="K756" s="22"/>
+      <c r="K756" s="40"/>
       <c r="L756" s="22"/>
       <c r="M756" s="22"/>
       <c r="N756" s="1"/>
@@ -33312,7 +33376,7 @@
       <c r="H757" s="16"/>
       <c r="I757" s="16"/>
       <c r="J757" s="16"/>
-      <c r="K757" s="16"/>
+      <c r="K757" s="39"/>
       <c r="L757" s="16"/>
       <c r="M757" s="16"/>
       <c r="N757" s="1"/>
@@ -33340,7 +33404,7 @@
       <c r="H758" s="22"/>
       <c r="I758" s="22"/>
       <c r="J758" s="22"/>
-      <c r="K758" s="22"/>
+      <c r="K758" s="40"/>
       <c r="L758" s="22"/>
       <c r="M758" s="22"/>
       <c r="N758" s="1"/>
@@ -33368,7 +33432,7 @@
       <c r="H759" s="16"/>
       <c r="I759" s="16"/>
       <c r="J759" s="16"/>
-      <c r="K759" s="16"/>
+      <c r="K759" s="39"/>
       <c r="L759" s="16"/>
       <c r="M759" s="16"/>
       <c r="N759" s="1"/>
@@ -33396,7 +33460,7 @@
       <c r="H760" s="22"/>
       <c r="I760" s="22"/>
       <c r="J760" s="22"/>
-      <c r="K760" s="22"/>
+      <c r="K760" s="40"/>
       <c r="L760" s="22"/>
       <c r="M760" s="22"/>
       <c r="N760" s="1"/>
@@ -33424,7 +33488,7 @@
       <c r="H761" s="16"/>
       <c r="I761" s="16"/>
       <c r="J761" s="16"/>
-      <c r="K761" s="16"/>
+      <c r="K761" s="39"/>
       <c r="L761" s="16"/>
       <c r="M761" s="16"/>
       <c r="N761" s="1"/>
@@ -33452,7 +33516,7 @@
       <c r="H762" s="22"/>
       <c r="I762" s="22"/>
       <c r="J762" s="22"/>
-      <c r="K762" s="22"/>
+      <c r="K762" s="40"/>
       <c r="L762" s="22"/>
       <c r="M762" s="22"/>
       <c r="N762" s="1"/>
@@ -33480,7 +33544,7 @@
       <c r="H763" s="16"/>
       <c r="I763" s="16"/>
       <c r="J763" s="16"/>
-      <c r="K763" s="16"/>
+      <c r="K763" s="39"/>
       <c r="L763" s="16"/>
       <c r="M763" s="16"/>
       <c r="N763" s="1"/>
@@ -33508,7 +33572,7 @@
       <c r="H764" s="22"/>
       <c r="I764" s="22"/>
       <c r="J764" s="22"/>
-      <c r="K764" s="22"/>
+      <c r="K764" s="40"/>
       <c r="L764" s="22"/>
       <c r="M764" s="22"/>
       <c r="N764" s="1"/>
@@ -33536,7 +33600,7 @@
       <c r="H765" s="16"/>
       <c r="I765" s="16"/>
       <c r="J765" s="16"/>
-      <c r="K765" s="16"/>
+      <c r="K765" s="39"/>
       <c r="L765" s="16"/>
       <c r="M765" s="16"/>
       <c r="N765" s="1"/>
@@ -33564,7 +33628,7 @@
       <c r="H766" s="22"/>
       <c r="I766" s="22"/>
       <c r="J766" s="22"/>
-      <c r="K766" s="22"/>
+      <c r="K766" s="40"/>
       <c r="L766" s="22"/>
       <c r="M766" s="22"/>
       <c r="N766" s="1"/>
@@ -33592,7 +33656,7 @@
       <c r="H767" s="16"/>
       <c r="I767" s="16"/>
       <c r="J767" s="16"/>
-      <c r="K767" s="16"/>
+      <c r="K767" s="39"/>
       <c r="L767" s="16"/>
       <c r="M767" s="16"/>
       <c r="N767" s="1"/>
@@ -33620,7 +33684,7 @@
       <c r="H768" s="22"/>
       <c r="I768" s="22"/>
       <c r="J768" s="22"/>
-      <c r="K768" s="22"/>
+      <c r="K768" s="40"/>
       <c r="L768" s="22"/>
       <c r="M768" s="22"/>
       <c r="N768" s="1"/>
@@ -33648,7 +33712,7 @@
       <c r="H769" s="16"/>
       <c r="I769" s="16"/>
       <c r="J769" s="16"/>
-      <c r="K769" s="16"/>
+      <c r="K769" s="39"/>
       <c r="L769" s="16"/>
       <c r="M769" s="16"/>
       <c r="N769" s="1"/>
@@ -33676,7 +33740,7 @@
       <c r="H770" s="22"/>
       <c r="I770" s="22"/>
       <c r="J770" s="22"/>
-      <c r="K770" s="22"/>
+      <c r="K770" s="40"/>
       <c r="L770" s="22"/>
       <c r="M770" s="22"/>
       <c r="N770" s="1"/>
@@ -33704,7 +33768,7 @@
       <c r="H771" s="16"/>
       <c r="I771" s="16"/>
       <c r="J771" s="16"/>
-      <c r="K771" s="16"/>
+      <c r="K771" s="39"/>
       <c r="L771" s="16"/>
       <c r="M771" s="16"/>
       <c r="N771" s="1"/>
@@ -33732,7 +33796,7 @@
       <c r="H772" s="22"/>
       <c r="I772" s="22"/>
       <c r="J772" s="22"/>
-      <c r="K772" s="22"/>
+      <c r="K772" s="40"/>
       <c r="L772" s="22"/>
       <c r="M772" s="22"/>
       <c r="N772" s="1"/>
@@ -33760,7 +33824,7 @@
       <c r="H773" s="16"/>
       <c r="I773" s="16"/>
       <c r="J773" s="16"/>
-      <c r="K773" s="16"/>
+      <c r="K773" s="39"/>
       <c r="L773" s="16"/>
       <c r="M773" s="16"/>
       <c r="N773" s="1"/>
@@ -33788,7 +33852,7 @@
       <c r="H774" s="22"/>
       <c r="I774" s="22"/>
       <c r="J774" s="22"/>
-      <c r="K774" s="22"/>
+      <c r="K774" s="40"/>
       <c r="L774" s="22"/>
       <c r="M774" s="22"/>
       <c r="N774" s="1"/>
@@ -33816,7 +33880,7 @@
       <c r="H775" s="16"/>
       <c r="I775" s="16"/>
       <c r="J775" s="16"/>
-      <c r="K775" s="16"/>
+      <c r="K775" s="39"/>
       <c r="L775" s="16"/>
       <c r="M775" s="16"/>
       <c r="N775" s="1"/>
@@ -33844,7 +33908,7 @@
       <c r="H776" s="22"/>
       <c r="I776" s="22"/>
       <c r="J776" s="22"/>
-      <c r="K776" s="22"/>
+      <c r="K776" s="40"/>
       <c r="L776" s="22"/>
       <c r="M776" s="22"/>
       <c r="N776" s="1"/>
@@ -33872,7 +33936,7 @@
       <c r="H777" s="16"/>
       <c r="I777" s="16"/>
       <c r="J777" s="16"/>
-      <c r="K777" s="16"/>
+      <c r="K777" s="39"/>
       <c r="L777" s="16"/>
       <c r="M777" s="16"/>
       <c r="N777" s="1"/>
@@ -33900,7 +33964,7 @@
       <c r="H778" s="22"/>
       <c r="I778" s="22"/>
       <c r="J778" s="22"/>
-      <c r="K778" s="22"/>
+      <c r="K778" s="40"/>
       <c r="L778" s="22"/>
       <c r="M778" s="22"/>
       <c r="N778" s="1"/>
@@ -33928,7 +33992,7 @@
       <c r="H779" s="16"/>
       <c r="I779" s="16"/>
       <c r="J779" s="16"/>
-      <c r="K779" s="16"/>
+      <c r="K779" s="39"/>
       <c r="L779" s="16"/>
       <c r="M779" s="16"/>
       <c r="N779" s="1"/>
@@ -33956,7 +34020,7 @@
       <c r="H780" s="22"/>
       <c r="I780" s="22"/>
       <c r="J780" s="22"/>
-      <c r="K780" s="22"/>
+      <c r="K780" s="40"/>
       <c r="L780" s="22"/>
       <c r="M780" s="22"/>
       <c r="N780" s="1"/>
@@ -33984,7 +34048,7 @@
       <c r="H781" s="16"/>
       <c r="I781" s="16"/>
       <c r="J781" s="16"/>
-      <c r="K781" s="16"/>
+      <c r="K781" s="39"/>
       <c r="L781" s="16"/>
       <c r="M781" s="16"/>
       <c r="N781" s="1"/>
@@ -34012,7 +34076,7 @@
       <c r="H782" s="22"/>
       <c r="I782" s="22"/>
       <c r="J782" s="22"/>
-      <c r="K782" s="22"/>
+      <c r="K782" s="40"/>
       <c r="L782" s="22"/>
       <c r="M782" s="22"/>
       <c r="N782" s="1"/>
@@ -34040,7 +34104,7 @@
       <c r="H783" s="16"/>
       <c r="I783" s="16"/>
       <c r="J783" s="16"/>
-      <c r="K783" s="16"/>
+      <c r="K783" s="39"/>
       <c r="L783" s="16"/>
       <c r="M783" s="16"/>
       <c r="N783" s="1"/>
@@ -34068,7 +34132,7 @@
       <c r="H784" s="22"/>
       <c r="I784" s="22"/>
       <c r="J784" s="22"/>
-      <c r="K784" s="22"/>
+      <c r="K784" s="40"/>
       <c r="L784" s="22"/>
       <c r="M784" s="22"/>
       <c r="N784" s="1"/>
@@ -34096,7 +34160,7 @@
       <c r="H785" s="16"/>
       <c r="I785" s="16"/>
       <c r="J785" s="16"/>
-      <c r="K785" s="16"/>
+      <c r="K785" s="39"/>
       <c r="L785" s="16"/>
       <c r="M785" s="16"/>
       <c r="N785" s="1"/>
@@ -34124,7 +34188,7 @@
       <c r="H786" s="22"/>
       <c r="I786" s="22"/>
       <c r="J786" s="22"/>
-      <c r="K786" s="22"/>
+      <c r="K786" s="40"/>
       <c r="L786" s="22"/>
       <c r="M786" s="22"/>
       <c r="N786" s="1"/>
@@ -34152,7 +34216,7 @@
       <c r="H787" s="16"/>
       <c r="I787" s="16"/>
       <c r="J787" s="16"/>
-      <c r="K787" s="16"/>
+      <c r="K787" s="39"/>
       <c r="L787" s="16"/>
       <c r="M787" s="16"/>
       <c r="N787" s="1"/>
@@ -34180,7 +34244,7 @@
       <c r="H788" s="22"/>
       <c r="I788" s="22"/>
       <c r="J788" s="22"/>
-      <c r="K788" s="22"/>
+      <c r="K788" s="40"/>
       <c r="L788" s="22"/>
       <c r="M788" s="22"/>
       <c r="N788" s="1"/>
@@ -34208,7 +34272,7 @@
       <c r="H789" s="16"/>
       <c r="I789" s="16"/>
       <c r="J789" s="16"/>
-      <c r="K789" s="16"/>
+      <c r="K789" s="39"/>
       <c r="L789" s="16"/>
       <c r="M789" s="16"/>
       <c r="N789" s="1"/>
@@ -34236,7 +34300,7 @@
       <c r="H790" s="22"/>
       <c r="I790" s="22"/>
       <c r="J790" s="22"/>
-      <c r="K790" s="22"/>
+      <c r="K790" s="40"/>
       <c r="L790" s="22"/>
       <c r="M790" s="22"/>
       <c r="N790" s="1"/>
@@ -34264,7 +34328,7 @@
       <c r="H791" s="16"/>
       <c r="I791" s="16"/>
       <c r="J791" s="16"/>
-      <c r="K791" s="16"/>
+      <c r="K791" s="39"/>
       <c r="L791" s="16"/>
       <c r="M791" s="16"/>
       <c r="N791" s="1"/>
@@ -34292,7 +34356,7 @@
       <c r="H792" s="22"/>
       <c r="I792" s="22"/>
       <c r="J792" s="22"/>
-      <c r="K792" s="22"/>
+      <c r="K792" s="40"/>
       <c r="L792" s="22"/>
       <c r="M792" s="22"/>
       <c r="N792" s="1"/>
@@ -34320,7 +34384,7 @@
       <c r="H793" s="16"/>
       <c r="I793" s="16"/>
       <c r="J793" s="16"/>
-      <c r="K793" s="16"/>
+      <c r="K793" s="39"/>
       <c r="L793" s="16"/>
       <c r="M793" s="16"/>
       <c r="N793" s="1"/>
@@ -34348,7 +34412,7 @@
       <c r="H794" s="22"/>
       <c r="I794" s="22"/>
       <c r="J794" s="22"/>
-      <c r="K794" s="22"/>
+      <c r="K794" s="40"/>
       <c r="L794" s="22"/>
       <c r="M794" s="22"/>
       <c r="N794" s="1"/>
@@ -34376,7 +34440,7 @@
       <c r="H795" s="16"/>
       <c r="I795" s="16"/>
       <c r="J795" s="16"/>
-      <c r="K795" s="16"/>
+      <c r="K795" s="39"/>
       <c r="L795" s="16"/>
       <c r="M795" s="16"/>
       <c r="N795" s="1"/>
@@ -34404,7 +34468,7 @@
       <c r="H796" s="22"/>
       <c r="I796" s="22"/>
       <c r="J796" s="22"/>
-      <c r="K796" s="22"/>
+      <c r="K796" s="40"/>
       <c r="L796" s="22"/>
       <c r="M796" s="22"/>
       <c r="N796" s="1"/>
@@ -34432,7 +34496,7 @@
       <c r="H797" s="16"/>
       <c r="I797" s="16"/>
       <c r="J797" s="16"/>
-      <c r="K797" s="16"/>
+      <c r="K797" s="39"/>
       <c r="L797" s="16"/>
       <c r="M797" s="16"/>
       <c r="N797" s="1"/>
@@ -34460,7 +34524,7 @@
       <c r="H798" s="22"/>
       <c r="I798" s="22"/>
       <c r="J798" s="22"/>
-      <c r="K798" s="22"/>
+      <c r="K798" s="40"/>
       <c r="L798" s="22"/>
       <c r="M798" s="22"/>
       <c r="N798" s="1"/>
@@ -34488,7 +34552,7 @@
       <c r="H799" s="16"/>
       <c r="I799" s="16"/>
       <c r="J799" s="16"/>
-      <c r="K799" s="16"/>
+      <c r="K799" s="39"/>
       <c r="L799" s="16"/>
       <c r="M799" s="16"/>
       <c r="N799" s="1"/>
@@ -34516,7 +34580,7 @@
       <c r="H800" s="22"/>
       <c r="I800" s="22"/>
       <c r="J800" s="22"/>
-      <c r="K800" s="22"/>
+      <c r="K800" s="40"/>
       <c r="L800" s="22"/>
       <c r="M800" s="22"/>
       <c r="N800" s="1"/>
@@ -34544,7 +34608,7 @@
       <c r="H801" s="16"/>
       <c r="I801" s="16"/>
       <c r="J801" s="16"/>
-      <c r="K801" s="16"/>
+      <c r="K801" s="39"/>
       <c r="L801" s="16"/>
       <c r="M801" s="16"/>
       <c r="N801" s="1"/>
@@ -34572,7 +34636,7 @@
       <c r="H802" s="22"/>
       <c r="I802" s="22"/>
       <c r="J802" s="22"/>
-      <c r="K802" s="22"/>
+      <c r="K802" s="40"/>
       <c r="L802" s="22"/>
       <c r="M802" s="22"/>
       <c r="N802" s="1"/>
@@ -34600,7 +34664,7 @@
       <c r="H803" s="16"/>
       <c r="I803" s="16"/>
       <c r="J803" s="16"/>
-      <c r="K803" s="16"/>
+      <c r="K803" s="39"/>
       <c r="L803" s="16"/>
       <c r="M803" s="16"/>
       <c r="N803" s="1"/>
@@ -34628,7 +34692,7 @@
       <c r="H804" s="22"/>
       <c r="I804" s="22"/>
       <c r="J804" s="22"/>
-      <c r="K804" s="22"/>
+      <c r="K804" s="40"/>
       <c r="L804" s="22"/>
       <c r="M804" s="22"/>
       <c r="N804" s="1"/>
@@ -34656,7 +34720,7 @@
       <c r="H805" s="16"/>
       <c r="I805" s="16"/>
       <c r="J805" s="16"/>
-      <c r="K805" s="16"/>
+      <c r="K805" s="39"/>
       <c r="L805" s="16"/>
       <c r="M805" s="16"/>
       <c r="N805" s="1"/>
@@ -34684,7 +34748,7 @@
       <c r="H806" s="22"/>
       <c r="I806" s="22"/>
       <c r="J806" s="22"/>
-      <c r="K806" s="22"/>
+      <c r="K806" s="40"/>
       <c r="L806" s="22"/>
       <c r="M806" s="22"/>
       <c r="N806" s="1"/>
@@ -34712,7 +34776,7 @@
       <c r="H807" s="16"/>
       <c r="I807" s="16"/>
       <c r="J807" s="16"/>
-      <c r="K807" s="16"/>
+      <c r="K807" s="39"/>
       <c r="L807" s="16"/>
       <c r="M807" s="16"/>
       <c r="N807" s="1"/>
@@ -34740,7 +34804,7 @@
       <c r="H808" s="22"/>
       <c r="I808" s="22"/>
       <c r="J808" s="22"/>
-      <c r="K808" s="22"/>
+      <c r="K808" s="40"/>
       <c r="L808" s="22"/>
       <c r="M808" s="22"/>
       <c r="N808" s="1"/>
@@ -34768,7 +34832,7 @@
       <c r="H809" s="16"/>
       <c r="I809" s="16"/>
       <c r="J809" s="16"/>
-      <c r="K809" s="16"/>
+      <c r="K809" s="39"/>
       <c r="L809" s="16"/>
       <c r="M809" s="16"/>
       <c r="N809" s="1"/>
@@ -34796,7 +34860,7 @@
       <c r="H810" s="22"/>
       <c r="I810" s="22"/>
       <c r="J810" s="22"/>
-      <c r="K810" s="22"/>
+      <c r="K810" s="40"/>
       <c r="L810" s="22"/>
       <c r="M810" s="22"/>
       <c r="N810" s="1"/>
@@ -34824,7 +34888,7 @@
       <c r="H811" s="16"/>
       <c r="I811" s="16"/>
       <c r="J811" s="16"/>
-      <c r="K811" s="16"/>
+      <c r="K811" s="39"/>
       <c r="L811" s="16"/>
       <c r="M811" s="16"/>
       <c r="N811" s="1"/>
@@ -34852,7 +34916,7 @@
       <c r="H812" s="22"/>
       <c r="I812" s="22"/>
       <c r="J812" s="22"/>
-      <c r="K812" s="22"/>
+      <c r="K812" s="40"/>
       <c r="L812" s="22"/>
       <c r="M812" s="22"/>
       <c r="N812" s="1"/>
@@ -34880,7 +34944,7 @@
       <c r="H813" s="16"/>
       <c r="I813" s="16"/>
       <c r="J813" s="16"/>
-      <c r="K813" s="16"/>
+      <c r="K813" s="39"/>
       <c r="L813" s="16"/>
       <c r="M813" s="16"/>
       <c r="N813" s="1"/>
@@ -34908,7 +34972,7 @@
       <c r="H814" s="22"/>
       <c r="I814" s="22"/>
       <c r="J814" s="22"/>
-      <c r="K814" s="22"/>
+      <c r="K814" s="40"/>
       <c r="L814" s="22"/>
       <c r="M814" s="22"/>
       <c r="N814" s="1"/>
@@ -34936,7 +35000,7 @@
       <c r="H815" s="16"/>
       <c r="I815" s="16"/>
       <c r="J815" s="16"/>
-      <c r="K815" s="16"/>
+      <c r="K815" s="39"/>
       <c r="L815" s="16"/>
       <c r="M815" s="16"/>
       <c r="N815" s="1"/>
@@ -34964,7 +35028,7 @@
       <c r="H816" s="22"/>
       <c r="I816" s="22"/>
       <c r="J816" s="22"/>
-      <c r="K816" s="22"/>
+      <c r="K816" s="40"/>
       <c r="L816" s="22"/>
       <c r="M816" s="22"/>
       <c r="N816" s="1"/>
@@ -34992,7 +35056,7 @@
       <c r="H817" s="16"/>
       <c r="I817" s="16"/>
       <c r="J817" s="16"/>
-      <c r="K817" s="16"/>
+      <c r="K817" s="39"/>
       <c r="L817" s="16"/>
       <c r="M817" s="16"/>
       <c r="N817" s="1"/>
@@ -35020,7 +35084,7 @@
       <c r="H818" s="22"/>
       <c r="I818" s="22"/>
       <c r="J818" s="22"/>
-      <c r="K818" s="22"/>
+      <c r="K818" s="40"/>
       <c r="L818" s="22"/>
       <c r="M818" s="22"/>
       <c r="N818" s="1"/>
@@ -35048,7 +35112,7 @@
       <c r="H819" s="16"/>
       <c r="I819" s="16"/>
       <c r="J819" s="16"/>
-      <c r="K819" s="16"/>
+      <c r="K819" s="39"/>
       <c r="L819" s="16"/>
       <c r="M819" s="16"/>
       <c r="N819" s="1"/>
@@ -35076,7 +35140,7 @@
       <c r="H820" s="22"/>
       <c r="I820" s="22"/>
       <c r="J820" s="22"/>
-      <c r="K820" s="22"/>
+      <c r="K820" s="40"/>
       <c r="L820" s="22"/>
       <c r="M820" s="22"/>
       <c r="N820" s="1"/>
@@ -35104,7 +35168,7 @@
       <c r="H821" s="16"/>
       <c r="I821" s="16"/>
       <c r="J821" s="16"/>
-      <c r="K821" s="16"/>
+      <c r="K821" s="39"/>
       <c r="L821" s="16"/>
       <c r="M821" s="16"/>
       <c r="N821" s="1"/>
@@ -35132,7 +35196,7 @@
       <c r="H822" s="22"/>
       <c r="I822" s="22"/>
       <c r="J822" s="22"/>
-      <c r="K822" s="22"/>
+      <c r="K822" s="40"/>
       <c r="L822" s="22"/>
       <c r="M822" s="22"/>
       <c r="N822" s="1"/>
@@ -35160,7 +35224,7 @@
       <c r="H823" s="16"/>
       <c r="I823" s="16"/>
       <c r="J823" s="16"/>
-      <c r="K823" s="16"/>
+      <c r="K823" s="39"/>
       <c r="L823" s="16"/>
       <c r="M823" s="16"/>
       <c r="N823" s="1"/>
@@ -35188,7 +35252,7 @@
       <c r="H824" s="22"/>
       <c r="I824" s="22"/>
       <c r="J824" s="22"/>
-      <c r="K824" s="22"/>
+      <c r="K824" s="40"/>
       <c r="L824" s="22"/>
       <c r="M824" s="22"/>
       <c r="N824" s="1"/>
@@ -35216,7 +35280,7 @@
       <c r="H825" s="16"/>
       <c r="I825" s="16"/>
       <c r="J825" s="16"/>
-      <c r="K825" s="16"/>
+      <c r="K825" s="39"/>
       <c r="L825" s="16"/>
       <c r="M825" s="16"/>
       <c r="N825" s="1"/>
@@ -35244,7 +35308,7 @@
       <c r="H826" s="22"/>
       <c r="I826" s="22"/>
       <c r="J826" s="22"/>
-      <c r="K826" s="22"/>
+      <c r="K826" s="40"/>
       <c r="L826" s="22"/>
       <c r="M826" s="22"/>
       <c r="N826" s="1"/>
@@ -35272,7 +35336,7 @@
       <c r="H827" s="16"/>
       <c r="I827" s="16"/>
       <c r="J827" s="16"/>
-      <c r="K827" s="16"/>
+      <c r="K827" s="39"/>
       <c r="L827" s="16"/>
       <c r="M827" s="16"/>
       <c r="N827" s="1"/>
@@ -35300,7 +35364,7 @@
       <c r="H828" s="22"/>
       <c r="I828" s="22"/>
       <c r="J828" s="22"/>
-      <c r="K828" s="22"/>
+      <c r="K828" s="40"/>
       <c r="L828" s="22"/>
       <c r="M828" s="22"/>
       <c r="N828" s="1"/>
@@ -35328,7 +35392,7 @@
       <c r="H829" s="16"/>
       <c r="I829" s="16"/>
       <c r="J829" s="16"/>
-      <c r="K829" s="16"/>
+      <c r="K829" s="39"/>
       <c r="L829" s="16"/>
       <c r="M829" s="16"/>
       <c r="N829" s="1"/>
@@ -35356,7 +35420,7 @@
       <c r="H830" s="22"/>
       <c r="I830" s="22"/>
       <c r="J830" s="22"/>
-      <c r="K830" s="22"/>
+      <c r="K830" s="40"/>
       <c r="L830" s="22"/>
       <c r="M830" s="22"/>
       <c r="N830" s="1"/>
@@ -35384,7 +35448,7 @@
       <c r="H831" s="16"/>
       <c r="I831" s="16"/>
       <c r="J831" s="16"/>
-      <c r="K831" s="16"/>
+      <c r="K831" s="39"/>
       <c r="L831" s="16"/>
       <c r="M831" s="16"/>
       <c r="N831" s="1"/>
@@ -35412,7 +35476,7 @@
       <c r="H832" s="22"/>
       <c r="I832" s="22"/>
       <c r="J832" s="22"/>
-      <c r="K832" s="22"/>
+      <c r="K832" s="40"/>
       <c r="L832" s="22"/>
       <c r="M832" s="22"/>
       <c r="N832" s="1"/>
@@ -35440,7 +35504,7 @@
       <c r="H833" s="16"/>
       <c r="I833" s="16"/>
       <c r="J833" s="16"/>
-      <c r="K833" s="16"/>
+      <c r="K833" s="39"/>
       <c r="L833" s="16"/>
       <c r="M833" s="16"/>
       <c r="N833" s="1"/>
@@ -35468,7 +35532,7 @@
       <c r="H834" s="22"/>
       <c r="I834" s="22"/>
       <c r="J834" s="22"/>
-      <c r="K834" s="22"/>
+      <c r="K834" s="40"/>
       <c r="L834" s="22"/>
       <c r="M834" s="22"/>
       <c r="N834" s="1"/>
@@ -35496,7 +35560,7 @@
       <c r="H835" s="16"/>
       <c r="I835" s="16"/>
       <c r="J835" s="16"/>
-      <c r="K835" s="16"/>
+      <c r="K835" s="39"/>
       <c r="L835" s="16"/>
       <c r="M835" s="16"/>
       <c r="N835" s="1"/>
@@ -35524,7 +35588,7 @@
       <c r="H836" s="22"/>
       <c r="I836" s="22"/>
       <c r="J836" s="22"/>
-      <c r="K836" s="22"/>
+      <c r="K836" s="40"/>
       <c r="L836" s="22"/>
       <c r="M836" s="22"/>
       <c r="N836" s="1"/>
@@ -35552,7 +35616,7 @@
       <c r="H837" s="16"/>
       <c r="I837" s="16"/>
       <c r="J837" s="16"/>
-      <c r="K837" s="16"/>
+      <c r="K837" s="39"/>
       <c r="L837" s="16"/>
       <c r="M837" s="16"/>
       <c r="N837" s="1"/>
@@ -35580,7 +35644,7 @@
       <c r="H838" s="22"/>
       <c r="I838" s="22"/>
       <c r="J838" s="22"/>
-      <c r="K838" s="22"/>
+      <c r="K838" s="40"/>
       <c r="L838" s="22"/>
       <c r="M838" s="22"/>
       <c r="N838" s="1"/>
@@ -35608,7 +35672,7 @@
       <c r="H839" s="16"/>
       <c r="I839" s="16"/>
       <c r="J839" s="16"/>
-      <c r="K839" s="16"/>
+      <c r="K839" s="39"/>
       <c r="L839" s="16"/>
       <c r="M839" s="16"/>
       <c r="N839" s="1"/>
@@ -35636,7 +35700,7 @@
       <c r="H840" s="22"/>
       <c r="I840" s="22"/>
       <c r="J840" s="22"/>
-      <c r="K840" s="22"/>
+      <c r="K840" s="40"/>
       <c r="L840" s="22"/>
       <c r="M840" s="22"/>
       <c r="N840" s="1"/>
@@ -35664,7 +35728,7 @@
       <c r="H841" s="16"/>
       <c r="I841" s="16"/>
       <c r="J841" s="16"/>
-      <c r="K841" s="16"/>
+      <c r="K841" s="39"/>
       <c r="L841" s="16"/>
       <c r="M841" s="16"/>
       <c r="N841" s="1"/>
@@ -35692,7 +35756,7 @@
       <c r="H842" s="22"/>
       <c r="I842" s="22"/>
       <c r="J842" s="22"/>
-      <c r="K842" s="22"/>
+      <c r="K842" s="40"/>
       <c r="L842" s="22"/>
       <c r="M842" s="22"/>
       <c r="N842" s="1"/>
@@ -35720,7 +35784,7 @@
       <c r="H843" s="16"/>
       <c r="I843" s="16"/>
       <c r="J843" s="16"/>
-      <c r="K843" s="16"/>
+      <c r="K843" s="39"/>
       <c r="L843" s="16"/>
       <c r="M843" s="16"/>
       <c r="N843" s="1"/>
@@ -35748,7 +35812,7 @@
       <c r="H844" s="22"/>
       <c r="I844" s="22"/>
       <c r="J844" s="22"/>
-      <c r="K844" s="22"/>
+      <c r="K844" s="40"/>
       <c r="L844" s="22"/>
       <c r="M844" s="22"/>
       <c r="N844" s="1"/>
@@ -35776,7 +35840,7 @@
       <c r="H845" s="16"/>
       <c r="I845" s="16"/>
       <c r="J845" s="16"/>
-      <c r="K845" s="16"/>
+      <c r="K845" s="39"/>
       <c r="L845" s="16"/>
       <c r="M845" s="16"/>
       <c r="N845" s="1"/>
@@ -35804,7 +35868,7 @@
       <c r="H846" s="22"/>
       <c r="I846" s="22"/>
       <c r="J846" s="22"/>
-      <c r="K846" s="22"/>
+      <c r="K846" s="40"/>
       <c r="L846" s="22"/>
       <c r="M846" s="22"/>
       <c r="N846" s="1"/>
@@ -35832,7 +35896,7 @@
       <c r="H847" s="16"/>
       <c r="I847" s="16"/>
       <c r="J847" s="16"/>
-      <c r="K847" s="16"/>
+      <c r="K847" s="39"/>
       <c r="L847" s="16"/>
       <c r="M847" s="16"/>
       <c r="N847" s="1"/>
@@ -35860,7 +35924,7 @@
       <c r="H848" s="22"/>
       <c r="I848" s="22"/>
       <c r="J848" s="22"/>
-      <c r="K848" s="22"/>
+      <c r="K848" s="40"/>
       <c r="L848" s="22"/>
       <c r="M848" s="22"/>
       <c r="N848" s="1"/>
@@ -35888,7 +35952,7 @@
       <c r="H849" s="16"/>
       <c r="I849" s="16"/>
       <c r="J849" s="16"/>
-      <c r="K849" s="16"/>
+      <c r="K849" s="39"/>
       <c r="L849" s="16"/>
       <c r="M849" s="16"/>
       <c r="N849" s="1"/>
@@ -35916,7 +35980,7 @@
       <c r="H850" s="22"/>
       <c r="I850" s="22"/>
       <c r="J850" s="22"/>
-      <c r="K850" s="22"/>
+      <c r="K850" s="40"/>
       <c r="L850" s="22"/>
       <c r="M850" s="22"/>
       <c r="N850" s="1"/>
@@ -35944,7 +36008,7 @@
       <c r="H851" s="16"/>
       <c r="I851" s="16"/>
       <c r="J851" s="16"/>
-      <c r="K851" s="16"/>
+      <c r="K851" s="39"/>
       <c r="L851" s="16"/>
       <c r="M851" s="16"/>
       <c r="N851" s="1"/>
@@ -35972,7 +36036,7 @@
       <c r="H852" s="22"/>
       <c r="I852" s="22"/>
       <c r="J852" s="22"/>
-      <c r="K852" s="22"/>
+      <c r="K852" s="40"/>
       <c r="L852" s="22"/>
       <c r="M852" s="22"/>
       <c r="N852" s="1"/>
@@ -36000,7 +36064,7 @@
       <c r="H853" s="16"/>
       <c r="I853" s="16"/>
       <c r="J853" s="16"/>
-      <c r="K853" s="16"/>
+      <c r="K853" s="39"/>
       <c r="L853" s="16"/>
       <c r="M853" s="16"/>
       <c r="N853" s="1"/>
@@ -36028,7 +36092,7 @@
       <c r="H854" s="22"/>
       <c r="I854" s="22"/>
       <c r="J854" s="22"/>
-      <c r="K854" s="22"/>
+      <c r="K854" s="40"/>
       <c r="L854" s="22"/>
       <c r="M854" s="22"/>
       <c r="N854" s="1"/>
@@ -36056,7 +36120,7 @@
       <c r="H855" s="16"/>
       <c r="I855" s="16"/>
       <c r="J855" s="16"/>
-      <c r="K855" s="16"/>
+      <c r="K855" s="39"/>
       <c r="L855" s="16"/>
       <c r="M855" s="16"/>
       <c r="N855" s="1"/>
@@ -36084,7 +36148,7 @@
       <c r="H856" s="22"/>
       <c r="I856" s="22"/>
       <c r="J856" s="22"/>
-      <c r="K856" s="22"/>
+      <c r="K856" s="40"/>
       <c r="L856" s="22"/>
       <c r="M856" s="22"/>
       <c r="N856" s="1"/>
@@ -36112,7 +36176,7 @@
       <c r="H857" s="16"/>
       <c r="I857" s="16"/>
       <c r="J857" s="16"/>
-      <c r="K857" s="16"/>
+      <c r="K857" s="39"/>
       <c r="L857" s="16"/>
       <c r="M857" s="16"/>
       <c r="N857" s="1"/>
@@ -36140,7 +36204,7 @@
       <c r="H858" s="22"/>
       <c r="I858" s="22"/>
       <c r="J858" s="22"/>
-      <c r="K858" s="22"/>
+      <c r="K858" s="40"/>
       <c r="L858" s="22"/>
       <c r="M858" s="22"/>
       <c r="N858" s="1"/>
@@ -36168,7 +36232,7 @@
       <c r="H859" s="16"/>
       <c r="I859" s="16"/>
       <c r="J859" s="16"/>
-      <c r="K859" s="16"/>
+      <c r="K859" s="39"/>
       <c r="L859" s="16"/>
       <c r="M859" s="16"/>
       <c r="N859" s="1"/>
@@ -36196,7 +36260,7 @@
       <c r="H860" s="22"/>
       <c r="I860" s="22"/>
       <c r="J860" s="22"/>
-      <c r="K860" s="22"/>
+      <c r="K860" s="40"/>
       <c r="L860" s="22"/>
       <c r="M860" s="22"/>
       <c r="N860" s="1"/>
@@ -36224,7 +36288,7 @@
       <c r="H861" s="16"/>
       <c r="I861" s="16"/>
       <c r="J861" s="16"/>
-      <c r="K861" s="16"/>
+      <c r="K861" s="39"/>
       <c r="L861" s="16"/>
       <c r="M861" s="16"/>
       <c r="N861" s="1"/>
@@ -36252,7 +36316,7 @@
       <c r="H862" s="22"/>
       <c r="I862" s="22"/>
       <c r="J862" s="22"/>
-      <c r="K862" s="22"/>
+      <c r="K862" s="40"/>
       <c r="L862" s="22"/>
       <c r="M862" s="22"/>
       <c r="N862" s="1"/>
@@ -36280,7 +36344,7 @@
       <c r="H863" s="16"/>
       <c r="I863" s="16"/>
       <c r="J863" s="16"/>
-      <c r="K863" s="16"/>
+      <c r="K863" s="39"/>
       <c r="L863" s="16"/>
       <c r="M863" s="16"/>
       <c r="N863" s="1"/>
@@ -36308,7 +36372,7 @@
       <c r="H864" s="22"/>
       <c r="I864" s="22"/>
       <c r="J864" s="22"/>
-      <c r="K864" s="22"/>
+      <c r="K864" s="40"/>
       <c r="L864" s="22"/>
       <c r="M864" s="22"/>
       <c r="N864" s="1"/>
@@ -36336,7 +36400,7 @@
       <c r="H865" s="16"/>
       <c r="I865" s="16"/>
       <c r="J865" s="16"/>
-      <c r="K865" s="16"/>
+      <c r="K865" s="39"/>
       <c r="L865" s="16"/>
       <c r="M865" s="16"/>
       <c r="N865" s="1"/>
@@ -36364,7 +36428,7 @@
       <c r="H866" s="22"/>
       <c r="I866" s="22"/>
       <c r="J866" s="22"/>
-      <c r="K866" s="22"/>
+      <c r="K866" s="40"/>
       <c r="L866" s="22"/>
       <c r="M866" s="22"/>
       <c r="N866" s="1"/>
@@ -36392,7 +36456,7 @@
       <c r="H867" s="16"/>
       <c r="I867" s="16"/>
       <c r="J867" s="16"/>
-      <c r="K867" s="16"/>
+      <c r="K867" s="39"/>
       <c r="L867" s="16"/>
       <c r="M867" s="16"/>
       <c r="N867" s="1"/>
@@ -36420,7 +36484,7 @@
       <c r="H868" s="22"/>
       <c r="I868" s="22"/>
       <c r="J868" s="22"/>
-      <c r="K868" s="22"/>
+      <c r="K868" s="40"/>
       <c r="L868" s="22"/>
       <c r="M868" s="22"/>
       <c r="N868" s="1"/>
@@ -36448,7 +36512,7 @@
       <c r="H869" s="16"/>
       <c r="I869" s="16"/>
       <c r="J869" s="16"/>
-      <c r="K869" s="16"/>
+      <c r="K869" s="39"/>
       <c r="L869" s="16"/>
       <c r="M869" s="16"/>
       <c r="N869" s="1"/>
@@ -36476,7 +36540,7 @@
       <c r="H870" s="22"/>
       <c r="I870" s="22"/>
       <c r="J870" s="22"/>
-      <c r="K870" s="22"/>
+      <c r="K870" s="40"/>
       <c r="L870" s="22"/>
       <c r="M870" s="22"/>
       <c r="N870" s="1"/>
@@ -36504,7 +36568,7 @@
       <c r="H871" s="16"/>
       <c r="I871" s="16"/>
       <c r="J871" s="16"/>
-      <c r="K871" s="16"/>
+      <c r="K871" s="39"/>
       <c r="L871" s="16"/>
       <c r="M871" s="16"/>
       <c r="N871" s="1"/>
@@ -36532,7 +36596,7 @@
       <c r="H872" s="22"/>
       <c r="I872" s="22"/>
       <c r="J872" s="22"/>
-      <c r="K872" s="22"/>
+      <c r="K872" s="40"/>
       <c r="L872" s="22"/>
       <c r="M872" s="22"/>
       <c r="N872" s="1"/>
@@ -36560,7 +36624,7 @@
       <c r="H873" s="16"/>
       <c r="I873" s="16"/>
       <c r="J873" s="16"/>
-      <c r="K873" s="16"/>
+      <c r="K873" s="39"/>
       <c r="L873" s="16"/>
       <c r="M873" s="16"/>
       <c r="N873" s="1"/>
@@ -36588,7 +36652,7 @@
       <c r="H874" s="22"/>
       <c r="I874" s="22"/>
       <c r="J874" s="22"/>
-      <c r="K874" s="22"/>
+      <c r="K874" s="40"/>
       <c r="L874" s="22"/>
       <c r="M874" s="22"/>
       <c r="N874" s="1"/>
@@ -36616,7 +36680,7 @@
       <c r="H875" s="16"/>
       <c r="I875" s="16"/>
       <c r="J875" s="16"/>
-      <c r="K875" s="16"/>
+      <c r="K875" s="39"/>
       <c r="L875" s="16"/>
       <c r="M875" s="16"/>
       <c r="N875" s="1"/>
@@ -36644,7 +36708,7 @@
       <c r="H876" s="22"/>
       <c r="I876" s="22"/>
       <c r="J876" s="22"/>
-      <c r="K876" s="22"/>
+      <c r="K876" s="40"/>
       <c r="L876" s="22"/>
       <c r="M876" s="22"/>
       <c r="N876" s="1"/>
@@ -36672,7 +36736,7 @@
       <c r="H877" s="16"/>
       <c r="I877" s="16"/>
       <c r="J877" s="16"/>
-      <c r="K877" s="16"/>
+      <c r="K877" s="39"/>
       <c r="L877" s="16"/>
       <c r="M877" s="16"/>
       <c r="N877" s="1"/>
@@ -36700,7 +36764,7 @@
       <c r="H878" s="22"/>
       <c r="I878" s="22"/>
       <c r="J878" s="22"/>
-      <c r="K878" s="22"/>
+      <c r="K878" s="40"/>
       <c r="L878" s="22"/>
       <c r="M878" s="22"/>
       <c r="N878" s="1"/>
@@ -36728,7 +36792,7 @@
       <c r="H879" s="16"/>
       <c r="I879" s="16"/>
       <c r="J879" s="16"/>
-      <c r="K879" s="16"/>
+      <c r="K879" s="39"/>
       <c r="L879" s="16"/>
       <c r="M879" s="16"/>
       <c r="N879" s="1"/>
@@ -36756,7 +36820,7 @@
       <c r="H880" s="22"/>
       <c r="I880" s="22"/>
       <c r="J880" s="22"/>
-      <c r="K880" s="22"/>
+      <c r="K880" s="40"/>
       <c r="L880" s="22"/>
       <c r="M880" s="22"/>
       <c r="N880" s="1"/>
@@ -36784,7 +36848,7 @@
       <c r="H881" s="16"/>
       <c r="I881" s="16"/>
       <c r="J881" s="16"/>
-      <c r="K881" s="16"/>
+      <c r="K881" s="39"/>
       <c r="L881" s="16"/>
       <c r="M881" s="16"/>
       <c r="N881" s="1"/>
@@ -36812,7 +36876,7 @@
       <c r="H882" s="22"/>
       <c r="I882" s="22"/>
       <c r="J882" s="22"/>
-      <c r="K882" s="22"/>
+      <c r="K882" s="40"/>
       <c r="L882" s="22"/>
       <c r="M882" s="22"/>
       <c r="N882" s="1"/>
@@ -36840,7 +36904,7 @@
       <c r="H883" s="16"/>
       <c r="I883" s="16"/>
       <c r="J883" s="16"/>
-      <c r="K883" s="16"/>
+      <c r="K883" s="39"/>
       <c r="L883" s="16"/>
       <c r="M883" s="16"/>
       <c r="N883" s="1"/>
@@ -36868,7 +36932,7 @@
       <c r="H884" s="22"/>
       <c r="I884" s="22"/>
       <c r="J884" s="22"/>
-      <c r="K884" s="22"/>
+      <c r="K884" s="40"/>
       <c r="L884" s="22"/>
       <c r="M884" s="22"/>
       <c r="N884" s="1"/>
@@ -36896,7 +36960,7 @@
       <c r="H885" s="16"/>
       <c r="I885" s="16"/>
       <c r="J885" s="16"/>
-      <c r="K885" s="16"/>
+      <c r="K885" s="39"/>
       <c r="L885" s="16"/>
       <c r="M885" s="16"/>
       <c r="N885" s="1"/>
@@ -36924,7 +36988,7 @@
       <c r="H886" s="22"/>
       <c r="I886" s="22"/>
       <c r="J886" s="22"/>
-      <c r="K886" s="22"/>
+      <c r="K886" s="40"/>
       <c r="L886" s="22"/>
       <c r="M886" s="22"/>
       <c r="N886" s="1"/>
@@ -36952,7 +37016,7 @@
       <c r="H887" s="16"/>
       <c r="I887" s="16"/>
       <c r="J887" s="16"/>
-      <c r="K887" s="16"/>
+      <c r="K887" s="39"/>
       <c r="L887" s="16"/>
       <c r="M887" s="16"/>
       <c r="N887" s="1"/>
@@ -36980,7 +37044,7 @@
       <c r="H888" s="22"/>
       <c r="I888" s="22"/>
       <c r="J888" s="22"/>
-      <c r="K888" s="22"/>
+      <c r="K888" s="40"/>
       <c r="L888" s="22"/>
       <c r="M888" s="22"/>
       <c r="N888" s="1"/>
@@ -37008,7 +37072,7 @@
       <c r="H889" s="16"/>
       <c r="I889" s="16"/>
       <c r="J889" s="16"/>
-      <c r="K889" s="16"/>
+      <c r="K889" s="39"/>
       <c r="L889" s="16"/>
       <c r="M889" s="16"/>
       <c r="N889" s="1"/>
@@ -37036,7 +37100,7 @@
       <c r="H890" s="22"/>
       <c r="I890" s="22"/>
       <c r="J890" s="22"/>
-      <c r="K890" s="22"/>
+      <c r="K890" s="40"/>
       <c r="L890" s="22"/>
       <c r="M890" s="22"/>
       <c r="N890" s="1"/>
@@ -37064,7 +37128,7 @@
       <c r="H891" s="16"/>
       <c r="I891" s="16"/>
       <c r="J891" s="16"/>
-      <c r="K891" s="16"/>
+      <c r="K891" s="39"/>
       <c r="L891" s="16"/>
       <c r="M891" s="16"/>
       <c r="N891" s="1"/>
@@ -37092,7 +37156,7 @@
       <c r="H892" s="22"/>
       <c r="I892" s="22"/>
       <c r="J892" s="22"/>
-      <c r="K892" s="22"/>
+      <c r="K892" s="40"/>
       <c r="L892" s="22"/>
       <c r="M892" s="22"/>
       <c r="N892" s="1"/>
@@ -37120,7 +37184,7 @@
       <c r="H893" s="16"/>
       <c r="I893" s="16"/>
       <c r="J893" s="16"/>
-      <c r="K893" s="16"/>
+      <c r="K893" s="39"/>
       <c r="L893" s="16"/>
       <c r="M893" s="16"/>
       <c r="N893" s="1"/>
@@ -37148,7 +37212,7 @@
       <c r="H894" s="22"/>
       <c r="I894" s="22"/>
       <c r="J894" s="22"/>
-      <c r="K894" s="22"/>
+      <c r="K894" s="40"/>
       <c r="L894" s="22"/>
       <c r="M894" s="22"/>
       <c r="N894" s="1"/>
@@ -37176,7 +37240,7 @@
       <c r="H895" s="16"/>
       <c r="I895" s="16"/>
       <c r="J895" s="16"/>
-      <c r="K895" s="16"/>
+      <c r="K895" s="39"/>
       <c r="L895" s="16"/>
       <c r="M895" s="16"/>
       <c r="N895" s="1"/>
@@ -37204,7 +37268,7 @@
       <c r="H896" s="22"/>
       <c r="I896" s="22"/>
       <c r="J896" s="22"/>
-      <c r="K896" s="22"/>
+      <c r="K896" s="40"/>
       <c r="L896" s="22"/>
       <c r="M896" s="22"/>
       <c r="N896" s="1"/>
@@ -37232,7 +37296,7 @@
       <c r="H897" s="16"/>
       <c r="I897" s="16"/>
       <c r="J897" s="16"/>
-      <c r="K897" s="16"/>
+      <c r="K897" s="39"/>
       <c r="L897" s="16"/>
       <c r="M897" s="16"/>
       <c r="N897" s="1"/>
@@ -37260,7 +37324,7 @@
       <c r="H898" s="22"/>
       <c r="I898" s="22"/>
       <c r="J898" s="22"/>
-      <c r="K898" s="22"/>
+      <c r="K898" s="40"/>
       <c r="L898" s="22"/>
       <c r="M898" s="22"/>
       <c r="N898" s="1"/>
@@ -37288,7 +37352,7 @@
       <c r="H899" s="16"/>
       <c r="I899" s="16"/>
       <c r="J899" s="16"/>
-      <c r="K899" s="16"/>
+      <c r="K899" s="39"/>
       <c r="L899" s="16"/>
       <c r="M899" s="16"/>
       <c r="N899" s="1"/>
@@ -37316,7 +37380,7 @@
       <c r="H900" s="22"/>
       <c r="I900" s="22"/>
       <c r="J900" s="22"/>
-      <c r="K900" s="22"/>
+      <c r="K900" s="40"/>
       <c r="L900" s="22"/>
       <c r="M900" s="22"/>
       <c r="N900" s="1"/>
@@ -37344,7 +37408,7 @@
       <c r="H901" s="16"/>
       <c r="I901" s="16"/>
       <c r="J901" s="16"/>
-      <c r="K901" s="16"/>
+      <c r="K901" s="39"/>
       <c r="L901" s="16"/>
       <c r="M901" s="16"/>
       <c r="N901" s="1"/>
@@ -37372,7 +37436,7 @@
       <c r="H902" s="22"/>
       <c r="I902" s="22"/>
       <c r="J902" s="22"/>
-      <c r="K902" s="22"/>
+      <c r="K902" s="40"/>
       <c r="L902" s="22"/>
       <c r="M902" s="22"/>
       <c r="N902" s="1"/>
@@ -37400,7 +37464,7 @@
       <c r="H903" s="16"/>
       <c r="I903" s="16"/>
       <c r="J903" s="16"/>
-      <c r="K903" s="16"/>
+      <c r="K903" s="39"/>
       <c r="L903" s="16"/>
       <c r="M903" s="16"/>
       <c r="N903" s="1"/>
@@ -37428,7 +37492,7 @@
       <c r="H904" s="22"/>
       <c r="I904" s="22"/>
       <c r="J904" s="22"/>
-      <c r="K904" s="22"/>
+      <c r="K904" s="40"/>
       <c r="L904" s="22"/>
       <c r="M904" s="22"/>
       <c r="N904" s="1"/>
@@ -37456,7 +37520,7 @@
       <c r="H905" s="16"/>
       <c r="I905" s="16"/>
       <c r="J905" s="16"/>
-      <c r="K905" s="16"/>
+      <c r="K905" s="39"/>
       <c r="L905" s="16"/>
       <c r="M905" s="16"/>
       <c r="N905" s="1"/>
@@ -37484,7 +37548,7 @@
       <c r="H906" s="22"/>
       <c r="I906" s="22"/>
       <c r="J906" s="22"/>
-      <c r="K906" s="22"/>
+      <c r="K906" s="40"/>
       <c r="L906" s="22"/>
       <c r="M906" s="22"/>
       <c r="N906" s="1"/>
@@ -37512,7 +37576,7 @@
       <c r="H907" s="16"/>
       <c r="I907" s="16"/>
       <c r="J907" s="16"/>
-      <c r="K907" s="16"/>
+      <c r="K907" s="39"/>
       <c r="L907" s="16"/>
       <c r="M907" s="16"/>
       <c r="N907" s="1"/>
@@ -37540,7 +37604,7 @@
       <c r="H908" s="22"/>
       <c r="I908" s="22"/>
       <c r="J908" s="22"/>
-      <c r="K908" s="22"/>
+      <c r="K908" s="40"/>
       <c r="L908" s="22"/>
       <c r="M908" s="22"/>
       <c r="N908" s="1"/>
@@ -37568,7 +37632,7 @@
       <c r="H909" s="16"/>
       <c r="I909" s="16"/>
       <c r="J909" s="16"/>
-      <c r="K909" s="16"/>
+      <c r="K909" s="39"/>
       <c r="L909" s="16"/>
       <c r="M909" s="16"/>
       <c r="N909" s="1"/>
@@ -37596,7 +37660,7 @@
       <c r="H910" s="22"/>
       <c r="I910" s="22"/>
       <c r="J910" s="22"/>
-      <c r="K910" s="22"/>
+      <c r="K910" s="40"/>
       <c r="L910" s="22"/>
       <c r="M910" s="22"/>
       <c r="N910" s="1"/>
@@ -37624,7 +37688,7 @@
       <c r="H911" s="16"/>
       <c r="I911" s="16"/>
       <c r="J911" s="16"/>
-      <c r="K911" s="16"/>
+      <c r="K911" s="39"/>
       <c r="L911" s="16"/>
       <c r="M911" s="16"/>
       <c r="N911" s="1"/>
@@ -37652,7 +37716,7 @@
       <c r="H912" s="22"/>
       <c r="I912" s="22"/>
       <c r="J912" s="22"/>
-      <c r="K912" s="22"/>
+      <c r="K912" s="40"/>
       <c r="L912" s="22"/>
       <c r="M912" s="22"/>
       <c r="N912" s="1"/>
@@ -37680,7 +37744,7 @@
       <c r="H913" s="16"/>
       <c r="I913" s="16"/>
       <c r="J913" s="16"/>
-      <c r="K913" s="16"/>
+      <c r="K913" s="39"/>
       <c r="L913" s="16"/>
       <c r="M913" s="16"/>
       <c r="N913" s="1"/>
@@ -37708,7 +37772,7 @@
       <c r="H914" s="22"/>
       <c r="I914" s="22"/>
       <c r="J914" s="22"/>
-      <c r="K914" s="22"/>
+      <c r="K914" s="40"/>
       <c r="L914" s="22"/>
       <c r="M914" s="22"/>
       <c r="N914" s="1"/>
@@ -37736,7 +37800,7 @@
       <c r="H915" s="16"/>
       <c r="I915" s="16"/>
       <c r="J915" s="16"/>
-      <c r="K915" s="16"/>
+      <c r="K915" s="39"/>
       <c r="L915" s="16"/>
       <c r="M915" s="16"/>
       <c r="N915" s="1"/>
@@ -37764,7 +37828,7 @@
       <c r="H916" s="22"/>
       <c r="I916" s="22"/>
       <c r="J916" s="22"/>
-      <c r="K916" s="22"/>
+      <c r="K916" s="40"/>
       <c r="L916" s="22"/>
       <c r="M916" s="22"/>
       <c r="N916" s="1"/>
@@ -37792,7 +37856,7 @@
       <c r="H917" s="16"/>
       <c r="I917" s="16"/>
       <c r="J917" s="16"/>
-      <c r="K917" s="16"/>
+      <c r="K917" s="39"/>
       <c r="L917" s="16"/>
       <c r="M917" s="16"/>
       <c r="N917" s="1"/>
@@ -37820,7 +37884,7 @@
       <c r="H918" s="22"/>
       <c r="I918" s="22"/>
       <c r="J918" s="22"/>
-      <c r="K918" s="22"/>
+      <c r="K918" s="40"/>
       <c r="L918" s="22"/>
       <c r="M918" s="22"/>
       <c r="N918" s="1"/>
@@ -37848,7 +37912,7 @@
       <c r="H919" s="16"/>
       <c r="I919" s="16"/>
       <c r="J919" s="16"/>
-      <c r="K919" s="16"/>
+      <c r="K919" s="39"/>
       <c r="L919" s="16"/>
       <c r="M919" s="16"/>
       <c r="N919" s="1"/>
@@ -37876,7 +37940,7 @@
       <c r="H920" s="22"/>
       <c r="I920" s="22"/>
       <c r="J920" s="22"/>
-      <c r="K920" s="22"/>
+      <c r="K920" s="40"/>
       <c r="L920" s="22"/>
       <c r="M920" s="22"/>
       <c r="N920" s="1"/>
@@ -37904,7 +37968,7 @@
       <c r="H921" s="16"/>
       <c r="I921" s="16"/>
       <c r="J921" s="16"/>
-      <c r="K921" s="16"/>
+      <c r="K921" s="39"/>
       <c r="L921" s="16"/>
       <c r="M921" s="16"/>
       <c r="N921" s="1"/>
@@ -37932,7 +37996,7 @@
       <c r="H922" s="22"/>
       <c r="I922" s="22"/>
       <c r="J922" s="22"/>
-      <c r="K922" s="22"/>
+      <c r="K922" s="40"/>
       <c r="L922" s="22"/>
       <c r="M922" s="22"/>
       <c r="N922" s="1"/>
@@ -37960,7 +38024,7 @@
       <c r="H923" s="16"/>
       <c r="I923" s="16"/>
       <c r="J923" s="16"/>
-      <c r="K923" s="16"/>
+      <c r="K923" s="39"/>
       <c r="L923" s="16"/>
       <c r="M923" s="16"/>
       <c r="N923" s="1"/>
@@ -37988,7 +38052,7 @@
       <c r="H924" s="22"/>
       <c r="I924" s="22"/>
       <c r="J924" s="22"/>
-      <c r="K924" s="22"/>
+      <c r="K924" s="40"/>
       <c r="L924" s="22"/>
       <c r="M924" s="22"/>
       <c r="N924" s="1"/>
@@ -38016,7 +38080,7 @@
       <c r="H925" s="16"/>
       <c r="I925" s="16"/>
       <c r="J925" s="16"/>
-      <c r="K925" s="16"/>
+      <c r="K925" s="39"/>
       <c r="L925" s="16"/>
       <c r="M925" s="16"/>
       <c r="N925" s="1"/>
@@ -38044,7 +38108,7 @@
       <c r="H926" s="22"/>
       <c r="I926" s="22"/>
       <c r="J926" s="22"/>
-      <c r="K926" s="22"/>
+      <c r="K926" s="40"/>
       <c r="L926" s="22"/>
       <c r="M926" s="22"/>
       <c r="N926" s="1"/>
@@ -38072,7 +38136,7 @@
       <c r="H927" s="16"/>
       <c r="I927" s="16"/>
       <c r="J927" s="16"/>
-      <c r="K927" s="16"/>
+      <c r="K927" s="39"/>
       <c r="L927" s="16"/>
       <c r="M927" s="16"/>
       <c r="N927" s="1"/>
@@ -38100,7 +38164,7 @@
       <c r="H928" s="22"/>
       <c r="I928" s="22"/>
       <c r="J928" s="22"/>
-      <c r="K928" s="22"/>
+      <c r="K928" s="40"/>
       <c r="L928" s="22"/>
       <c r="M928" s="22"/>
       <c r="N928" s="1"/>
@@ -38128,7 +38192,7 @@
       <c r="H929" s="16"/>
       <c r="I929" s="16"/>
       <c r="J929" s="16"/>
-      <c r="K929" s="16"/>
+      <c r="K929" s="39"/>
       <c r="L929" s="16"/>
       <c r="M929" s="16"/>
       <c r="N929" s="1"/>
@@ -38156,7 +38220,7 @@
       <c r="H930" s="22"/>
       <c r="I930" s="22"/>
       <c r="J930" s="22"/>
-      <c r="K930" s="22"/>
+      <c r="K930" s="40"/>
       <c r="L930" s="22"/>
       <c r="M930" s="22"/>
       <c r="N930" s="1"/>
@@ -38184,7 +38248,7 @@
       <c r="H931" s="16"/>
       <c r="I931" s="16"/>
       <c r="J931" s="16"/>
-      <c r="K931" s="16"/>
+      <c r="K931" s="39"/>
       <c r="L931" s="16"/>
       <c r="M931" s="16"/>
       <c r="N931" s="1"/>
@@ -38212,7 +38276,7 @@
       <c r="H932" s="22"/>
       <c r="I932" s="22"/>
       <c r="J932" s="22"/>
-      <c r="K932" s="22"/>
+      <c r="K932" s="40"/>
       <c r="L932" s="22"/>
       <c r="M932" s="22"/>
       <c r="N932" s="1"/>
@@ -38240,7 +38304,7 @@
       <c r="H933" s="16"/>
       <c r="I933" s="16"/>
       <c r="J933" s="16"/>
-      <c r="K933" s="16"/>
+      <c r="K933" s="39"/>
       <c r="L933" s="16"/>
       <c r="M933" s="16"/>
       <c r="N933" s="1"/>
@@ -38268,7 +38332,7 @@
       <c r="H934" s="22"/>
       <c r="I934" s="22"/>
       <c r="J934" s="22"/>
-      <c r="K934" s="22"/>
+      <c r="K934" s="40"/>
       <c r="L934" s="22"/>
       <c r="M934" s="22"/>
       <c r="N934" s="1"/>
@@ -38296,7 +38360,7 @@
       <c r="H935" s="16"/>
       <c r="I935" s="16"/>
       <c r="J935" s="16"/>
-      <c r="K935" s="16"/>
+      <c r="K935" s="39"/>
       <c r="L935" s="16"/>
       <c r="M935" s="16"/>
       <c r="N935" s="1"/>
@@ -38324,7 +38388,7 @@
       <c r="H936" s="22"/>
       <c r="I936" s="22"/>
       <c r="J936" s="22"/>
-      <c r="K936" s="22"/>
+      <c r="K936" s="40"/>
       <c r="L936" s="22"/>
       <c r="M936" s="22"/>
       <c r="N936" s="1"/>
@@ -38352,7 +38416,7 @@
       <c r="H937" s="16"/>
       <c r="I937" s="16"/>
       <c r="J937" s="16"/>
-      <c r="K937" s="16"/>
+      <c r="K937" s="39"/>
       <c r="L937" s="16"/>
       <c r="M937" s="16"/>
       <c r="N937" s="1"/>
@@ -38380,7 +38444,7 @@
       <c r="H938" s="22"/>
       <c r="I938" s="22"/>
       <c r="J938" s="22"/>
-      <c r="K938" s="22"/>
+      <c r="K938" s="40"/>
       <c r="L938" s="22"/>
       <c r="M938" s="22"/>
       <c r="N938" s="1"/>
@@ -38408,7 +38472,7 @@
       <c r="H939" s="16"/>
       <c r="I939" s="16"/>
       <c r="J939" s="16"/>
-      <c r="K939" s="16"/>
+      <c r="K939" s="39"/>
       <c r="L939" s="16"/>
       <c r="M939" s="16"/>
       <c r="N939" s="1"/>
@@ -38436,7 +38500,7 @@
       <c r="H940" s="22"/>
       <c r="I940" s="22"/>
       <c r="J940" s="22"/>
-      <c r="K940" s="22"/>
+      <c r="K940" s="40"/>
       <c r="L940" s="22"/>
       <c r="M940" s="22"/>
       <c r="N940" s="1"/>
@@ -38464,7 +38528,7 @@
       <c r="H941" s="16"/>
       <c r="I941" s="16"/>
       <c r="J941" s="16"/>
-      <c r="K941" s="16"/>
+      <c r="K941" s="39"/>
       <c r="L941" s="16"/>
       <c r="M941" s="16"/>
       <c r="N941" s="1"/>
@@ -38492,7 +38556,7 @@
       <c r="H942" s="22"/>
       <c r="I942" s="22"/>
       <c r="J942" s="22"/>
-      <c r="K942" s="22"/>
+      <c r="K942" s="40"/>
       <c r="L942" s="22"/>
       <c r="M942" s="22"/>
       <c r="N942" s="1"/>
@@ -38520,7 +38584,7 @@
       <c r="H943" s="16"/>
       <c r="I943" s="16"/>
       <c r="J943" s="16"/>
-      <c r="K943" s="16"/>
+      <c r="K943" s="39"/>
       <c r="L943" s="16"/>
       <c r="M943" s="16"/>
       <c r="N943" s="1"/>
@@ -38548,7 +38612,7 @@
       <c r="H944" s="22"/>
       <c r="I944" s="22"/>
       <c r="J944" s="22"/>
-      <c r="K944" s="22"/>
+      <c r="K944" s="40"/>
       <c r="L944" s="22"/>
       <c r="M944" s="22"/>
       <c r="N944" s="1"/>
@@ -38576,7 +38640,7 @@
       <c r="H945" s="16"/>
       <c r="I945" s="16"/>
       <c r="J945" s="16"/>
-      <c r="K945" s="16"/>
+      <c r="K945" s="39"/>
       <c r="L945" s="16"/>
       <c r="M945" s="16"/>
       <c r="N945" s="1"/>
@@ -38604,7 +38668,7 @@
       <c r="H946" s="22"/>
       <c r="I946" s="22"/>
       <c r="J946" s="22"/>
-      <c r="K946" s="22"/>
+      <c r="K946" s="40"/>
       <c r="L946" s="22"/>
       <c r="M946" s="22"/>
       <c r="N946" s="1"/>
@@ -38632,7 +38696,7 @@
       <c r="H947" s="16"/>
       <c r="I947" s="16"/>
       <c r="J947" s="16"/>
-      <c r="K947" s="16"/>
+      <c r="K947" s="39"/>
       <c r="L947" s="16"/>
       <c r="M947" s="16"/>
       <c r="N947" s="1"/>
@@ -38660,7 +38724,7 @@
       <c r="H948" s="22"/>
       <c r="I948" s="22"/>
       <c r="J948" s="22"/>
-      <c r="K948" s="22"/>
+      <c r="K948" s="40"/>
       <c r="L948" s="22"/>
       <c r="M948" s="22"/>
       <c r="N948" s="1"/>
@@ -38688,7 +38752,7 @@
       <c r="H949" s="16"/>
       <c r="I949" s="16"/>
       <c r="J949" s="16"/>
-      <c r="K949" s="16"/>
+      <c r="K949" s="39"/>
       <c r="L949" s="16"/>
       <c r="M949" s="16"/>
       <c r="N949" s="1"/>
@@ -38716,7 +38780,7 @@
       <c r="H950" s="22"/>
       <c r="I950" s="22"/>
       <c r="J950" s="22"/>
-      <c r="K950" s="22"/>
+      <c r="K950" s="40"/>
       <c r="L950" s="22"/>
       <c r="M950" s="22"/>
       <c r="N950" s="1"/>
@@ -38744,7 +38808,7 @@
       <c r="H951" s="16"/>
       <c r="I951" s="16"/>
       <c r="J951" s="16"/>
-      <c r="K951" s="16"/>
+      <c r="K951" s="39"/>
       <c r="L951" s="16"/>
       <c r="M951" s="16"/>
       <c r="N951" s="1"/>
@@ -38772,7 +38836,7 @@
       <c r="H952" s="22"/>
       <c r="I952" s="22"/>
       <c r="J952" s="22"/>
-      <c r="K952" s="22"/>
+      <c r="K952" s="40"/>
       <c r="L952" s="22"/>
       <c r="M952" s="22"/>
       <c r="N952" s="1"/>
@@ -38800,7 +38864,7 @@
       <c r="H953" s="16"/>
       <c r="I953" s="16"/>
       <c r="J953" s="16"/>
-      <c r="K953" s="16"/>
+      <c r="K953" s="39"/>
       <c r="L953" s="16"/>
       <c r="M953" s="16"/>
       <c r="N953" s="1"/>
@@ -38828,7 +38892,7 @@
       <c r="H954" s="22"/>
       <c r="I954" s="22"/>
       <c r="J954" s="22"/>
-      <c r="K954" s="22"/>
+      <c r="K954" s="40"/>
       <c r="L954" s="22"/>
       <c r="M954" s="22"/>
       <c r="N954" s="1"/>
@@ -38856,7 +38920,7 @@
       <c r="H955" s="16"/>
       <c r="I955" s="16"/>
       <c r="J955" s="16"/>
-      <c r="K955" s="16"/>
+      <c r="K955" s="39"/>
       <c r="L955" s="16"/>
       <c r="M955" s="16"/>
       <c r="N955" s="1"/>
@@ -38884,7 +38948,7 @@
       <c r="H956" s="22"/>
       <c r="I956" s="22"/>
       <c r="J956" s="22"/>
-      <c r="K956" s="22"/>
+      <c r="K956" s="40"/>
       <c r="L956" s="22"/>
       <c r="M956" s="22"/>
       <c r="N956" s="1"/>
@@ -38912,7 +38976,7 @@
       <c r="H957" s="16"/>
       <c r="I957" s="16"/>
       <c r="J957" s="16"/>
-      <c r="K957" s="16"/>
+      <c r="K957" s="39"/>
       <c r="L957" s="16"/>
       <c r="M957" s="16"/>
       <c r="N957" s="1"/>
@@ -38940,7 +39004,7 @@
       <c r="H958" s="22"/>
       <c r="I958" s="22"/>
       <c r="J958" s="22"/>
-      <c r="K958" s="22"/>
+      <c r="K958" s="40"/>
       <c r="L958" s="22"/>
       <c r="M958" s="22"/>
       <c r="N958" s="1"/>
@@ -38968,7 +39032,7 @@
       <c r="H959" s="16"/>
       <c r="I959" s="16"/>
       <c r="J959" s="16"/>
-      <c r="K959" s="16"/>
+      <c r="K959" s="39"/>
       <c r="L959" s="16"/>
       <c r="M959" s="16"/>
       <c r="N959" s="1"/>
@@ -38996,7 +39060,7 @@
       <c r="H960" s="22"/>
       <c r="I960" s="22"/>
       <c r="J960" s="22"/>
-      <c r="K960" s="22"/>
+      <c r="K960" s="40"/>
       <c r="L960" s="22"/>
       <c r="M960" s="22"/>
       <c r="N960" s="1"/>
@@ -39024,7 +39088,7 @@
       <c r="H961" s="16"/>
       <c r="I961" s="16"/>
       <c r="J961" s="16"/>
-      <c r="K961" s="16"/>
+      <c r="K961" s="39"/>
       <c r="L961" s="16"/>
       <c r="M961" s="16"/>
       <c r="N961" s="1"/>
@@ -39052,7 +39116,7 @@
       <c r="H962" s="22"/>
       <c r="I962" s="22"/>
       <c r="J962" s="22"/>
-      <c r="K962" s="22"/>
+      <c r="K962" s="40"/>
       <c r="L962" s="22"/>
       <c r="M962" s="22"/>
       <c r="N962" s="1"/>
@@ -39080,7 +39144,7 @@
       <c r="H963" s="16"/>
       <c r="I963" s="16"/>
       <c r="J963" s="16"/>
-      <c r="K963" s="16"/>
+      <c r="K963" s="39"/>
       <c r="L963" s="16"/>
       <c r="M963" s="16"/>
       <c r="N963" s="1"/>
@@ -39108,7 +39172,7 @@
       <c r="H964" s="22"/>
       <c r="I964" s="22"/>
       <c r="J964" s="22"/>
-      <c r="K964" s="22"/>
+      <c r="K964" s="40"/>
       <c r="L964" s="22"/>
       <c r="M964" s="22"/>
       <c r="N964" s="1"/>
@@ -39136,7 +39200,7 @@
       <c r="H965" s="16"/>
       <c r="I965" s="16"/>
       <c r="J965" s="16"/>
-      <c r="K965" s="16"/>
+      <c r="K965" s="39"/>
       <c r="L965" s="16"/>
       <c r="M965" s="16"/>
       <c r="N965" s="1"/>
@@ -39164,7 +39228,7 @@
       <c r="H966" s="22"/>
       <c r="I966" s="22"/>
       <c r="J966" s="22"/>
-      <c r="K966" s="22"/>
+      <c r="K966" s="40"/>
       <c r="L966" s="22"/>
       <c r="M966" s="22"/>
       <c r="N966" s="1"/>
@@ -39192,7 +39256,7 @@
       <c r="H967" s="16"/>
       <c r="I967" s="16"/>
       <c r="J967" s="16"/>
-      <c r="K967" s="16"/>
+      <c r="K967" s="39"/>
       <c r="L967" s="16"/>
       <c r="M967" s="16"/>
       <c r="N967" s="1"/>
@@ -39220,7 +39284,7 @@
       <c r="H968" s="22"/>
       <c r="I968" s="22"/>
       <c r="J968" s="22"/>
-      <c r="K968" s="22"/>
+      <c r="K968" s="40"/>
       <c r="L968" s="22"/>
       <c r="M968" s="22"/>
       <c r="N968" s="1"/>
@@ -39248,7 +39312,7 @@
       <c r="H969" s="16"/>
       <c r="I969" s="16"/>
       <c r="J969" s="16"/>
-      <c r="K969" s="16"/>
+      <c r="K969" s="39"/>
       <c r="L969" s="16"/>
       <c r="M969" s="16"/>
       <c r="N969" s="1"/>
@@ -39276,7 +39340,7 @@
       <c r="H970" s="22"/>
       <c r="I970" s="22"/>
       <c r="J970" s="22"/>
-      <c r="K970" s="22"/>
+      <c r="K970" s="40"/>
       <c r="L970" s="22"/>
       <c r="M970" s="22"/>
       <c r="N970" s="1"/>
@@ -39304,7 +39368,7 @@
       <c r="H971" s="16"/>
       <c r="I971" s="16"/>
       <c r="J971" s="16"/>
-      <c r="K971" s="16"/>
+      <c r="K971" s="39"/>
       <c r="L971" s="16"/>
       <c r="M971" s="16"/>
       <c r="N971" s="1"/>
@@ -39332,7 +39396,7 @@
       <c r="H972" s="22"/>
       <c r="I972" s="22"/>
       <c r="J972" s="22"/>
-      <c r="K972" s="22"/>
+      <c r="K972" s="40"/>
       <c r="L972" s="22"/>
       <c r="M972" s="22"/>
       <c r="N972" s="1"/>
@@ -39360,7 +39424,7 @@
       <c r="H973" s="16"/>
       <c r="I973" s="16"/>
       <c r="J973" s="16"/>
-      <c r="K973" s="16"/>
+      <c r="K973" s="39"/>
       <c r="L973" s="16"/>
       <c r="M973" s="16"/>
       <c r="N973" s="1"/>
@@ -39388,7 +39452,7 @@
       <c r="H974" s="22"/>
       <c r="I974" s="22"/>
       <c r="J974" s="22"/>
-      <c r="K974" s="22"/>
+      <c r="K974" s="40"/>
       <c r="L974" s="22"/>
       <c r="M974" s="22"/>
       <c r="N974" s="1"/>
@@ -39416,7 +39480,7 @@
       <c r="H975" s="16"/>
       <c r="I975" s="16"/>
       <c r="J975" s="16"/>
-      <c r="K975" s="16"/>
+      <c r="K975" s="39"/>
       <c r="L975" s="16"/>
       <c r="M975" s="16"/>
       <c r="N975" s="1"/>
@@ -39444,7 +39508,7 @@
       <c r="H976" s="22"/>
       <c r="I976" s="22"/>
       <c r="J976" s="22"/>
-      <c r="K976" s="22"/>
+      <c r="K976" s="40"/>
       <c r="L976" s="22"/>
       <c r="M976" s="22"/>
       <c r="N976" s="1"/>
@@ -39472,7 +39536,7 @@
       <c r="H977" s="16"/>
       <c r="I977" s="16"/>
       <c r="J977" s="16"/>
-      <c r="K977" s="16"/>
+      <c r="K977" s="39"/>
       <c r="L977" s="16"/>
       <c r="M977" s="16"/>
       <c r="N977" s="1"/>
@@ -39500,7 +39564,7 @@
       <c r="H978" s="22"/>
       <c r="I978" s="22"/>
       <c r="J978" s="22"/>
-      <c r="K978" s="22"/>
+      <c r="K978" s="40"/>
       <c r="L978" s="22"/>
       <c r="M978" s="22"/>
       <c r="N978" s="1"/>
@@ -39528,7 +39592,7 @@
       <c r="H979" s="16"/>
       <c r="I979" s="16"/>
       <c r="J979" s="16"/>
-      <c r="K979" s="16"/>
+      <c r="K979" s="39"/>
       <c r="L979" s="16"/>
       <c r="M979" s="16"/>
       <c r="N979" s="1"/>
@@ -39556,7 +39620,7 @@
       <c r="H980" s="22"/>
       <c r="I980" s="22"/>
       <c r="J980" s="22"/>
-      <c r="K980" s="22"/>
+      <c r="K980" s="40"/>
       <c r="L980" s="22"/>
       <c r="M980" s="22"/>
       <c r="N980" s="1"/>
@@ -39584,7 +39648,7 @@
       <c r="H981" s="16"/>
       <c r="I981" s="16"/>
       <c r="J981" s="16"/>
-      <c r="K981" s="16"/>
+      <c r="K981" s="39"/>
       <c r="L981" s="16"/>
       <c r="M981" s="16"/>
       <c r="N981" s="1"/>
@@ -39612,7 +39676,7 @@
       <c r="H982" s="22"/>
       <c r="I982" s="22"/>
       <c r="J982" s="22"/>
-      <c r="K982" s="22"/>
+      <c r="K982" s="40"/>
       <c r="L982" s="22"/>
       <c r="M982" s="22"/>
       <c r="N982" s="1"/>
@@ -39640,7 +39704,7 @@
       <c r="H983" s="16"/>
       <c r="I983" s="16"/>
       <c r="J983" s="16"/>
-      <c r="K983" s="16"/>
+      <c r="K983" s="39"/>
       <c r="L983" s="16"/>
       <c r="M983" s="16"/>
       <c r="N983" s="1"/>
@@ -39668,7 +39732,7 @@
       <c r="H984" s="22"/>
       <c r="I984" s="22"/>
       <c r="J984" s="22"/>
-      <c r="K984" s="22"/>
+      <c r="K984" s="40"/>
       <c r="L984" s="22"/>
       <c r="M984" s="22"/>
       <c r="N984" s="1"/>
@@ -39696,7 +39760,7 @@
       <c r="H985" s="16"/>
       <c r="I985" s="16"/>
       <c r="J985" s="16"/>
-      <c r="K985" s="16"/>
+      <c r="K985" s="39"/>
       <c r="L985" s="16"/>
       <c r="M985" s="16"/>
       <c r="N985" s="1"/>
@@ -39724,7 +39788,7 @@
       <c r="H986" s="22"/>
       <c r="I986" s="22"/>
       <c r="J986" s="22"/>
-      <c r="K986" s="22"/>
+      <c r="K986" s="40"/>
       <c r="L986" s="22"/>
       <c r="M986" s="22"/>
       <c r="N986" s="1"/>
@@ -39752,7 +39816,7 @@
       <c r="H987" s="16"/>
       <c r="I987" s="16"/>
       <c r="J987" s="16"/>
-      <c r="K987" s="16"/>
+      <c r="K987" s="39"/>
       <c r="L987" s="16"/>
       <c r="M987" s="16"/>
       <c r="N987" s="1"/>
@@ -39780,7 +39844,7 @@
       <c r="H988" s="22"/>
       <c r="I988" s="22"/>
       <c r="J988" s="22"/>
-      <c r="K988" s="22"/>
+      <c r="K988" s="40"/>
       <c r="L988" s="22"/>
       <c r="M988" s="22"/>
       <c r="N988" s="1"/>
@@ -39808,7 +39872,7 @@
       <c r="H989" s="16"/>
       <c r="I989" s="16"/>
       <c r="J989" s="16"/>
-      <c r="K989" s="16"/>
+      <c r="K989" s="39"/>
       <c r="L989" s="16"/>
       <c r="M989" s="16"/>
       <c r="N989" s="1"/>
@@ -39836,7 +39900,7 @@
       <c r="H990" s="22"/>
       <c r="I990" s="22"/>
       <c r="J990" s="22"/>
-      <c r="K990" s="22"/>
+      <c r="K990" s="40"/>
       <c r="L990" s="22"/>
       <c r="M990" s="22"/>
       <c r="N990" s="1"/>
@@ -39864,7 +39928,7 @@
       <c r="H991" s="16"/>
       <c r="I991" s="16"/>
       <c r="J991" s="16"/>
-      <c r="K991" s="16"/>
+      <c r="K991" s="39"/>
       <c r="L991" s="16"/>
       <c r="M991" s="16"/>
       <c r="N991" s="1"/>
@@ -39892,7 +39956,7 @@
       <c r="H992" s="22"/>
       <c r="I992" s="22"/>
       <c r="J992" s="22"/>
-      <c r="K992" s="22"/>
+      <c r="K992" s="40"/>
       <c r="L992" s="22"/>
       <c r="M992" s="22"/>
       <c r="N992" s="1"/>
@@ -39920,7 +39984,7 @@
       <c r="H993" s="16"/>
       <c r="I993" s="16"/>
       <c r="J993" s="16"/>
-      <c r="K993" s="16"/>
+      <c r="K993" s="39"/>
       <c r="L993" s="16"/>
       <c r="M993" s="16"/>
       <c r="N993" s="1"/>
@@ -39948,7 +40012,7 @@
       <c r="H994" s="22"/>
       <c r="I994" s="22"/>
       <c r="J994" s="22"/>
-      <c r="K994" s="22"/>
+      <c r="K994" s="40"/>
       <c r="L994" s="22"/>
       <c r="M994" s="22"/>
       <c r="N994" s="1"/>
@@ -39976,7 +40040,7 @@
       <c r="H995" s="16"/>
       <c r="I995" s="16"/>
       <c r="J995" s="16"/>
-      <c r="K995" s="16"/>
+      <c r="K995" s="39"/>
       <c r="L995" s="16"/>
       <c r="M995" s="16"/>
       <c r="N995" s="1"/>
@@ -40004,7 +40068,7 @@
       <c r="H996" s="22"/>
       <c r="I996" s="22"/>
       <c r="J996" s="22"/>
-      <c r="K996" s="22"/>
+      <c r="K996" s="40"/>
       <c r="L996" s="22"/>
       <c r="M996" s="22"/>
       <c r="N996" s="1"/>
@@ -40032,7 +40096,7 @@
       <c r="H997" s="16"/>
       <c r="I997" s="16"/>
       <c r="J997" s="16"/>
-      <c r="K997" s="16"/>
+      <c r="K997" s="39"/>
       <c r="L997" s="16"/>
       <c r="M997" s="16"/>
       <c r="N997" s="1"/>
@@ -40060,7 +40124,7 @@
       <c r="H998" s="22"/>
       <c r="I998" s="22"/>
       <c r="J998" s="22"/>
-      <c r="K998" s="22"/>
+      <c r="K998" s="40"/>
       <c r="L998" s="22"/>
       <c r="M998" s="22"/>
       <c r="N998" s="1"/>
@@ -40088,7 +40152,7 @@
       <c r="H999" s="16"/>
       <c r="I999" s="16"/>
       <c r="J999" s="16"/>
-      <c r="K999" s="16"/>
+      <c r="K999" s="39"/>
       <c r="L999" s="16"/>
       <c r="M999" s="16"/>
       <c r="N999" s="1"/>
@@ -40116,7 +40180,7 @@
       <c r="H1000" s="22"/>
       <c r="I1000" s="22"/>
       <c r="J1000" s="22"/>
-      <c r="K1000" s="22"/>
+      <c r="K1000" s="40"/>
       <c r="L1000" s="22"/>
       <c r="M1000" s="22"/>
       <c r="N1000" s="1"/>
@@ -40144,7 +40208,7 @@
       <c r="H1001" s="16"/>
       <c r="I1001" s="16"/>
       <c r="J1001" s="16"/>
-      <c r="K1001" s="16"/>
+      <c r="K1001" s="39"/>
       <c r="L1001" s="16"/>
       <c r="M1001" s="16"/>
       <c r="N1001" s="1"/>
@@ -40172,7 +40236,7 @@
       <c r="H1002" s="22"/>
       <c r="I1002" s="22"/>
       <c r="J1002" s="22"/>
-      <c r="K1002" s="22"/>
+      <c r="K1002" s="40"/>
       <c r="L1002" s="22"/>
       <c r="M1002" s="22"/>
       <c r="N1002" s="1"/>
@@ -40200,7 +40264,7 @@
       <c r="H1003" s="16"/>
       <c r="I1003" s="16"/>
       <c r="J1003" s="16"/>
-      <c r="K1003" s="16"/>
+      <c r="K1003" s="39"/>
       <c r="L1003" s="16"/>
       <c r="M1003" s="16"/>
       <c r="N1003" s="1"/>
@@ -40228,7 +40292,7 @@
       <c r="H1004" s="22"/>
       <c r="I1004" s="22"/>
       <c r="J1004" s="22"/>
-      <c r="K1004" s="22"/>
+      <c r="K1004" s="40"/>
       <c r="L1004" s="22"/>
       <c r="M1004" s="22"/>
       <c r="N1004" s="1"/>
@@ -40256,7 +40320,7 @@
       <c r="H1005" s="16"/>
       <c r="I1005" s="16"/>
       <c r="J1005" s="16"/>
-      <c r="K1005" s="16"/>
+      <c r="K1005" s="39"/>
       <c r="L1005" s="16"/>
       <c r="M1005" s="16"/>
       <c r="N1005" s="1"/>
@@ -40284,7 +40348,7 @@
       <c r="H1006" s="22"/>
       <c r="I1006" s="22"/>
       <c r="J1006" s="22"/>
-      <c r="K1006" s="22"/>
+      <c r="K1006" s="40"/>
       <c r="L1006" s="22"/>
       <c r="M1006" s="22"/>
       <c r="N1006" s="1"/>
@@ -40312,7 +40376,7 @@
       <c r="H1007" s="16"/>
       <c r="I1007" s="16"/>
       <c r="J1007" s="16"/>
-      <c r="K1007" s="16"/>
+      <c r="K1007" s="39"/>
       <c r="L1007" s="16"/>
       <c r="M1007" s="16"/>
       <c r="N1007" s="1"/>
@@ -40340,7 +40404,7 @@
       <c r="H1008" s="22"/>
       <c r="I1008" s="22"/>
       <c r="J1008" s="22"/>
-      <c r="K1008" s="22"/>
+      <c r="K1008" s="40"/>
       <c r="L1008" s="22"/>
       <c r="M1008" s="22"/>
       <c r="N1008" s="1"/>
@@ -40368,7 +40432,7 @@
       <c r="H1009" s="16"/>
       <c r="I1009" s="16"/>
       <c r="J1009" s="16"/>
-      <c r="K1009" s="16"/>
+      <c r="K1009" s="39"/>
       <c r="L1009" s="16"/>
       <c r="M1009" s="16"/>
       <c r="N1009" s="1"/>
@@ -40396,7 +40460,7 @@
       <c r="H1010" s="22"/>
       <c r="I1010" s="22"/>
       <c r="J1010" s="22"/>
-      <c r="K1010" s="22"/>
+      <c r="K1010" s="40"/>
       <c r="L1010" s="22"/>
       <c r="M1010" s="22"/>
       <c r="N1010" s="1"/>
@@ -40424,7 +40488,7 @@
       <c r="H1011" s="16"/>
       <c r="I1011" s="16"/>
       <c r="J1011" s="16"/>
-      <c r="K1011" s="16"/>
+      <c r="K1011" s="39"/>
       <c r="L1011" s="16"/>
       <c r="M1011" s="16"/>
       <c r="N1011" s="1"/>
@@ -40452,7 +40516,7 @@
       <c r="H1012" s="22"/>
       <c r="I1012" s="22"/>
       <c r="J1012" s="22"/>
-      <c r="K1012" s="22"/>
+      <c r="K1012" s="40"/>
       <c r="L1012" s="22"/>
       <c r="M1012" s="22"/>
       <c r="N1012" s="1"/>
@@ -40480,7 +40544,7 @@
       <c r="H1013" s="16"/>
       <c r="I1013" s="16"/>
       <c r="J1013" s="16"/>
-      <c r="K1013" s="16"/>
+      <c r="K1013" s="39"/>
       <c r="L1013" s="16"/>
       <c r="M1013" s="16"/>
       <c r="N1013" s="1"/>
@@ -40508,7 +40572,7 @@
       <c r="H1014" s="22"/>
       <c r="I1014" s="22"/>
       <c r="J1014" s="22"/>
-      <c r="K1014" s="22"/>
+      <c r="K1014" s="40"/>
       <c r="L1014" s="22"/>
       <c r="M1014" s="22"/>
       <c r="N1014" s="1"/>
@@ -40536,7 +40600,7 @@
       <c r="H1015" s="16"/>
       <c r="I1015" s="16"/>
       <c r="J1015" s="16"/>
-      <c r="K1015" s="16"/>
+      <c r="K1015" s="39"/>
       <c r="L1015" s="16"/>
       <c r="M1015" s="16"/>
       <c r="N1015" s="1"/>
@@ -40564,7 +40628,7 @@
       <c r="H1016" s="22"/>
       <c r="I1016" s="22"/>
       <c r="J1016" s="22"/>
-      <c r="K1016" s="22"/>
+      <c r="K1016" s="40"/>
       <c r="L1016" s="22"/>
       <c r="M1016" s="22"/>
       <c r="N1016" s="1"/>
@@ -40592,7 +40656,7 @@
       <c r="H1017" s="16"/>
       <c r="I1017" s="16"/>
       <c r="J1017" s="16"/>
-      <c r="K1017" s="16"/>
+      <c r="K1017" s="39"/>
       <c r="L1017" s="16"/>
       <c r="M1017" s="16"/>
       <c r="N1017" s="1"/>
@@ -40620,7 +40684,7 @@
       <c r="H1018" s="22"/>
       <c r="I1018" s="22"/>
       <c r="J1018" s="22"/>
-      <c r="K1018" s="22"/>
+      <c r="K1018" s="40"/>
       <c r="L1018" s="22"/>
       <c r="M1018" s="22"/>
       <c r="N1018" s="1"/>
@@ -40648,7 +40712,7 @@
       <c r="H1019" s="16"/>
       <c r="I1019" s="16"/>
       <c r="J1019" s="16"/>
-      <c r="K1019" s="16"/>
+      <c r="K1019" s="39"/>
       <c r="L1019" s="16"/>
       <c r="M1019" s="16"/>
       <c r="N1019" s="1"/>
@@ -40676,7 +40740,7 @@
       <c r="H1020" s="22"/>
       <c r="I1020" s="22"/>
       <c r="J1020" s="22"/>
-      <c r="K1020" s="22"/>
+      <c r="K1020" s="40"/>
       <c r="L1020" s="22"/>
       <c r="M1020" s="22"/>
       <c r="N1020" s="1"/>
@@ -40704,7 +40768,7 @@
       <c r="H1021" s="16"/>
       <c r="I1021" s="16"/>
       <c r="J1021" s="16"/>
-      <c r="K1021" s="16"/>
+      <c r="K1021" s="39"/>
       <c r="L1021" s="16"/>
       <c r="M1021" s="16"/>
       <c r="N1021" s="1"/>
@@ -40732,7 +40796,7 @@
       <c r="H1022" s="22"/>
       <c r="I1022" s="22"/>
       <c r="J1022" s="22"/>
-      <c r="K1022" s="22"/>
+      <c r="K1022" s="40"/>
       <c r="L1022" s="22"/>
       <c r="M1022" s="22"/>
       <c r="N1022" s="1"/>
@@ -40760,7 +40824,7 @@
       <c r="H1023" s="16"/>
       <c r="I1023" s="16"/>
       <c r="J1023" s="16"/>
-      <c r="K1023" s="16"/>
+      <c r="K1023" s="39"/>
       <c r="L1023" s="16"/>
       <c r="M1023" s="16"/>
       <c r="N1023" s="1"/>
@@ -40788,7 +40852,7 @@
       <c r="H1024" s="22"/>
       <c r="I1024" s="22"/>
       <c r="J1024" s="22"/>
-      <c r="K1024" s="22"/>
+      <c r="K1024" s="40"/>
       <c r="L1024" s="22"/>
       <c r="M1024" s="22"/>
       <c r="N1024" s="1"/>
@@ -40816,7 +40880,7 @@
       <c r="H1025" s="16"/>
       <c r="I1025" s="16"/>
       <c r="J1025" s="16"/>
-      <c r="K1025" s="16"/>
+      <c r="K1025" s="39"/>
       <c r="L1025" s="16"/>
       <c r="M1025" s="16"/>
       <c r="N1025" s="1"/>
@@ -40844,7 +40908,7 @@
       <c r="H1026" s="22"/>
       <c r="I1026" s="22"/>
       <c r="J1026" s="22"/>
-      <c r="K1026" s="22"/>
+      <c r="K1026" s="40"/>
       <c r="L1026" s="22"/>
       <c r="M1026" s="22"/>
       <c r="N1026" s="1"/>
@@ -40872,7 +40936,7 @@
       <c r="H1027" s="16"/>
       <c r="I1027" s="16"/>
       <c r="J1027" s="16"/>
-      <c r="K1027" s="16"/>
+      <c r="K1027" s="39"/>
       <c r="L1027" s="16"/>
       <c r="M1027" s="16"/>
       <c r="N1027" s="1"/>
@@ -40900,7 +40964,7 @@
       <c r="H1028" s="22"/>
       <c r="I1028" s="22"/>
       <c r="J1028" s="22"/>
-      <c r="K1028" s="22"/>
+      <c r="K1028" s="40"/>
       <c r="L1028" s="22"/>
       <c r="M1028" s="22"/>
       <c r="N1028" s="1"/>
@@ -40928,7 +40992,7 @@
       <c r="H1029" s="16"/>
       <c r="I1029" s="16"/>
       <c r="J1029" s="16"/>
-      <c r="K1029" s="16"/>
+      <c r="K1029" s="39"/>
       <c r="L1029" s="16"/>
       <c r="M1029" s="16"/>
       <c r="N1029" s="1"/>
@@ -40956,7 +41020,7 @@
       <c r="H1030" s="22"/>
       <c r="I1030" s="22"/>
       <c r="J1030" s="22"/>
-      <c r="K1030" s="22"/>
+      <c r="K1030" s="40"/>
       <c r="L1030" s="22"/>
       <c r="M1030" s="22"/>
       <c r="N1030" s="1"/>
@@ -40984,7 +41048,7 @@
       <c r="H1031" s="16"/>
       <c r="I1031" s="16"/>
       <c r="J1031" s="16"/>
-      <c r="K1031" s="16"/>
+      <c r="K1031" s="39"/>
       <c r="L1031" s="16"/>
       <c r="M1031" s="16"/>
       <c r="N1031" s="1"/>
@@ -41012,7 +41076,7 @@
       <c r="H1032" s="22"/>
       <c r="I1032" s="22"/>
       <c r="J1032" s="22"/>
-      <c r="K1032" s="22"/>
+      <c r="K1032" s="40"/>
       <c r="L1032" s="22"/>
       <c r="M1032" s="22"/>
       <c r="N1032" s="1"/>
@@ -41040,7 +41104,7 @@
       <c r="H1033" s="16"/>
       <c r="I1033" s="16"/>
       <c r="J1033" s="16"/>
-      <c r="K1033" s="16"/>
+      <c r="K1033" s="39"/>
       <c r="L1033" s="16"/>
       <c r="M1033" s="16"/>
       <c r="N1033" s="1"/>
@@ -41068,7 +41132,7 @@
       <c r="H1034" s="22"/>
       <c r="I1034" s="22"/>
       <c r="J1034" s="22"/>
-      <c r="K1034" s="22"/>
+      <c r="K1034" s="40"/>
       <c r="L1034" s="22"/>
       <c r="M1034" s="22"/>
       <c r="N1034" s="1"/>
@@ -41096,7 +41160,7 @@
       <c r="H1035" s="16"/>
       <c r="I1035" s="16"/>
       <c r="J1035" s="16"/>
-      <c r="K1035" s="16"/>
+      <c r="K1035" s="39"/>
       <c r="L1035" s="16"/>
       <c r="M1035" s="16"/>
       <c r="N1035" s="1"/>
@@ -41369,9 +41433,10 @@
     <hyperlink ref="J394" r:id="rId249" display="https://www.parker.com/content/dam/Parker-com/Literature/Electronic-Controls-Division/Literature-files/FP2000_datasheet.pdf" xr:uid="{E0E285E4-53B5-4272-B68B-B9D99879E119}"/>
     <hyperlink ref="J390" r:id="rId250" display="https://beilerhydraulics.com/cy2572b-beiler-premier-welded-cylinder-2-1-2-bore-x-72-stroke.html" xr:uid="{F934FD2A-E2A1-4654-9518-B785FEA2BE4C}"/>
     <hyperlink ref="J401" r:id="rId251" display="mailto:Sales@HeatX.com" xr:uid="{93E7A256-FC2F-4BD9-AD12-6677F982C19C}"/>
+    <hyperlink ref="J436" r:id="rId252" xr:uid="{691DBF20-7119-449C-B1CA-7542EA4C4FEE}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId252"/>
+  <pageSetup orientation="landscape" r:id="rId253"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
